--- a/Conlangs/norvunic.xlsx
+++ b/Conlangs/norvunic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="833">
   <si>
     <t>Word</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Search:</t>
   </si>
   <si>
-    <t>no</t>
+    <t>pe</t>
   </si>
   <si>
     <t>ægi</t>
@@ -72,123 +72,126 @@
     <t>nus ægi blûlr = blue very robes (very blue robes)</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>æner</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>dolfar</t>
+  </si>
+  <si>
+    <t>past tense/ed (-de)</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>davde = ran</t>
+  </si>
+  <si>
+    <t>æt</t>
+  </si>
+  <si>
+    <t>out, or out of</t>
+  </si>
+  <si>
+    <t>present tense/ing (parri)</t>
+  </si>
+  <si>
+    <t>dav parri = run currently (running)</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>future tense/will (hav)</t>
+  </si>
+  <si>
+    <t>hav dav = will run</t>
+  </si>
+  <si>
+    <t>afa</t>
+  </si>
+  <si>
+    <t>refers to a group the speaker is in. equivalent to us, and we.</t>
+  </si>
+  <si>
+    <t>plural/s (-le)</t>
+  </si>
+  <si>
+    <t>atelgle = apples</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>about something, or the properties of</t>
+  </si>
+  <si>
+    <t>singular/a (ûn)</t>
+  </si>
+  <si>
+    <t>ûn atelg = one apple (an apple)</t>
+  </si>
+  <si>
+    <t>aht</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>possessive (telg)</t>
+  </si>
+  <si>
+    <t>after pronoun</t>
+  </si>
+  <si>
+    <t>eg telg sig heim = i own this house</t>
+  </si>
+  <si>
+    <t>ald</t>
+  </si>
+  <si>
+    <t>something, or someone that is old</t>
+  </si>
+  <si>
+    <t>hæner</t>
+  </si>
+  <si>
+    <t>nationality (lat) (like -ian, -ic, -ish, -ese, -i, -an)</t>
+  </si>
+  <si>
+    <t>after nation</t>
+  </si>
+  <si>
+    <t>norvun lat = norvun like (norvunic), eng lat = england like (english)</t>
+  </si>
+  <si>
+    <t>algbod</t>
+  </si>
+  <si>
+    <t>1: a problem. 2: trouble</t>
+  </si>
+  <si>
+    <t>language (lagi) (same thing as above)</t>
+  </si>
+  <si>
+    <t>norvunlagi = norvun speak (norvunic), englagi = england speak (english)</t>
+  </si>
+  <si>
+    <t>alglo</t>
+  </si>
+  <si>
     <t>away</t>
   </si>
   <si>
-    <t>æner</t>
-  </si>
-  <si>
-    <t>early</t>
-  </si>
-  <si>
-    <t>dolfar</t>
-  </si>
-  <si>
-    <t>past tense/ed (-de)</t>
-  </si>
-  <si>
-    <t>suffix</t>
-  </si>
-  <si>
-    <t>davde = ran</t>
-  </si>
-  <si>
-    <t>æt</t>
-  </si>
-  <si>
-    <t>out, or out of</t>
-  </si>
-  <si>
-    <t>present tense/ing (parri)</t>
-  </si>
-  <si>
-    <t>dav parri = run currently (running)</t>
-  </si>
-  <si>
-    <t>af</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>future tense/will (hav)</t>
-  </si>
-  <si>
-    <t>hav dav = will run</t>
-  </si>
-  <si>
-    <t>afa</t>
-  </si>
-  <si>
-    <t>refers to a group the speaker is in. equivalent to us, and we.</t>
-  </si>
-  <si>
-    <t>plural/s (-le)</t>
-  </si>
-  <si>
-    <t>atelgle = apples</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>about something, or the properties of</t>
-  </si>
-  <si>
-    <t>singular/a (ûn)</t>
-  </si>
-  <si>
-    <t>ûn atelg = one apple (an apple)</t>
-  </si>
-  <si>
-    <t>aht</t>
-  </si>
-  <si>
-    <t>eight</t>
-  </si>
-  <si>
-    <t>possessive (telg)</t>
-  </si>
-  <si>
-    <t>after pronoun</t>
-  </si>
-  <si>
-    <t>eg telg sig heim = i own this house</t>
-  </si>
-  <si>
-    <t>ald</t>
-  </si>
-  <si>
-    <t>something, or someone that is old</t>
-  </si>
-  <si>
-    <t>hæner</t>
-  </si>
-  <si>
-    <t>nationality (lat) (like -ian, -ic, -ish, -ese, -i, -an)</t>
-  </si>
-  <si>
-    <t>after nation</t>
-  </si>
-  <si>
-    <t>eg jeg norvun lat = i be norvun like (i am norvunic)</t>
-  </si>
-  <si>
-    <t>algbod</t>
-  </si>
-  <si>
-    <t>1: a problem. 2: trouble</t>
-  </si>
-  <si>
-    <t>language (lagi) (same thing as above)</t>
-  </si>
-  <si>
-    <t>eg dæn lagi norvun lagi = i able speak norvun speak (i can speak norvunic)</t>
-  </si>
-  <si>
-    <t>alglo</t>
-  </si>
-  <si>
     <t>likeness/ness or ful (lat)</t>
   </si>
   <si>
@@ -216,10 +219,22 @@
     <t>any type of armor</t>
   </si>
   <si>
+    <t>weather/ing (sorp)</t>
+  </si>
+  <si>
+    <t>pe jû jeg sorp parri = the rainwater be falling (it's raining)</t>
+  </si>
+  <si>
     <t>ap</t>
   </si>
   <si>
-    <t>for</t>
+    <t>for. can be used as a suffix, explained in 'morphemes'.</t>
+  </si>
+  <si>
+    <t>ready ('ap)</t>
+  </si>
+  <si>
+    <t>hagt'ap skog = battle-for axe (axe for battle)</t>
   </si>
   <si>
     <t>arandas</t>
@@ -300,6 +315,12 @@
     <t>1: norvunic name for a ranastar. 2: an anthropomorphic animal.</t>
   </si>
   <si>
+    <t>bafrud</t>
+  </si>
+  <si>
+    <t>ready for; prepared for</t>
+  </si>
+  <si>
     <t>bag</t>
   </si>
   <si>
@@ -540,7 +561,7 @@
     <t>dervda</t>
   </si>
   <si>
-    <t>a spear</t>
+    <t>a spear (weapon)</t>
   </si>
   <si>
     <t>dev</t>
@@ -621,6 +642,12 @@
     <t>equivalent to stupid/dumb</t>
   </si>
   <si>
+    <t>durmir</t>
+  </si>
+  <si>
+    <t>a character in a story</t>
+  </si>
+  <si>
     <t>duv</t>
   </si>
   <si>
@@ -684,6 +711,12 @@
     <t>1: the knowledge of someone. 2: information.</t>
   </si>
   <si>
+    <t>enlut</t>
+  </si>
+  <si>
+    <t>to learn</t>
+  </si>
+  <si>
     <t>enlutar</t>
   </si>
   <si>
@@ -972,6 +1005,12 @@
     <t>being fat</t>
   </si>
   <si>
+    <t>glov</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
     <t>glyn</t>
   </si>
   <si>
@@ -1086,7 +1125,7 @@
     <t>hagt'ap skog</t>
   </si>
   <si>
-    <t>a battleaxe. literally means 'battle-for axe', or 'battle-ready axe'</t>
+    <t>a battleaxe. literally means 'battle-for axe', or 'battle-ready axe' (weapon)</t>
   </si>
   <si>
     <t>hagtol</t>
@@ -1215,7 +1254,7 @@
     <t>ik</t>
   </si>
   <si>
-    <t>not, or negator</t>
+    <t>not, or negator. explained in 'morphemes'.</t>
   </si>
   <si>
     <t>to disappear, or vanish</t>
@@ -1401,7 +1440,7 @@
     <t>kyræm</t>
   </si>
   <si>
-    <t>a sword</t>
+    <t>a sword (weapon)</t>
   </si>
   <si>
     <t>lægi</t>
@@ -1434,6 +1473,12 @@
     <t>when, or while</t>
   </si>
   <si>
+    <t>larfror</t>
+  </si>
+  <si>
+    <t>a flower</t>
+  </si>
+  <si>
     <t>lat</t>
   </si>
   <si>
@@ -1452,12 +1497,6 @@
     <t>a butterfly. literally means 'beautiful bug'</t>
   </si>
   <si>
-    <t>larfror</t>
-  </si>
-  <si>
-    <t>a flower</t>
-  </si>
-  <si>
     <t>leivær</t>
   </si>
   <si>
@@ -1536,6 +1575,9 @@
     <t>1: life. 2: one that is alive, or still living.</t>
   </si>
   <si>
+    <t>væk</t>
+  </si>
+  <si>
     <t>lur</t>
   </si>
   <si>
@@ -1545,7 +1587,7 @@
     <t>lur dervda</t>
   </si>
   <si>
-    <t>a pike</t>
+    <t>a pike, or a long spear (weapon)</t>
   </si>
   <si>
     <t>lur fjolpla</t>
@@ -1557,7 +1599,7 @@
     <t>lur kyræm</t>
   </si>
   <si>
-    <t>a longsword</t>
+    <t>a longsword (weapon)</t>
   </si>
   <si>
     <t>lur lagi</t>
@@ -1569,7 +1611,7 @@
     <t>lur skog</t>
   </si>
   <si>
-    <t>a longaxe, or a dane axe</t>
+    <t>a longaxe, or a dane axe. (weapon)</t>
   </si>
   <si>
     <t>lurul</t>
@@ -1647,7 +1689,7 @@
     <t>mos kyræm</t>
   </si>
   <si>
-    <t>a shortsword</t>
+    <t>a shortsword (weapon)</t>
   </si>
   <si>
     <t>mûal</t>
@@ -1797,6 +1839,9 @@
     <t>to give, or grant</t>
   </si>
   <si>
+    <t>equivalent of the</t>
+  </si>
+  <si>
     <t>peim</t>
   </si>
   <si>
@@ -1815,7 +1860,7 @@
     <t>a quill</t>
   </si>
   <si>
-    <t>plorvle</t>
+    <t>plorvlar</t>
   </si>
   <si>
     <t>used to describe a sour taste</t>
@@ -1911,7 +1956,7 @@
     <t>sag</t>
   </si>
   <si>
-    <t>a knife, dagger, or dirk</t>
+    <t>a knife, dagger, or dirk (weapon)</t>
   </si>
   <si>
     <t>sak</t>
@@ -1959,6 +2004,12 @@
     <t>that, or it</t>
   </si>
   <si>
+    <t>satle</t>
+  </si>
+  <si>
+    <t>equivalent of those, plural of that</t>
+  </si>
+  <si>
     <t>saveik</t>
   </si>
   <si>
@@ -2013,6 +2064,12 @@
     <t>to rot</t>
   </si>
   <si>
+    <t>sergval</t>
+  </si>
+  <si>
+    <t>refers to a humanoid creature; person.</t>
+  </si>
+  <si>
     <t>sert</t>
   </si>
   <si>
@@ -2025,6 +2082,12 @@
     <t>this</t>
   </si>
   <si>
+    <t>sigle</t>
+  </si>
+  <si>
+    <t>equivalent of these, plural of this</t>
+  </si>
+  <si>
     <t>sil</t>
   </si>
   <si>
@@ -2052,7 +2115,7 @@
     <t>skog</t>
   </si>
   <si>
-    <t>an axe</t>
+    <t>an axe (weapon)</t>
   </si>
   <si>
     <t>solmun</t>
@@ -2085,6 +2148,12 @@
     <t>to fly</t>
   </si>
   <si>
+    <t>storn</t>
+  </si>
+  <si>
+    <t>a story, or a length of text telling a story</t>
+  </si>
+  <si>
     <t>sulf</t>
   </si>
   <si>
@@ -2169,7 +2238,7 @@
     <t>tel</t>
   </si>
   <si>
-    <t>thee</t>
+    <t>three</t>
   </si>
   <si>
     <t>telg</t>
@@ -2193,6 +2262,12 @@
     <t>two</t>
   </si>
   <si>
+    <t>torlar</t>
+  </si>
+  <si>
+    <t>1: structure of. 2: the frame of a building. 3: how an item/furniture was built. 4: the stability of a building, furniture or item.</t>
+  </si>
+  <si>
     <t>tortur</t>
   </si>
   <si>
@@ -2265,9 +2340,6 @@
     <t>to suffer</t>
   </si>
   <si>
-    <t>væk</t>
-  </si>
-  <si>
     <t>death</t>
   </si>
   <si>
@@ -2331,6 +2403,12 @@
     <t>wine</t>
   </si>
   <si>
+    <t>visvral</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
     <t>no, as in 'no, i didn't.'</t>
   </si>
   <si>
@@ -2428,6 +2506,12 @@
   </si>
   <si>
     <t>a pillar</t>
+  </si>
+  <si>
+    <t>wonir</t>
+  </si>
+  <si>
+    <t>to give up, or surrender</t>
   </si>
 </sst>
 </file>
@@ -2499,7 +2583,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2538,6 +2622,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
@@ -2767,7 +2854,7 @@
     <col customWidth="1" min="4" max="4" width="16.5"/>
     <col customWidth="1" min="5" max="5" width="10.25"/>
     <col customWidth="1" min="6" max="6" width="33.38"/>
-    <col customWidth="1" min="7" max="7" width="8.0"/>
+    <col customWidth="1" min="7" max="7" width="9.13"/>
     <col customWidth="1" min="8" max="8" width="36.25"/>
     <col customWidth="1" min="9" max="9" width="8.88"/>
   </cols>
@@ -2838,7 +2925,7 @@
       </c>
       <c r="H2" s="8" t="str">
         <f>IF(COUNTIF(A:A, H1)&gt;0, "Yes", "No")</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -2920,13 +3007,13 @@
       <c r="F4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(A:A, REGEXMATCH(B:B, H3))"),"alglo")</f>
-        <v>alglo</v>
+      <c r="G4" s="13" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(A:A, REGEXMATCH(B:B, H3))"),"enlut")</f>
+        <v>enlut</v>
       </c>
       <c r="H4" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(B:B, REGEXMATCH(B:B, H3))"),"away")</f>
-        <v>away</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(B:B, REGEXMATCH(B:B, H3))"),"to learn")</f>
+        <v>to learn</v>
       </c>
       <c r="I4" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(C:C, REGEXMATCH(B:B, H3))"),"")</f>
@@ -2967,14 +3054,8 @@
       <c r="F5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sald")</f>
-        <v>sald</v>
-      </c>
-      <c r="H5" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"far, or far away")</f>
-        <v>far, or far away</v>
-      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3198,7 +3279,7 @@
         <v>55</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>56</v>
@@ -3229,17 +3310,17 @@
         <v>57</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -3264,20 +3345,20 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -3302,15 +3383,21 @@
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -3334,15 +3421,21 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -3366,13 +3459,12 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -3398,10 +3490,10 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -3430,10 +3522,10 @@
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -3462,10 +3554,10 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -3494,10 +3586,10 @@
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -3526,10 +3618,10 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -3558,10 +3650,10 @@
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -3590,10 +3682,10 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -3622,10 +3714,10 @@
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -3654,10 +3746,10 @@
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -3686,10 +3778,10 @@
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -3718,10 +3810,10 @@
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -3750,10 +3842,10 @@
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -3782,10 +3874,10 @@
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -3814,10 +3906,10 @@
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -3846,10 +3938,10 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -3878,10 +3970,10 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -3910,10 +4002,10 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -3942,10 +4034,10 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -3974,10 +4066,10 @@
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -4006,10 +4098,10 @@
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -4038,10 +4130,10 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -4069,15 +4161,13 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>115</v>
-      </c>
+      <c r="A38" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -4103,13 +4193,15 @@
       <c r="Z38" s="8"/>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="8"/>
+      <c r="A39" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -4136,10 +4228,10 @@
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -4168,10 +4260,10 @@
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -4200,10 +4292,10 @@
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -4232,10 +4324,10 @@
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -4264,10 +4356,10 @@
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -4296,10 +4388,10 @@
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -4328,10 +4420,10 @@
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -4360,10 +4452,10 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -4392,10 +4484,10 @@
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -4424,10 +4516,10 @@
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -4456,10 +4548,10 @@
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -4488,10 +4580,10 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -4520,10 +4612,10 @@
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -4552,10 +4644,10 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -4584,10 +4676,10 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -4616,10 +4708,10 @@
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -4648,10 +4740,10 @@
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -4680,10 +4772,10 @@
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -4712,10 +4804,10 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -4744,10 +4836,10 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -4776,10 +4868,10 @@
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -4808,10 +4900,10 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4840,10 +4932,10 @@
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -4872,10 +4964,10 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -4903,11 +4995,11 @@
       <c r="Z63" s="8"/>
     </row>
     <row r="64">
-      <c r="A64" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>167</v>
+      <c r="A64" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -4935,11 +5027,11 @@
       <c r="Z64" s="8"/>
     </row>
     <row r="65">
-      <c r="A65" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>169</v>
+      <c r="A65" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -4968,10 +5060,10 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -5000,10 +5092,10 @@
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5032,10 +5124,10 @@
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -5064,10 +5156,10 @@
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -5096,10 +5188,10 @@
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -5128,10 +5220,10 @@
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -5160,10 +5252,10 @@
     </row>
     <row r="72">
       <c r="A72" s="12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -5192,10 +5284,10 @@
     </row>
     <row r="73">
       <c r="A73" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>185</v>
+        <v>189</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -5224,14 +5316,12 @@
     </row>
     <row r="74">
       <c r="A74" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -5258,12 +5348,14 @@
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="8"/>
+        <v>193</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -5290,14 +5382,12 @@
     </row>
     <row r="76">
       <c r="A76" s="12" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>191</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -5324,12 +5414,14 @@
     </row>
     <row r="77">
       <c r="A77" s="12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C77" s="8"/>
+        <v>197</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>198</v>
+      </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -5356,10 +5448,10 @@
     </row>
     <row r="78">
       <c r="A78" s="12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -5388,10 +5480,10 @@
     </row>
     <row r="79">
       <c r="A79" s="12" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -5420,10 +5512,10 @@
     </row>
     <row r="80">
       <c r="A80" s="12" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -5452,10 +5544,10 @@
     </row>
     <row r="81">
       <c r="A81" s="12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -5483,11 +5575,11 @@
       <c r="Z81" s="8"/>
     </row>
     <row r="82">
-      <c r="A82" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>203</v>
+      <c r="A82" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -5516,10 +5608,10 @@
     </row>
     <row r="83">
       <c r="A83" s="12" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -5547,15 +5639,13 @@
       <c r="Z83" s="8"/>
     </row>
     <row r="84">
-      <c r="A84" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>208</v>
-      </c>
+      <c r="A84" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -5581,11 +5671,11 @@
       <c r="Z84" s="8"/>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>210</v>
+      <c r="A85" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -5614,12 +5704,14 @@
     </row>
     <row r="86">
       <c r="A86" s="12" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C86" s="8"/>
+        <v>216</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>217</v>
+      </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -5645,11 +5737,11 @@
       <c r="Z86" s="8"/>
     </row>
     <row r="87">
-      <c r="A87" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>214</v>
+      <c r="A87" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -5678,10 +5770,10 @@
     </row>
     <row r="88">
       <c r="A88" s="12" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -5710,10 +5802,10 @@
     </row>
     <row r="89">
       <c r="A89" s="12" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -5742,10 +5834,10 @@
     </row>
     <row r="90">
       <c r="A90" s="12" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -5774,10 +5866,10 @@
     </row>
     <row r="91">
       <c r="A91" s="12" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -5806,10 +5898,10 @@
     </row>
     <row r="92">
       <c r="A92" s="12" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -5838,10 +5930,10 @@
     </row>
     <row r="93">
       <c r="A93" s="12" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -5870,10 +5962,10 @@
     </row>
     <row r="94">
       <c r="A94" s="12" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -5902,10 +5994,10 @@
     </row>
     <row r="95">
       <c r="A95" s="12" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -5934,10 +6026,10 @@
     </row>
     <row r="96">
       <c r="A96" s="12" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -5966,14 +6058,12 @@
     </row>
     <row r="97">
       <c r="A97" s="12" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>235</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
@@ -6000,10 +6090,10 @@
     </row>
     <row r="98">
       <c r="A98" s="12" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -6032,10 +6122,10 @@
     </row>
     <row r="99">
       <c r="A99" s="12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -6064,12 +6154,14 @@
     </row>
     <row r="100">
       <c r="A100" s="12" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C100" s="8"/>
+        <v>245</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -6096,10 +6188,10 @@
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -6128,10 +6220,10 @@
     </row>
     <row r="102">
       <c r="A102" s="12" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -6160,10 +6252,10 @@
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -6192,10 +6284,10 @@
     </row>
     <row r="104">
       <c r="A104" s="12" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -6224,10 +6316,10 @@
     </row>
     <row r="105">
       <c r="A105" s="12" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -6255,13 +6347,13 @@
       <c r="Z105" s="8"/>
     </row>
     <row r="106">
-      <c r="A106" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C106" s="13"/>
+      <c r="A106" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
@@ -6288,10 +6380,10 @@
     </row>
     <row r="107">
       <c r="A107" s="12" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -6319,15 +6411,13 @@
       <c r="Z107" s="8"/>
     </row>
     <row r="108">
-      <c r="A108" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>257</v>
-      </c>
+      <c r="A108" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
@@ -6353,13 +6443,13 @@
       <c r="Z108" s="8"/>
     </row>
     <row r="109">
-      <c r="A109" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C109" s="8"/>
+      <c r="A109" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" s="14"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
@@ -6386,10 +6476,10 @@
     </row>
     <row r="110">
       <c r="A110" s="12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -6417,13 +6507,15 @@
       <c r="Z110" s="8"/>
     </row>
     <row r="111">
-      <c r="A111" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C111" s="8"/>
+      <c r="A111" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>268</v>
+      </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
@@ -6450,10 +6542,10 @@
     </row>
     <row r="112">
       <c r="A112" s="12" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -6482,10 +6574,10 @@
     </row>
     <row r="113">
       <c r="A113" s="12" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -6514,14 +6606,12 @@
     </row>
     <row r="114">
       <c r="A114" s="12" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>270</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
@@ -6548,10 +6638,10 @@
     </row>
     <row r="115">
       <c r="A115" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -6580,10 +6670,10 @@
     </row>
     <row r="116">
       <c r="A116" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -6612,12 +6702,14 @@
     </row>
     <row r="117">
       <c r="A117" s="12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C117" s="8"/>
+        <v>280</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>281</v>
+      </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
@@ -6644,10 +6736,10 @@
     </row>
     <row r="118">
       <c r="A118" s="12" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -6676,10 +6768,10 @@
     </row>
     <row r="119">
       <c r="A119" s="12" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -6708,10 +6800,10 @@
     </row>
     <row r="120">
       <c r="A120" s="12" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -6740,10 +6832,10 @@
     </row>
     <row r="121">
       <c r="A121" s="12" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -6772,10 +6864,10 @@
     </row>
     <row r="122">
       <c r="A122" s="12" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -6804,10 +6896,10 @@
     </row>
     <row r="123">
       <c r="A123" s="12" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -6836,10 +6928,10 @@
     </row>
     <row r="124">
       <c r="A124" s="12" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -6868,10 +6960,10 @@
     </row>
     <row r="125">
       <c r="A125" s="12" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -6900,10 +6992,10 @@
     </row>
     <row r="126">
       <c r="A126" s="12" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -6932,10 +7024,10 @@
     </row>
     <row r="127">
       <c r="A127" s="12" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -6964,10 +7056,10 @@
     </row>
     <row r="128">
       <c r="A128" s="12" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -6996,10 +7088,10 @@
     </row>
     <row r="129">
       <c r="A129" s="12" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -7028,10 +7120,10 @@
     </row>
     <row r="130">
       <c r="A130" s="12" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -7060,10 +7152,10 @@
     </row>
     <row r="131">
       <c r="A131" s="12" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -7092,10 +7184,10 @@
     </row>
     <row r="132">
       <c r="A132" s="12" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -7124,10 +7216,10 @@
     </row>
     <row r="133">
       <c r="A133" s="12" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -7155,11 +7247,11 @@
       <c r="Z133" s="8"/>
     </row>
     <row r="134">
-      <c r="A134" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>310</v>
+      <c r="A134" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -7188,10 +7280,10 @@
     </row>
     <row r="135">
       <c r="A135" s="12" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -7220,10 +7312,10 @@
     </row>
     <row r="136">
       <c r="A136" s="12" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -7251,11 +7343,11 @@
       <c r="Z136" s="8"/>
     </row>
     <row r="137">
-      <c r="A137" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>316</v>
+      <c r="A137" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>321</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -7284,10 +7376,10 @@
     </row>
     <row r="138">
       <c r="A138" s="12" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -7316,10 +7408,10 @@
     </row>
     <row r="139">
       <c r="A139" s="12" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -7348,10 +7440,10 @@
     </row>
     <row r="140">
       <c r="A140" s="12" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -7380,10 +7472,10 @@
     </row>
     <row r="141">
       <c r="A141" s="12" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -7412,10 +7504,10 @@
     </row>
     <row r="142">
       <c r="A142" s="12" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -7444,10 +7536,10 @@
     </row>
     <row r="143">
       <c r="A143" s="12" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -7476,10 +7568,10 @@
     </row>
     <row r="144">
       <c r="A144" s="12" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -7508,10 +7600,10 @@
     </row>
     <row r="145">
       <c r="A145" s="12" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -7540,10 +7632,10 @@
     </row>
     <row r="146">
       <c r="A146" s="12" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -7572,10 +7664,10 @@
     </row>
     <row r="147">
       <c r="A147" s="12" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -7604,10 +7696,10 @@
     </row>
     <row r="148">
       <c r="A148" s="12" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -7636,10 +7728,10 @@
     </row>
     <row r="149">
       <c r="A149" s="12" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -7668,14 +7760,12 @@
     </row>
     <row r="150">
       <c r="A150" s="12" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>150</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
@@ -7702,14 +7792,12 @@
     </row>
     <row r="151">
       <c r="A151" s="12" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>150</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
@@ -7736,10 +7824,10 @@
     </row>
     <row r="152">
       <c r="A152" s="12" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
@@ -7768,10 +7856,10 @@
     </row>
     <row r="153">
       <c r="A153" s="12" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
@@ -7800,13 +7888,13 @@
     </row>
     <row r="154">
       <c r="A154" s="12" t="s">
-        <v>49</v>
+        <v>354</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
@@ -7834,12 +7922,14 @@
     </row>
     <row r="155">
       <c r="A155" s="12" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="C155" s="8"/>
+        <v>357</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
@@ -7865,11 +7955,11 @@
       <c r="Z155" s="8"/>
     </row>
     <row r="156">
-      <c r="A156" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>353</v>
+      <c r="A156" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>359</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -7898,10 +7988,10 @@
     </row>
     <row r="157">
       <c r="A157" s="12" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -7930,12 +8020,14 @@
     </row>
     <row r="158">
       <c r="A158" s="12" t="s">
-        <v>356</v>
+        <v>49</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C158" s="8"/>
+        <v>362</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
@@ -7962,10 +8054,10 @@
     </row>
     <row r="159">
       <c r="A159" s="12" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -7993,11 +8085,11 @@
       <c r="Z159" s="8"/>
     </row>
     <row r="160">
-      <c r="A160" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="B160" s="12" t="s">
-        <v>361</v>
+      <c r="A160" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>366</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -8026,10 +8118,10 @@
     </row>
     <row r="161">
       <c r="A161" s="12" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -8058,10 +8150,10 @@
     </row>
     <row r="162">
       <c r="A162" s="12" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -8090,10 +8182,10 @@
     </row>
     <row r="163">
       <c r="A163" s="12" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
@@ -8122,10 +8214,10 @@
     </row>
     <row r="164">
       <c r="A164" s="12" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
@@ -8154,14 +8246,12 @@
     </row>
     <row r="165">
       <c r="A165" s="12" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>372</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
@@ -8188,10 +8278,10 @@
     </row>
     <row r="166">
       <c r="A166" s="12" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
@@ -8220,10 +8310,10 @@
     </row>
     <row r="167">
       <c r="A167" s="12" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -8252,10 +8342,10 @@
     </row>
     <row r="168">
       <c r="A168" s="12" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
@@ -8284,12 +8374,14 @@
     </row>
     <row r="169">
       <c r="A169" s="12" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="C169" s="8"/>
+        <v>384</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>385</v>
+      </c>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
@@ -8316,10 +8408,10 @@
     </row>
     <row r="170">
       <c r="A170" s="12" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
@@ -8348,10 +8440,10 @@
     </row>
     <row r="171">
       <c r="A171" s="12" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
@@ -8380,10 +8472,10 @@
     </row>
     <row r="172">
       <c r="A172" s="12" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
@@ -8412,10 +8504,10 @@
     </row>
     <row r="173">
       <c r="A173" s="12" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
@@ -8444,10 +8536,10 @@
     </row>
     <row r="174">
       <c r="A174" s="12" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
@@ -8476,10 +8568,10 @@
     </row>
     <row r="175">
       <c r="A175" s="12" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
@@ -8508,10 +8600,10 @@
     </row>
     <row r="176">
       <c r="A176" s="12" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
@@ -8540,10 +8632,10 @@
     </row>
     <row r="177">
       <c r="A177" s="12" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
@@ -8572,10 +8664,10 @@
     </row>
     <row r="178">
       <c r="A178" s="12" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
@@ -8603,13 +8695,13 @@
       <c r="Z178" s="8"/>
     </row>
     <row r="179">
-      <c r="A179" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C179" s="12"/>
+      <c r="A179" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
@@ -8636,14 +8728,12 @@
     </row>
     <row r="180">
       <c r="A180" s="12" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>370</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
@@ -8670,10 +8760,10 @@
     </row>
     <row r="181">
       <c r="A181" s="12" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
@@ -8701,15 +8791,13 @@
       <c r="Z181" s="8"/>
     </row>
     <row r="182">
-      <c r="A182" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>406</v>
-      </c>
+      <c r="A182" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
@@ -8735,13 +8823,13 @@
       <c r="Z182" s="8"/>
     </row>
     <row r="183">
-      <c r="A183" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="B183" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="C183" s="8"/>
+      <c r="A183" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C183" s="12"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
@@ -8768,12 +8856,14 @@
     </row>
     <row r="184">
       <c r="A184" s="12" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="C184" s="8"/>
+        <v>414</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>383</v>
+      </c>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
@@ -8800,10 +8890,10 @@
     </row>
     <row r="185">
       <c r="A185" s="12" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
@@ -8831,13 +8921,15 @@
       <c r="Z185" s="8"/>
     </row>
     <row r="186">
-      <c r="A186" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="B186" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="C186" s="8"/>
+      <c r="A186" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>419</v>
+      </c>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
@@ -8864,10 +8956,10 @@
     </row>
     <row r="187">
       <c r="A187" s="12" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
@@ -8896,10 +8988,10 @@
     </row>
     <row r="188">
       <c r="A188" s="12" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
@@ -8928,10 +9020,10 @@
     </row>
     <row r="189">
       <c r="A189" s="12" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
@@ -8960,10 +9052,10 @@
     </row>
     <row r="190">
       <c r="A190" s="12" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
@@ -8992,14 +9084,12 @@
     </row>
     <row r="191">
       <c r="A191" s="12" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>425</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C191" s="8"/>
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
@@ -9026,14 +9116,12 @@
     </row>
     <row r="192">
       <c r="A192" s="12" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>423</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C192" s="8"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
@@ -9060,10 +9148,10 @@
     </row>
     <row r="193">
       <c r="A193" s="12" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
@@ -9092,10 +9180,10 @@
     </row>
     <row r="194">
       <c r="A194" s="12" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
@@ -9124,13 +9212,13 @@
     </row>
     <row r="195">
       <c r="A195" s="12" t="s">
-        <v>208</v>
+        <v>436</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>206</v>
+        <v>438</v>
       </c>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
@@ -9158,12 +9246,14 @@
     </row>
     <row r="196">
       <c r="A196" s="12" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C196" s="8"/>
+        <v>439</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
@@ -9190,14 +9280,12 @@
     </row>
     <row r="197">
       <c r="A197" s="12" t="s">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>268</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="C197" s="8"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
@@ -9224,10 +9312,10 @@
     </row>
     <row r="198">
       <c r="A198" s="12" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
@@ -9256,12 +9344,14 @@
     </row>
     <row r="199">
       <c r="A199" s="12" t="s">
-        <v>437</v>
+        <v>217</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C199" s="8"/>
+        <v>444</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>215</v>
+      </c>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
@@ -9288,10 +9378,10 @@
     </row>
     <row r="200">
       <c r="A200" s="12" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
@@ -9320,12 +9410,14 @@
     </row>
     <row r="201">
       <c r="A201" s="12" t="s">
-        <v>441</v>
+        <v>281</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="C201" s="8"/>
+        <v>447</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>279</v>
+      </c>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
@@ -9352,10 +9444,10 @@
     </row>
     <row r="202">
       <c r="A202" s="12" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
@@ -9384,10 +9476,10 @@
     </row>
     <row r="203">
       <c r="A203" s="12" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
@@ -9416,10 +9508,10 @@
     </row>
     <row r="204">
       <c r="A204" s="12" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
@@ -9448,10 +9540,10 @@
     </row>
     <row r="205">
       <c r="A205" s="12" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
@@ -9480,10 +9572,10 @@
     </row>
     <row r="206">
       <c r="A206" s="12" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
@@ -9512,10 +9604,10 @@
     </row>
     <row r="207">
       <c r="A207" s="12" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
@@ -9544,10 +9636,10 @@
     </row>
     <row r="208">
       <c r="A208" s="12" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
@@ -9576,10 +9668,10 @@
     </row>
     <row r="209">
       <c r="A209" s="12" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
@@ -9608,10 +9700,10 @@
     </row>
     <row r="210">
       <c r="A210" s="12" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
@@ -9640,10 +9732,10 @@
     </row>
     <row r="211">
       <c r="A211" s="12" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
@@ -9672,10 +9764,10 @@
     </row>
     <row r="212">
       <c r="A212" s="12" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
@@ -9704,10 +9796,10 @@
     </row>
     <row r="213">
       <c r="A213" s="12" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
@@ -9736,10 +9828,10 @@
     </row>
     <row r="214">
       <c r="A214" s="12" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
@@ -9768,10 +9860,10 @@
     </row>
     <row r="215">
       <c r="A215" s="12" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
@@ -9800,10 +9892,10 @@
     </row>
     <row r="216">
       <c r="A216" s="12" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
@@ -9832,10 +9924,10 @@
     </row>
     <row r="217">
       <c r="A217" s="12" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C217" s="8"/>
       <c r="D217" s="8"/>
@@ -9864,10 +9956,10 @@
     </row>
     <row r="218">
       <c r="A218" s="12" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
@@ -9896,10 +9988,10 @@
     </row>
     <row r="219">
       <c r="A219" s="12" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
@@ -9928,10 +10020,10 @@
     </row>
     <row r="220">
       <c r="A220" s="12" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
@@ -9960,10 +10052,10 @@
     </row>
     <row r="221">
       <c r="A221" s="12" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
@@ -9992,10 +10084,10 @@
     </row>
     <row r="222">
       <c r="A222" s="12" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
@@ -10024,10 +10116,10 @@
     </row>
     <row r="223">
       <c r="A223" s="12" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
@@ -10056,10 +10148,10 @@
     </row>
     <row r="224">
       <c r="A224" s="12" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
@@ -10088,10 +10180,10 @@
     </row>
     <row r="225">
       <c r="A225" s="12" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
@@ -10120,10 +10212,10 @@
     </row>
     <row r="226">
       <c r="A226" s="12" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
@@ -10152,10 +10244,10 @@
     </row>
     <row r="227">
       <c r="A227" s="12" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
@@ -10184,10 +10276,10 @@
     </row>
     <row r="228">
       <c r="A228" s="12" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
@@ -10215,11 +10307,11 @@
       <c r="Z228" s="8"/>
     </row>
     <row r="229">
-      <c r="A229" s="14" t="s">
-        <v>497</v>
+      <c r="A229" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
@@ -10248,10 +10340,10 @@
     </row>
     <row r="230">
       <c r="A230" s="12" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
@@ -10280,10 +10372,10 @@
     </row>
     <row r="231">
       <c r="A231" s="12" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
@@ -10312,10 +10404,10 @@
     </row>
     <row r="232">
       <c r="A232" s="12" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
@@ -10343,11 +10435,11 @@
       <c r="Z232" s="8"/>
     </row>
     <row r="233">
-      <c r="A233" s="12" t="s">
-        <v>505</v>
+      <c r="A233" s="15" t="s">
+        <v>510</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
@@ -10376,10 +10468,10 @@
     </row>
     <row r="234">
       <c r="A234" s="12" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C234" s="8"/>
       <c r="D234" s="8"/>
@@ -10408,10 +10500,10 @@
     </row>
     <row r="235">
       <c r="A235" s="12" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
@@ -10440,10 +10532,10 @@
     </row>
     <row r="236">
       <c r="A236" s="12" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C236" s="8"/>
       <c r="D236" s="8"/>
@@ -10472,12 +10564,14 @@
     </row>
     <row r="237">
       <c r="A237" s="12" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="C237" s="8"/>
+        <v>519</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>520</v>
+      </c>
       <c r="D237" s="8"/>
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
@@ -10504,10 +10598,10 @@
     </row>
     <row r="238">
       <c r="A238" s="12" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
@@ -10536,10 +10630,10 @@
     </row>
     <row r="239">
       <c r="A239" s="12" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
@@ -10568,10 +10662,10 @@
     </row>
     <row r="240">
       <c r="A240" s="12" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
@@ -10600,10 +10694,10 @@
     </row>
     <row r="241">
       <c r="A241" s="12" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
@@ -10632,10 +10726,10 @@
     </row>
     <row r="242">
       <c r="A242" s="12" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
@@ -10664,10 +10758,10 @@
     </row>
     <row r="243">
       <c r="A243" s="12" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
@@ -10696,10 +10790,10 @@
     </row>
     <row r="244">
       <c r="A244" s="12" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
@@ -10728,10 +10822,10 @@
     </row>
     <row r="245">
       <c r="A245" s="12" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
@@ -10760,10 +10854,10 @@
     </row>
     <row r="246">
       <c r="A246" s="12" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
@@ -10792,10 +10886,10 @@
     </row>
     <row r="247">
       <c r="A247" s="12" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
@@ -10824,10 +10918,10 @@
     </row>
     <row r="248">
       <c r="A248" s="12" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C248" s="8"/>
       <c r="D248" s="8"/>
@@ -10856,10 +10950,10 @@
     </row>
     <row r="249">
       <c r="A249" s="12" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
@@ -10888,10 +10982,10 @@
     </row>
     <row r="250">
       <c r="A250" s="12" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
@@ -10920,10 +11014,10 @@
     </row>
     <row r="251">
       <c r="A251" s="12" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
@@ -10952,10 +11046,10 @@
     </row>
     <row r="252">
       <c r="A252" s="12" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
@@ -10984,10 +11078,10 @@
     </row>
     <row r="253">
       <c r="A253" s="12" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C253" s="8"/>
       <c r="D253" s="8"/>
@@ -11016,10 +11110,10 @@
     </row>
     <row r="254">
       <c r="A254" s="12" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C254" s="8"/>
       <c r="D254" s="8"/>
@@ -11048,10 +11142,10 @@
     </row>
     <row r="255">
       <c r="A255" s="12" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C255" s="8"/>
       <c r="D255" s="8"/>
@@ -11080,10 +11174,10 @@
     </row>
     <row r="256">
       <c r="A256" s="12" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C256" s="8"/>
       <c r="D256" s="8"/>
@@ -11112,10 +11206,10 @@
     </row>
     <row r="257">
       <c r="A257" s="12" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C257" s="8"/>
       <c r="D257" s="8"/>
@@ -11144,10 +11238,10 @@
     </row>
     <row r="258">
       <c r="A258" s="12" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
@@ -11176,14 +11270,12 @@
     </row>
     <row r="259">
       <c r="A259" s="12" t="s">
-        <v>235</v>
+        <v>563</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="C259" s="12" t="s">
-        <v>558</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="C259" s="8"/>
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
@@ -11209,11 +11301,11 @@
       <c r="Z259" s="8"/>
     </row>
     <row r="260">
-      <c r="A260" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>560</v>
+      <c r="A260" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
@@ -11242,10 +11334,10 @@
     </row>
     <row r="261">
       <c r="A261" s="12" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C261" s="8"/>
       <c r="D261" s="8"/>
@@ -11274,10 +11366,10 @@
     </row>
     <row r="262">
       <c r="A262" s="12" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
@@ -11306,12 +11398,14 @@
     </row>
     <row r="263">
       <c r="A263" s="12" t="s">
-        <v>565</v>
+        <v>246</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="C263" s="8"/>
+        <v>571</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>572</v>
+      </c>
       <c r="D263" s="8"/>
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
@@ -11337,11 +11431,11 @@
       <c r="Z263" s="8"/>
     </row>
     <row r="264">
-      <c r="A264" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="B264" s="12" t="s">
-        <v>568</v>
+      <c r="A264" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>574</v>
       </c>
       <c r="C264" s="8"/>
       <c r="D264" s="8"/>
@@ -11370,10 +11464,10 @@
     </row>
     <row r="265">
       <c r="A265" s="12" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C265" s="8"/>
       <c r="D265" s="8"/>
@@ -11402,10 +11496,10 @@
     </row>
     <row r="266">
       <c r="A266" s="12" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C266" s="8"/>
       <c r="D266" s="8"/>
@@ -11434,10 +11528,10 @@
     </row>
     <row r="267">
       <c r="A267" s="12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
@@ -11466,10 +11560,10 @@
     </row>
     <row r="268">
       <c r="A268" s="12" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C268" s="8"/>
       <c r="D268" s="8"/>
@@ -11498,10 +11592,10 @@
     </row>
     <row r="269">
       <c r="A269" s="12" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
@@ -11530,10 +11624,10 @@
     </row>
     <row r="270">
       <c r="A270" s="12" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
@@ -11562,10 +11656,10 @@
     </row>
     <row r="271">
       <c r="A271" s="12" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C271" s="8"/>
       <c r="D271" s="8"/>
@@ -11594,10 +11688,10 @@
     </row>
     <row r="272">
       <c r="A272" s="12" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C272" s="8"/>
       <c r="D272" s="8"/>
@@ -11626,14 +11720,12 @@
     </row>
     <row r="273">
       <c r="A273" s="12" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="C273" s="12" t="s">
-        <v>587</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="C273" s="8"/>
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
@@ -11660,10 +11752,10 @@
     </row>
     <row r="274">
       <c r="A274" s="12" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C274" s="8"/>
       <c r="D274" s="8"/>
@@ -11692,10 +11784,10 @@
     </row>
     <row r="275">
       <c r="A275" s="12" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C275" s="8"/>
       <c r="D275" s="8"/>
@@ -11724,10 +11816,10 @@
     </row>
     <row r="276">
       <c r="A276" s="12" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
@@ -11756,12 +11848,14 @@
     </row>
     <row r="277">
       <c r="A277" s="12" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="C277" s="8"/>
+        <v>600</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>601</v>
+      </c>
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
@@ -11788,10 +11882,10 @@
     </row>
     <row r="278">
       <c r="A278" s="12" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
@@ -11820,10 +11914,10 @@
     </row>
     <row r="279">
       <c r="A279" s="12" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C279" s="8"/>
       <c r="D279" s="8"/>
@@ -11852,10 +11946,10 @@
     </row>
     <row r="280">
       <c r="A280" s="12" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
@@ -11884,10 +11978,10 @@
     </row>
     <row r="281">
       <c r="A281" s="12" t="s">
-        <v>602</v>
+        <v>7</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
@@ -11916,10 +12010,10 @@
     </row>
     <row r="282">
       <c r="A282" s="12" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="C282" s="8"/>
       <c r="D282" s="8"/>
@@ -11948,10 +12042,10 @@
     </row>
     <row r="283">
       <c r="A283" s="12" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C283" s="8"/>
       <c r="D283" s="8"/>
@@ -11980,10 +12074,10 @@
     </row>
     <row r="284">
       <c r="A284" s="12" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="C284" s="8"/>
       <c r="D284" s="8"/>
@@ -12012,14 +12106,12 @@
     </row>
     <row r="285">
       <c r="A285" s="12" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="C285" s="12" t="s">
-        <v>585</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="C285" s="8"/>
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
@@ -12046,10 +12138,10 @@
     </row>
     <row r="286">
       <c r="A286" s="12" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C286" s="8"/>
       <c r="D286" s="8"/>
@@ -12078,14 +12170,12 @@
     </row>
     <row r="287">
       <c r="A287" s="12" t="s">
-        <v>115</v>
+        <v>619</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="C287" s="12" t="s">
-        <v>113</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="C287" s="8"/>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
@@ -12112,10 +12202,10 @@
     </row>
     <row r="288">
       <c r="A288" s="12" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C288" s="8"/>
       <c r="D288" s="8"/>
@@ -12144,10 +12234,10 @@
     </row>
     <row r="289">
       <c r="A289" s="12" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C289" s="8"/>
       <c r="D289" s="8"/>
@@ -12176,12 +12266,14 @@
     </row>
     <row r="290">
       <c r="A290" s="12" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="C290" s="8"/>
+        <v>625</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>599</v>
+      </c>
       <c r="D290" s="8"/>
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
@@ -12208,10 +12300,10 @@
     </row>
     <row r="291">
       <c r="A291" s="12" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C291" s="8"/>
       <c r="D291" s="8"/>
@@ -12240,12 +12332,14 @@
     </row>
     <row r="292">
       <c r="A292" s="12" t="s">
-        <v>622</v>
+        <v>122</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="C292" s="8"/>
+        <v>628</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="D292" s="8"/>
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
@@ -12272,10 +12366,10 @@
     </row>
     <row r="293">
       <c r="A293" s="12" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C293" s="8"/>
       <c r="D293" s="8"/>
@@ -12304,14 +12398,12 @@
     </row>
     <row r="294">
       <c r="A294" s="12" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>627</v>
-      </c>
-      <c r="C294" s="12" t="s">
-        <v>628</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="C294" s="8"/>
       <c r="D294" s="8"/>
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
@@ -12338,10 +12430,10 @@
     </row>
     <row r="295">
       <c r="A295" s="12" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C295" s="8"/>
       <c r="D295" s="8"/>
@@ -12370,10 +12462,10 @@
     </row>
     <row r="296">
       <c r="A296" s="12" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B296" s="12" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C296" s="8"/>
       <c r="D296" s="8"/>
@@ -12402,10 +12494,10 @@
     </row>
     <row r="297">
       <c r="A297" s="12" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C297" s="8"/>
       <c r="D297" s="8"/>
@@ -12434,10 +12526,10 @@
     </row>
     <row r="298">
       <c r="A298" s="12" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C298" s="8"/>
       <c r="D298" s="8"/>
@@ -12466,12 +12558,14 @@
     </row>
     <row r="299">
       <c r="A299" s="12" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="C299" s="8"/>
+        <v>642</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>643</v>
+      </c>
       <c r="D299" s="8"/>
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
@@ -12498,10 +12592,10 @@
     </row>
     <row r="300">
       <c r="A300" s="12" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="C300" s="8"/>
       <c r="D300" s="8"/>
@@ -12530,14 +12624,12 @@
     </row>
     <row r="301">
       <c r="A301" s="12" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="C301" s="12" t="s">
-        <v>626</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="C301" s="8"/>
       <c r="D301" s="8"/>
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
@@ -12564,10 +12656,10 @@
     </row>
     <row r="302">
       <c r="A302" s="12" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C302" s="8"/>
       <c r="D302" s="8"/>
@@ -12596,10 +12688,10 @@
     </row>
     <row r="303">
       <c r="A303" s="12" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C303" s="8"/>
       <c r="D303" s="8"/>
@@ -12628,10 +12720,10 @@
     </row>
     <row r="304">
       <c r="A304" s="12" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C304" s="8"/>
       <c r="D304" s="8"/>
@@ -12660,10 +12752,10 @@
     </row>
     <row r="305">
       <c r="A305" s="12" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C305" s="8"/>
       <c r="D305" s="8"/>
@@ -12692,12 +12784,14 @@
     </row>
     <row r="306">
       <c r="A306" s="12" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="C306" s="8"/>
+        <v>656</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>641</v>
+      </c>
       <c r="D306" s="8"/>
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
@@ -12724,10 +12818,10 @@
     </row>
     <row r="307">
       <c r="A307" s="12" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="C307" s="8"/>
       <c r="D307" s="8"/>
@@ -12756,10 +12850,10 @@
     </row>
     <row r="308">
       <c r="A308" s="12" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C308" s="8"/>
       <c r="D308" s="8"/>
@@ -12788,10 +12882,10 @@
     </row>
     <row r="309">
       <c r="A309" s="12" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="C309" s="8"/>
       <c r="D309" s="8"/>
@@ -12820,10 +12914,10 @@
     </row>
     <row r="310">
       <c r="A310" s="12" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="C310" s="8"/>
       <c r="D310" s="8"/>
@@ -12852,10 +12946,10 @@
     </row>
     <row r="311">
       <c r="A311" s="12" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C311" s="8"/>
       <c r="D311" s="8"/>
@@ -12884,10 +12978,10 @@
     </row>
     <row r="312">
       <c r="A312" s="12" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="C312" s="8"/>
       <c r="D312" s="8"/>
@@ -12916,10 +13010,10 @@
     </row>
     <row r="313">
       <c r="A313" s="12" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C313" s="8"/>
       <c r="D313" s="8"/>
@@ -12948,10 +13042,10 @@
     </row>
     <row r="314">
       <c r="A314" s="12" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C314" s="8"/>
       <c r="D314" s="8"/>
@@ -12980,10 +13074,10 @@
     </row>
     <row r="315">
       <c r="A315" s="12" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="C315" s="8"/>
       <c r="D315" s="8"/>
@@ -13012,10 +13106,10 @@
     </row>
     <row r="316">
       <c r="A316" s="12" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="C316" s="8"/>
       <c r="D316" s="8"/>
@@ -13044,10 +13138,10 @@
     </row>
     <row r="317">
       <c r="A317" s="12" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="C317" s="8"/>
       <c r="D317" s="8"/>
@@ -13076,10 +13170,10 @@
     </row>
     <row r="318">
       <c r="A318" s="12" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="C318" s="8"/>
       <c r="D318" s="8"/>
@@ -13108,10 +13202,10 @@
     </row>
     <row r="319">
       <c r="A319" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="B319" s="11" t="s">
-        <v>677</v>
+        <v>681</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>682</v>
       </c>
       <c r="C319" s="8"/>
       <c r="D319" s="8"/>
@@ -13140,10 +13234,10 @@
     </row>
     <row r="320">
       <c r="A320" s="12" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="C320" s="8"/>
       <c r="D320" s="8"/>
@@ -13172,10 +13266,10 @@
     </row>
     <row r="321">
       <c r="A321" s="12" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="C321" s="8"/>
       <c r="D321" s="8"/>
@@ -13204,10 +13298,10 @@
     </row>
     <row r="322">
       <c r="A322" s="12" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="C322" s="8"/>
       <c r="D322" s="8"/>
@@ -13236,14 +13330,12 @@
     </row>
     <row r="323">
       <c r="A323" s="12" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="C323" s="12" t="s">
-        <v>686</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="C323" s="8"/>
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
@@ -13270,10 +13362,10 @@
     </row>
     <row r="324">
       <c r="A324" s="12" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C324" s="8"/>
       <c r="D324" s="8"/>
@@ -13302,14 +13394,12 @@
     </row>
     <row r="325">
       <c r="A325" s="12" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="C325" s="12" t="s">
-        <v>684</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="C325" s="8"/>
       <c r="D325" s="8"/>
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
@@ -13336,10 +13426,10 @@
     </row>
     <row r="326">
       <c r="A326" s="12" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C326" s="8"/>
       <c r="D326" s="8"/>
@@ -13368,10 +13458,10 @@
     </row>
     <row r="327">
       <c r="A327" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="B327" s="12" t="s">
-        <v>693</v>
+        <v>697</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>698</v>
       </c>
       <c r="C327" s="8"/>
       <c r="D327" s="8"/>
@@ -13399,11 +13489,11 @@
       <c r="Z327" s="8"/>
     </row>
     <row r="328">
-      <c r="A328" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="B328" s="9" t="s">
-        <v>695</v>
+      <c r="A328" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="B328" s="12" t="s">
+        <v>700</v>
       </c>
       <c r="C328" s="8"/>
       <c r="D328" s="8"/>
@@ -13432,10 +13522,10 @@
     </row>
     <row r="329">
       <c r="A329" s="12" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="C329" s="8"/>
       <c r="D329" s="8"/>
@@ -13464,10 +13554,10 @@
     </row>
     <row r="330">
       <c r="A330" s="12" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C330" s="8"/>
       <c r="D330" s="8"/>
@@ -13496,12 +13586,14 @@
     </row>
     <row r="331">
       <c r="A331" s="12" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="C331" s="8"/>
+        <v>706</v>
+      </c>
+      <c r="C331" s="12" t="s">
+        <v>707</v>
+      </c>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
@@ -13528,10 +13620,10 @@
     </row>
     <row r="332">
       <c r="A332" s="12" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C332" s="8"/>
       <c r="D332" s="8"/>
@@ -13560,12 +13652,14 @@
     </row>
     <row r="333">
       <c r="A333" s="12" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B333" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="C333" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="C333" s="8"/>
       <c r="D333" s="8"/>
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
@@ -13592,10 +13686,10 @@
     </row>
     <row r="334">
       <c r="A334" s="12" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C334" s="8"/>
       <c r="D334" s="8"/>
@@ -13624,10 +13718,10 @@
     </row>
     <row r="335">
       <c r="A335" s="12" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="C335" s="8"/>
       <c r="D335" s="8"/>
@@ -13656,10 +13750,10 @@
     </row>
     <row r="336">
       <c r="A336" s="12" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C336" s="8"/>
       <c r="D336" s="8"/>
@@ -13687,15 +13781,13 @@
       <c r="Z336" s="8"/>
     </row>
     <row r="337">
-      <c r="A337" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B337" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="C337" s="12" t="s">
-        <v>189</v>
-      </c>
+      <c r="A337" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B337" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C337" s="8"/>
       <c r="D337" s="8"/>
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
@@ -13722,10 +13814,10 @@
     </row>
     <row r="338">
       <c r="A338" s="12" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C338" s="8"/>
       <c r="D338" s="8"/>
@@ -13754,10 +13846,10 @@
     </row>
     <row r="339">
       <c r="A339" s="12" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C339" s="8"/>
       <c r="D339" s="8"/>
@@ -13786,10 +13878,10 @@
     </row>
     <row r="340">
       <c r="A340" s="12" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="C340" s="8"/>
       <c r="D340" s="8"/>
@@ -13817,11 +13909,11 @@
       <c r="Z340" s="8"/>
     </row>
     <row r="341">
-      <c r="A341" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="B341" s="9" t="s">
-        <v>720</v>
+      <c r="A341" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="B341" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="C341" s="8"/>
       <c r="D341" s="8"/>
@@ -13849,15 +13941,13 @@
       <c r="Z341" s="8"/>
     </row>
     <row r="342">
-      <c r="A342" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B342" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="C342" s="12" t="s">
-        <v>255</v>
-      </c>
+      <c r="A342" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="C342" s="8"/>
       <c r="D342" s="8"/>
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
@@ -13884,10 +13974,10 @@
     </row>
     <row r="343">
       <c r="A343" s="12" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="C343" s="8"/>
       <c r="D343" s="8"/>
@@ -13916,10 +14006,10 @@
     </row>
     <row r="344">
       <c r="A344" s="12" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="C344" s="8"/>
       <c r="D344" s="8"/>
@@ -13948,10 +14038,10 @@
     </row>
     <row r="345">
       <c r="A345" s="12" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="C345" s="8"/>
       <c r="D345" s="8"/>
@@ -13980,12 +14070,14 @@
     </row>
     <row r="346">
       <c r="A346" s="12" t="s">
-        <v>728</v>
+        <v>198</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="C346" s="8"/>
+        <v>735</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
@@ -14012,10 +14104,10 @@
     </row>
     <row r="347">
       <c r="A347" s="12" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="C347" s="8"/>
       <c r="D347" s="8"/>
@@ -14044,10 +14136,10 @@
     </row>
     <row r="348">
       <c r="A348" s="12" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="C348" s="8"/>
       <c r="D348" s="8"/>
@@ -14076,10 +14168,10 @@
     </row>
     <row r="349">
       <c r="A349" s="12" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="C349" s="8"/>
       <c r="D349" s="8"/>
@@ -14107,11 +14199,11 @@
       <c r="Z349" s="8"/>
     </row>
     <row r="350">
-      <c r="A350" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="B350" s="12" t="s">
-        <v>737</v>
+      <c r="A350" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="B350" s="9" t="s">
+        <v>743</v>
       </c>
       <c r="C350" s="8"/>
       <c r="D350" s="8"/>
@@ -14139,13 +14231,15 @@
       <c r="Z350" s="8"/>
     </row>
     <row r="351">
-      <c r="A351" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="B351" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="C351" s="8"/>
+      <c r="A351" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>266</v>
+      </c>
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
@@ -14172,10 +14266,10 @@
     </row>
     <row r="352">
       <c r="A352" s="12" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="C352" s="8"/>
       <c r="D352" s="8"/>
@@ -14204,10 +14298,10 @@
     </row>
     <row r="353">
       <c r="A353" s="12" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="C353" s="8"/>
       <c r="D353" s="8"/>
@@ -14236,10 +14330,10 @@
     </row>
     <row r="354">
       <c r="A354" s="12" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="C354" s="8"/>
       <c r="D354" s="8"/>
@@ -14268,10 +14362,10 @@
     </row>
     <row r="355">
       <c r="A355" s="12" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="C355" s="8"/>
       <c r="D355" s="8"/>
@@ -14300,10 +14394,10 @@
     </row>
     <row r="356">
       <c r="A356" s="12" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B356" s="12" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="C356" s="8"/>
       <c r="D356" s="8"/>
@@ -14332,10 +14426,10 @@
     </row>
     <row r="357">
       <c r="A357" s="12" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B357" s="12" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="C357" s="8"/>
       <c r="D357" s="8"/>
@@ -14364,10 +14458,10 @@
     </row>
     <row r="358">
       <c r="A358" s="12" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="C358" s="8"/>
       <c r="D358" s="8"/>
@@ -14396,10 +14490,10 @@
     </row>
     <row r="359">
       <c r="A359" s="12" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="B359" s="12" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="C359" s="8"/>
       <c r="D359" s="8"/>
@@ -14428,10 +14522,10 @@
     </row>
     <row r="360">
       <c r="A360" s="12" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="C360" s="8"/>
       <c r="D360" s="8"/>
@@ -14460,10 +14554,10 @@
     </row>
     <row r="361">
       <c r="A361" s="12" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="B361" s="12" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C361" s="8"/>
       <c r="D361" s="8"/>
@@ -14492,10 +14586,10 @@
     </row>
     <row r="362">
       <c r="A362" s="12" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="B362" s="12" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="C362" s="8"/>
       <c r="D362" s="8"/>
@@ -14524,10 +14618,10 @@
     </row>
     <row r="363">
       <c r="A363" s="12" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="B363" s="12" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="C363" s="8"/>
       <c r="D363" s="8"/>
@@ -14556,10 +14650,10 @@
     </row>
     <row r="364">
       <c r="A364" s="12" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B364" s="12" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C364" s="8"/>
       <c r="D364" s="8"/>
@@ -14588,10 +14682,10 @@
     </row>
     <row r="365">
       <c r="A365" s="12" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B365" s="12" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C365" s="8"/>
       <c r="D365" s="8"/>
@@ -14620,10 +14714,10 @@
     </row>
     <row r="366">
       <c r="A366" s="12" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="B366" s="12" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C366" s="8"/>
       <c r="D366" s="8"/>
@@ -14652,12 +14746,14 @@
     </row>
     <row r="367">
       <c r="A367" s="12" t="s">
-        <v>770</v>
+        <v>520</v>
       </c>
       <c r="B367" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="C367" s="8"/>
+        <v>775</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>518</v>
+      </c>
       <c r="D367" s="8"/>
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
@@ -14683,15 +14779,13 @@
       <c r="Z367" s="8"/>
     </row>
     <row r="368">
-      <c r="A368" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="B368" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="C368" s="12" t="s">
-        <v>404</v>
-      </c>
+      <c r="A368" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="B368" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C368" s="8"/>
       <c r="D368" s="8"/>
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
@@ -14718,10 +14812,10 @@
     </row>
     <row r="369">
       <c r="A369" s="12" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B369" s="12" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C369" s="8"/>
       <c r="D369" s="8"/>
@@ -14750,10 +14844,10 @@
     </row>
     <row r="370">
       <c r="A370" s="12" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="C370" s="8"/>
       <c r="D370" s="8"/>
@@ -14782,10 +14876,10 @@
     </row>
     <row r="371">
       <c r="A371" s="12" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="C371" s="8"/>
       <c r="D371" s="8"/>
@@ -14814,14 +14908,12 @@
     </row>
     <row r="372">
       <c r="A372" s="12" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B372" s="12" t="s">
-        <v>780</v>
-      </c>
-      <c r="C372" s="12" t="s">
-        <v>781</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="C372" s="8"/>
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
@@ -14848,10 +14940,10 @@
     </row>
     <row r="373">
       <c r="A373" s="12" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C373" s="8"/>
       <c r="D373" s="8"/>
@@ -14880,10 +14972,10 @@
     </row>
     <row r="374">
       <c r="A374" s="12" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B374" s="12" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C374" s="8"/>
       <c r="D374" s="8"/>
@@ -14912,10 +15004,10 @@
     </row>
     <row r="375">
       <c r="A375" s="12" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B375" s="12" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C375" s="8"/>
       <c r="D375" s="8"/>
@@ -14944,14 +15036,12 @@
     </row>
     <row r="376">
       <c r="A376" s="12" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="B376" s="12" t="s">
-        <v>788</v>
-      </c>
-      <c r="C376" s="12" t="s">
-        <v>779</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="C376" s="8"/>
       <c r="D376" s="8"/>
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
@@ -14978,10 +15068,10 @@
     </row>
     <row r="377">
       <c r="A377" s="12" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="B377" s="12" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="C377" s="8"/>
       <c r="D377" s="8"/>
@@ -15010,10 +15100,10 @@
     </row>
     <row r="378">
       <c r="A378" s="12" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B378" s="12" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="C378" s="8"/>
       <c r="D378" s="8"/>
@@ -15041,13 +15131,15 @@
       <c r="Z378" s="8"/>
     </row>
     <row r="379">
-      <c r="A379" s="12" t="s">
-        <v>793</v>
-      </c>
-      <c r="B379" s="12" t="s">
-        <v>794</v>
-      </c>
-      <c r="C379" s="8"/>
+      <c r="A379" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B379" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>417</v>
+      </c>
       <c r="D379" s="8"/>
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
@@ -15074,10 +15166,10 @@
     </row>
     <row r="380">
       <c r="A380" s="12" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B380" s="12" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C380" s="8"/>
       <c r="D380" s="8"/>
@@ -15106,10 +15198,10 @@
     </row>
     <row r="381">
       <c r="A381" s="12" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B381" s="12" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C381" s="8"/>
       <c r="D381" s="8"/>
@@ -15138,10 +15230,10 @@
     </row>
     <row r="382">
       <c r="A382" s="12" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B382" s="12" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C382" s="8"/>
       <c r="D382" s="8"/>
@@ -15170,12 +15262,14 @@
     </row>
     <row r="383">
       <c r="A383" s="12" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B383" s="12" t="s">
-        <v>802</v>
-      </c>
-      <c r="C383" s="8"/>
+        <v>806</v>
+      </c>
+      <c r="C383" s="12" t="s">
+        <v>807</v>
+      </c>
       <c r="D383" s="8"/>
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
@@ -15202,10 +15296,10 @@
     </row>
     <row r="384">
       <c r="A384" s="12" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="B384" s="12" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="C384" s="8"/>
       <c r="D384" s="8"/>
@@ -15233,8 +15327,12 @@
       <c r="Z384" s="8"/>
     </row>
     <row r="385">
-      <c r="A385" s="8"/>
-      <c r="B385" s="8"/>
+      <c r="A385" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="B385" s="12" t="s">
+        <v>811</v>
+      </c>
       <c r="C385" s="8"/>
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
@@ -15261,8 +15359,12 @@
       <c r="Z385" s="8"/>
     </row>
     <row r="386">
-      <c r="A386" s="8"/>
-      <c r="B386" s="8"/>
+      <c r="A386" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="B386" s="12" t="s">
+        <v>813</v>
+      </c>
       <c r="C386" s="8"/>
       <c r="D386" s="8"/>
       <c r="E386" s="8"/>
@@ -15289,9 +15391,15 @@
       <c r="Z386" s="8"/>
     </row>
     <row r="387">
-      <c r="A387" s="8"/>
-      <c r="B387" s="8"/>
-      <c r="C387" s="8"/>
+      <c r="A387" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="B387" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="C387" s="12" t="s">
+        <v>805</v>
+      </c>
       <c r="D387" s="8"/>
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
@@ -15317,8 +15425,12 @@
       <c r="Z387" s="8"/>
     </row>
     <row r="388">
-      <c r="A388" s="8"/>
-      <c r="B388" s="8"/>
+      <c r="A388" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="B388" s="12" t="s">
+        <v>816</v>
+      </c>
       <c r="C388" s="8"/>
       <c r="D388" s="8"/>
       <c r="E388" s="8"/>
@@ -15345,8 +15457,12 @@
       <c r="Z388" s="8"/>
     </row>
     <row r="389">
-      <c r="A389" s="8"/>
-      <c r="B389" s="8"/>
+      <c r="A389" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="B389" s="12" t="s">
+        <v>818</v>
+      </c>
       <c r="C389" s="8"/>
       <c r="D389" s="8"/>
       <c r="E389" s="8"/>
@@ -15373,8 +15489,12 @@
       <c r="Z389" s="8"/>
     </row>
     <row r="390">
-      <c r="A390" s="8"/>
-      <c r="B390" s="8"/>
+      <c r="A390" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="B390" s="12" t="s">
+        <v>820</v>
+      </c>
       <c r="C390" s="8"/>
       <c r="D390" s="8"/>
       <c r="E390" s="8"/>
@@ -15401,8 +15521,12 @@
       <c r="Z390" s="8"/>
     </row>
     <row r="391">
-      <c r="A391" s="8"/>
-      <c r="B391" s="8"/>
+      <c r="A391" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="B391" s="12" t="s">
+        <v>822</v>
+      </c>
       <c r="C391" s="8"/>
       <c r="D391" s="8"/>
       <c r="E391" s="8"/>
@@ -15429,8 +15553,12 @@
       <c r="Z391" s="8"/>
     </row>
     <row r="392">
-      <c r="A392" s="8"/>
-      <c r="B392" s="8"/>
+      <c r="A392" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B392" s="12" t="s">
+        <v>824</v>
+      </c>
       <c r="C392" s="8"/>
       <c r="D392" s="8"/>
       <c r="E392" s="8"/>
@@ -15457,8 +15585,12 @@
       <c r="Z392" s="8"/>
     </row>
     <row r="393">
-      <c r="A393" s="8"/>
-      <c r="B393" s="8"/>
+      <c r="A393" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="B393" s="12" t="s">
+        <v>826</v>
+      </c>
       <c r="C393" s="8"/>
       <c r="D393" s="8"/>
       <c r="E393" s="8"/>
@@ -15485,8 +15617,12 @@
       <c r="Z393" s="8"/>
     </row>
     <row r="394">
-      <c r="A394" s="8"/>
-      <c r="B394" s="8"/>
+      <c r="A394" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="B394" s="12" t="s">
+        <v>828</v>
+      </c>
       <c r="C394" s="8"/>
       <c r="D394" s="8"/>
       <c r="E394" s="8"/>
@@ -15513,8 +15649,12 @@
       <c r="Z394" s="8"/>
     </row>
     <row r="395">
-      <c r="A395" s="8"/>
-      <c r="B395" s="8"/>
+      <c r="A395" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="B395" s="12" t="s">
+        <v>830</v>
+      </c>
       <c r="C395" s="8"/>
       <c r="D395" s="8"/>
       <c r="E395" s="8"/>
@@ -15541,8 +15681,12 @@
       <c r="Z395" s="8"/>
     </row>
     <row r="396">
-      <c r="A396" s="8"/>
-      <c r="B396" s="8"/>
+      <c r="A396" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="B396" s="12" t="s">
+        <v>832</v>
+      </c>
       <c r="C396" s="8"/>
       <c r="D396" s="8"/>
       <c r="E396" s="8"/>

--- a/Conlangs/norvunic.xlsx
+++ b/Conlangs/norvunic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="967">
   <si>
     <t>Word</t>
   </si>
@@ -36,7 +36,13 @@
     <t>Search:</t>
   </si>
   <si>
-    <t>pe</t>
+    <t>teim</t>
+  </si>
+  <si>
+    <t>RULES</t>
+  </si>
+  <si>
+    <t>Examples</t>
   </si>
   <si>
     <t>ægi</t>
@@ -57,13 +63,19 @@
     <t>Contains?</t>
   </si>
   <si>
+    <t>1. Use the SVO order.</t>
+  </si>
+  <si>
+    <t>Al lot sig nor. (I like this rock.)</t>
+  </si>
+  <si>
     <t>ægi lis</t>
   </si>
   <si>
     <t>something that is tiny</t>
   </si>
   <si>
-    <t>very (ægi)</t>
+    <t>very, or really (ægi)</t>
   </si>
   <si>
     <t>after word</t>
@@ -72,7 +84,13 @@
     <t>nus ægi blûlr = blue very robes (very blue robes)</t>
   </si>
   <si>
-    <t>learn</t>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>2. Use as little words as possible.</t>
+  </si>
+  <si>
+    <t>Al atr Alti heim. (I go I own home.) (because atr means "to go, or move to", we don't need an extra "to")</t>
   </si>
   <si>
     <t>æner</t>
@@ -93,16 +111,28 @@
     <t>davde = ran</t>
   </si>
   <si>
+    <t>3. Follow the morpheme rules.</t>
+  </si>
+  <si>
+    <t>Al davde sar. (I runned there.) (You follow the morpheme rules. Ran = Run (verb) + ed (past tense).)</t>
+  </si>
+  <si>
     <t>æt</t>
   </si>
   <si>
     <t>out, or out of</t>
   </si>
   <si>
-    <t>present tense/ing (parri)</t>
-  </si>
-  <si>
-    <t>dav parri = run currently (running)</t>
+    <t>present tense/ing (parva)</t>
+  </si>
+  <si>
+    <t>dav parva = run currently (running)</t>
+  </si>
+  <si>
+    <t>4. Word order does not change in a question.</t>
+  </si>
+  <si>
+    <t>"What is this thing?" turns into "What this thing is?"</t>
   </si>
   <si>
     <t>af</t>
@@ -117,6 +147,9 @@
     <t>hav dav = will run</t>
   </si>
   <si>
+    <t>SENTENCES</t>
+  </si>
+  <si>
     <t>afa</t>
   </si>
   <si>
@@ -129,6 +162,12 @@
     <t>atelgle = apples</t>
   </si>
   <si>
+    <t>Where is/are</t>
+  </si>
+  <si>
+    <t>Lan linsûr ru? (What place you? Proper english: Where are you?)</t>
+  </si>
+  <si>
     <t>ag</t>
   </si>
   <si>
@@ -141,19 +180,52 @@
     <t>ûn atelg = one apple (an apple)</t>
   </si>
   <si>
+    <t>How did</t>
+  </si>
+  <si>
+    <t>Lan ru glede? (What you did? Proper english: How did you do that? or What have you done?)</t>
+  </si>
+  <si>
     <t>aht</t>
   </si>
   <si>
     <t>eight</t>
   </si>
   <si>
-    <t>possessive (telg)</t>
+    <t>possessive (ti)</t>
   </si>
   <si>
     <t>after pronoun</t>
   </si>
   <si>
-    <t>eg telg sig heim = i own this house</t>
+    <t>beigti sulf = dog's fur, alti sig heim = i own this house, matti sert = matt's shirt (if it ends with "tt", it becomes just an I)</t>
+  </si>
+  <si>
+    <t>How did #2</t>
+  </si>
+  <si>
+    <t>Lan burig sat? (What cause that? Proper english: What happened? or How did it happen? or What caused it?)</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>refers to the speaker. equivalent to i, me, and my.</t>
+  </si>
+  <si>
+    <t>nationality (lot) (like -ian, -ic, -ish, -ese, -i, -an)</t>
+  </si>
+  <si>
+    <t>after nation</t>
+  </si>
+  <si>
+    <t>norvun lot = norvun like (norvunic), eng lot = england like (english)</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>Lan servgal ru jeg? (What person be you? Proper english: Who are you?)</t>
   </si>
   <si>
     <t>ald</t>
@@ -165,13 +237,16 @@
     <t>hæner</t>
   </si>
   <si>
-    <t>nationality (lat) (like -ian, -ic, -ish, -ese, -i, -an)</t>
-  </si>
-  <si>
-    <t>after nation</t>
-  </si>
-  <si>
-    <t>norvun lat = norvun like (norvunic), eng lat = england like (english)</t>
+    <t>language (-lagi) (same thing as above)</t>
+  </si>
+  <si>
+    <t>norvunlagi = norvun speak (norvunic), englagi = england speak (english)</t>
+  </si>
+  <si>
+    <t>What is</t>
+  </si>
+  <si>
+    <t>Lan ûn atelg jeg? (What an apple be? Proper english: What is an apple?)</t>
   </si>
   <si>
     <t>algbod</t>
@@ -180,10 +255,16 @@
     <t>1: a problem. 2: trouble</t>
   </si>
   <si>
-    <t>language (lagi) (same thing as above)</t>
-  </si>
-  <si>
-    <t>norvunlagi = norvun speak (norvunic), englagi = england speak (english)</t>
+    <t>likeness/ly, ness or ful (-vol)</t>
+  </si>
+  <si>
+    <t>fjolva = quickly, ru jeg leifa = you are beautiful (if it ends with f, only do "a")</t>
+  </si>
+  <si>
+    <t>What time</t>
+  </si>
+  <si>
+    <t>Lan tervin par jeg? (What time now be? Proper english: What time is it?)</t>
   </si>
   <si>
     <t>alglo</t>
@@ -192,10 +273,16 @@
     <t>away</t>
   </si>
   <si>
-    <t>likeness/ness or ful (lat)</t>
-  </si>
-  <si>
-    <t>ru jeg leif lat = you be beauty like (you are beautiful)</t>
+    <t>weather/ing (sorp)</t>
+  </si>
+  <si>
+    <t>pa jû jeg sorp parva = the rainwater be falling (it's raining)</t>
+  </si>
+  <si>
+    <t>When</t>
+  </si>
+  <si>
+    <t>Lan tervin hav sat alp? (When will it come?)</t>
   </si>
   <si>
     <t>alp</t>
@@ -204,13 +291,22 @@
     <t>come here</t>
   </si>
   <si>
-    <t>likeness/ly (ri)</t>
-  </si>
-  <si>
-    <t>after adj or adv</t>
-  </si>
-  <si>
-    <t>fjolri = quickly</t>
+    <t>ready ('ap)</t>
+  </si>
+  <si>
+    <t>hagt'ap skog = battle-for axe (axe for battle)</t>
+  </si>
+  <si>
+    <t>altûgar</t>
+  </si>
+  <si>
+    <t>1: being brave, or bold. 2: bravery.</t>
+  </si>
+  <si>
+    <t>most/est (-je)</t>
+  </si>
+  <si>
+    <t>bagje = biggest, dagnulje = most powerful</t>
   </si>
   <si>
     <t>antul</t>
@@ -219,24 +315,12 @@
     <t>any type of armor</t>
   </si>
   <si>
-    <t>weather/ing (sorp)</t>
-  </si>
-  <si>
-    <t>pe jû jeg sorp parri = the rainwater be falling (it's raining)</t>
-  </si>
-  <si>
     <t>ap</t>
   </si>
   <si>
     <t>for. can be used as a suffix, explained in 'morphemes'.</t>
   </si>
   <si>
-    <t>ready ('ap)</t>
-  </si>
-  <si>
-    <t>hagt'ap skog = battle-for axe (axe for battle)</t>
-  </si>
-  <si>
     <t>arandas</t>
   </si>
   <si>
@@ -255,6 +339,15 @@
     <t>magenta</t>
   </si>
   <si>
+    <t>note: search WIP, and give the words some meaning</t>
+  </si>
+  <si>
+    <t>armur</t>
+  </si>
+  <si>
+    <t>an arm of a creature</t>
+  </si>
+  <si>
     <t>atag</t>
   </si>
   <si>
@@ -270,7 +363,7 @@
     <t>atr</t>
   </si>
   <si>
-    <t>to go, move, place or put</t>
+    <t>1: to go, or move to. 2: to place, or put. 3: to move.</t>
   </si>
   <si>
     <t>azalûil</t>
@@ -333,6 +426,12 @@
     <t>battle, or any large-scale fight</t>
   </si>
   <si>
+    <t>bakt</t>
+  </si>
+  <si>
+    <t>1: an actual curse. 2: a swear used, or cuss.</t>
+  </si>
+  <si>
     <t>balbeig</t>
   </si>
   <si>
@@ -378,7 +477,7 @@
     <t>basla</t>
   </si>
   <si>
-    <t>to let, allow, permit, tolerate, or bear something</t>
+    <t>1: to let, allow, permit, tolerate, or bear something. 2: a permit. 3: may.</t>
   </si>
   <si>
     <t>pûkrol</t>
@@ -414,6 +513,12 @@
     <t>1: robe, or robes. 2: a dress.</t>
   </si>
   <si>
+    <t>boder</t>
+  </si>
+  <si>
+    <t>a storage chest, or a wooden box</t>
+  </si>
+  <si>
     <t>bof</t>
   </si>
   <si>
@@ -444,6 +549,12 @@
     <t>a city</t>
   </si>
   <si>
+    <t>bov</t>
+  </si>
+  <si>
+    <t>a toe</t>
+  </si>
+  <si>
     <t>burig</t>
   </si>
   <si>
@@ -483,7 +594,7 @@
     <t>dæn</t>
   </si>
   <si>
-    <t>able to do something</t>
+    <t>able to do something; can do something.</t>
   </si>
   <si>
     <t>dagnul</t>
@@ -603,10 +714,19 @@
     <t>iron</t>
   </si>
   <si>
+    <t>dorver</t>
+  </si>
+  <si>
+    <t>to close</t>
+  </si>
+  <si>
+    <t>hanver</t>
+  </si>
+  <si>
     <t>dov</t>
   </si>
   <si>
-    <t>stop an action or process</t>
+    <t>stop, end, complete or finish an action or process</t>
   </si>
   <si>
     <t>tap</t>
@@ -648,7 +768,7 @@
     <t>a character in a story</t>
   </si>
   <si>
-    <t>duv</t>
+    <t>dûv</t>
   </si>
   <si>
     <t>jump</t>
@@ -669,12 +789,6 @@
     <t>jom</t>
   </si>
   <si>
-    <t>eg</t>
-  </si>
-  <si>
-    <t>refers to the speaker. equivalent to i, me, and my.</t>
-  </si>
-  <si>
     <t>eirvan</t>
   </si>
   <si>
@@ -687,12 +801,33 @@
     <t>an arrow for a bow</t>
   </si>
   <si>
+    <t>elgûnalf</t>
+  </si>
+  <si>
+    <t>an elf</t>
+  </si>
+  <si>
     <t>ened</t>
   </si>
   <si>
     <t>an inn</t>
   </si>
   <si>
+    <t>enf</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>olp</t>
+  </si>
+  <si>
+    <t>eninter</t>
+  </si>
+  <si>
+    <t>something that is safe</t>
+  </si>
+  <si>
     <t>enkar</t>
   </si>
   <si>
@@ -801,6 +936,18 @@
     <t>four</t>
   </si>
   <si>
+    <t>firg</t>
+  </si>
+  <si>
+    <t>a finger</t>
+  </si>
+  <si>
+    <t>firs</t>
+  </si>
+  <si>
+    <t>a tail</t>
+  </si>
+  <si>
     <t>fjol</t>
   </si>
   <si>
@@ -810,7 +957,13 @@
     <t>fjolpla</t>
   </si>
   <si>
-    <t>used to describe anything used to transport over water</t>
+    <t>used to describe anything used to transport over water; a boat.</t>
+  </si>
+  <si>
+    <t>fla</t>
+  </si>
+  <si>
+    <t>to use, or make use of</t>
   </si>
   <si>
     <t>fod</t>
@@ -861,7 +1014,7 @@
     <t>jomur</t>
   </si>
   <si>
-    <t>fur</t>
+    <t>fûr</t>
   </si>
   <si>
     <t>size, scale, or mass of</t>
@@ -921,12 +1074,24 @@
     <t>being heavy</t>
   </si>
   <si>
+    <t>gard</t>
+  </si>
+  <si>
+    <t>one's husband</t>
+  </si>
+  <si>
     <t>garv</t>
   </si>
   <si>
     <t>a cart, or wagon</t>
   </si>
   <si>
+    <t>gatve</t>
+  </si>
+  <si>
+    <t>to annoy</t>
+  </si>
+  <si>
     <t>gazr</t>
   </si>
   <si>
@@ -954,7 +1119,7 @@
     <t>gidhom</t>
   </si>
   <si>
-    <t>a shadow</t>
+    <t>1: a shadow. 2: darkness. (don't forget to add suffixes)</t>
   </si>
   <si>
     <t>gilja</t>
@@ -1071,6 +1236,12 @@
     <t>rude, mean or impolite</t>
   </si>
   <si>
+    <t>gûl</t>
+  </si>
+  <si>
+    <t>a year</t>
+  </si>
+  <si>
     <t>guld</t>
   </si>
   <si>
@@ -1110,6 +1281,12 @@
     <t>to hear, or listen</t>
   </si>
   <si>
+    <t>hærdla</t>
+  </si>
+  <si>
+    <t>an ear of a creature</t>
+  </si>
+  <si>
     <t>hæs</t>
   </si>
   <si>
@@ -1146,6 +1323,9 @@
     <t>hundred</t>
   </si>
   <si>
+    <t>to open</t>
+  </si>
+  <si>
     <t>haskal</t>
   </si>
   <si>
@@ -1209,6 +1389,18 @@
     <t>a fiend. literally means 'evil thing from hell'</t>
   </si>
   <si>
+    <t>helg</t>
+  </si>
+  <si>
+    <t>a helmet</t>
+  </si>
+  <si>
+    <t>hir</t>
+  </si>
+  <si>
+    <t>a kid, or child</t>
+  </si>
+  <si>
     <t>hom</t>
   </si>
   <si>
@@ -1239,6 +1431,12 @@
     <t>the honey of bees</t>
   </si>
   <si>
+    <t>hûv</t>
+  </si>
+  <si>
+    <t>to push</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -1266,10 +1464,22 @@
     <t>a picture, or an image</t>
   </si>
   <si>
+    <t>itar</t>
+  </si>
+  <si>
+    <t>an itch</t>
+  </si>
+  <si>
+    <t>itlon</t>
+  </si>
+  <si>
+    <t>to arrive at</t>
+  </si>
+  <si>
     <t>ja</t>
   </si>
   <si>
-    <t>yes, as in 'yes, i did'</t>
+    <t>yes, as in 'yes, i did', or 'yes, you may'.</t>
   </si>
   <si>
     <t>vo</t>
@@ -1344,7 +1554,7 @@
     <t>jeg</t>
   </si>
   <si>
-    <t>be, act as</t>
+    <t>1: be, or act as something. 2: is, are, am.</t>
   </si>
   <si>
     <t>1: used to describe if one has done well. 2: skilled at. 3: used to describe the situation is going well.</t>
@@ -1389,6 +1599,12 @@
     <t>a lord, jarl or earl</t>
   </si>
   <si>
+    <t>kal</t>
+  </si>
+  <si>
+    <t>a cup. mug, or tankard</t>
+  </si>
+  <si>
     <t>kald</t>
   </si>
   <si>
@@ -1467,10 +1683,10 @@
     <t>a fish</t>
   </si>
   <si>
-    <t>lam</t>
-  </si>
-  <si>
-    <t>when, or while</t>
+    <t>lanyr</t>
+  </si>
+  <si>
+    <t>while, or when the time comes</t>
   </si>
   <si>
     <t>larfror</t>
@@ -1479,72 +1695,84 @@
     <t>a flower</t>
   </si>
   <si>
-    <t>lat</t>
+    <t>leif</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>leif-ezrig</t>
+  </si>
+  <si>
+    <t>a butterfly. literally means 'beautiful bug'</t>
+  </si>
+  <si>
+    <t>leivær</t>
+  </si>
+  <si>
+    <t>a pedestal</t>
+  </si>
+  <si>
+    <t>linsosvir</t>
+  </si>
+  <si>
+    <t>something that is very small; minuscule</t>
+  </si>
+  <si>
+    <t>linsûr</t>
+  </si>
+  <si>
+    <t>a place, or location</t>
+  </si>
+  <si>
+    <t>lis</t>
+  </si>
+  <si>
+    <t>something that is small, or little</t>
+  </si>
+  <si>
+    <t>lis fjolpla</t>
+  </si>
+  <si>
+    <t>a raft. literally means 'small boat'</t>
+  </si>
+  <si>
+    <t>lis huld</t>
+  </si>
+  <si>
+    <t>a pony. literally means 'small horse'</t>
+  </si>
+  <si>
+    <t>lof</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>equivalent to and, or then</t>
+  </si>
+  <si>
+    <t>lorso</t>
+  </si>
+  <si>
+    <t>many, much, several, or a lot of</t>
+  </si>
+  <si>
+    <t>lorvet</t>
+  </si>
+  <si>
+    <t>1: the ground. 2: land, or territory.</t>
+  </si>
+  <si>
+    <t>lot</t>
   </si>
   <si>
     <t>to like</t>
   </si>
   <si>
-    <t>leif</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>leif-ezrig</t>
-  </si>
-  <si>
-    <t>a butterfly. literally means 'beautiful bug'</t>
-  </si>
-  <si>
-    <t>leivær</t>
-  </si>
-  <si>
-    <t>a pedestal</t>
-  </si>
-  <si>
-    <t>len</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>linsosvir</t>
-  </si>
-  <si>
-    <t>something that is very small; minuscule</t>
-  </si>
-  <si>
-    <t>lis</t>
-  </si>
-  <si>
-    <t>something that is small, or little</t>
-  </si>
-  <si>
-    <t>lis fjolpla</t>
-  </si>
-  <si>
-    <t>a raft. literally means 'small boat'</t>
-  </si>
-  <si>
-    <t>lis huld</t>
-  </si>
-  <si>
-    <t>a pony. literally means 'small horse'</t>
-  </si>
-  <si>
-    <t>lorso</t>
-  </si>
-  <si>
-    <t>many, much, several, or a lot of</t>
-  </si>
-  <si>
-    <t>lorvet</t>
-  </si>
-  <si>
-    <t>1: the ground. 2: land, or territory.</t>
-  </si>
-  <si>
     <t>lûdor</t>
   </si>
   <si>
@@ -1563,6 +1791,12 @@
     <t>left</t>
   </si>
   <si>
+    <t>lug</t>
+  </si>
+  <si>
+    <t>a leg of a creature</t>
+  </si>
+  <si>
     <t>lûglar</t>
   </si>
   <si>
@@ -1680,18 +1914,24 @@
     <t>marble</t>
   </si>
   <si>
-    <t>molv</t>
-  </si>
-  <si>
-    <t>a place, or location</t>
-  </si>
-  <si>
     <t>mos kyræm</t>
   </si>
   <si>
     <t>a shortsword (weapon)</t>
   </si>
   <si>
+    <t>mot</t>
+  </si>
+  <si>
+    <t>the mouth of a creature</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>equivalent to should</t>
+  </si>
+  <si>
     <t>mûal</t>
   </si>
   <si>
@@ -1716,6 +1956,12 @@
     <t>weird, or twisted</t>
   </si>
   <si>
+    <t>myr</t>
+  </si>
+  <si>
+    <t>someone's eye</t>
+  </si>
+  <si>
     <t>nalver</t>
   </si>
   <si>
@@ -1758,6 +2004,12 @@
     <t>stone, or rock</t>
   </si>
   <si>
+    <t>norl</t>
+  </si>
+  <si>
+    <t>beside</t>
+  </si>
+  <si>
     <t>nus</t>
   </si>
   <si>
@@ -1776,10 +2028,19 @@
     <t>pink</t>
   </si>
   <si>
+    <t>down</t>
+  </si>
+  <si>
     <t>ordun</t>
   </si>
   <si>
-    <t>1: to think of. 2: to remember, or recall.</t>
+    <t>1: to think of. 2: to remember, or recall. 3: suppose, or guess.</t>
+  </si>
+  <si>
+    <t>orelg</t>
+  </si>
+  <si>
+    <t>the earth</t>
   </si>
   <si>
     <t>orul</t>
@@ -1794,6 +2055,12 @@
     <t>purple, or violet</t>
   </si>
   <si>
+    <t>palfar</t>
+  </si>
+  <si>
+    <t>to pull</t>
+  </si>
+  <si>
     <t>par</t>
   </si>
   <si>
@@ -1812,87 +2079,96 @@
     <t>any type of spice</t>
   </si>
   <si>
+    <t>parva</t>
+  </si>
+  <si>
+    <t>currently</t>
+  </si>
+  <si>
+    <t>povri</t>
+  </si>
+  <si>
+    <t>parvi</t>
+  </si>
+  <si>
+    <t>equivalent to feces, or poop</t>
+  </si>
+  <si>
+    <t>patrnig</t>
+  </si>
+  <si>
+    <t>a painting</t>
+  </si>
+  <si>
+    <t>pav</t>
+  </si>
+  <si>
+    <t>to give, or grant</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>equivalent of the</t>
+  </si>
+  <si>
+    <t>peim</t>
+  </si>
+  <si>
+    <t>a piece, fragment, or part</t>
+  </si>
+  <si>
+    <t>pla</t>
+  </si>
+  <si>
+    <t>a plank of wood</t>
+  </si>
+  <si>
+    <t>plor</t>
+  </si>
+  <si>
+    <t>a quill</t>
+  </si>
+  <si>
+    <t>plorvlar</t>
+  </si>
+  <si>
+    <t>used to describe a sour taste</t>
+  </si>
+  <si>
+    <t>plûb</t>
+  </si>
+  <si>
+    <t>a bird</t>
+  </si>
+  <si>
+    <t>polfir</t>
+  </si>
+  <si>
+    <t>1: to worry about. 2: to care for someone.</t>
+  </si>
+  <si>
+    <t>pordun</t>
+  </si>
+  <si>
+    <t>a boot from a pair of boots</t>
+  </si>
+  <si>
+    <t>pov</t>
+  </si>
+  <si>
+    <t>1: the past time, or before. 2: previous, or last.</t>
+  </si>
+  <si>
+    <t>povva</t>
+  </si>
+  <si>
+    <t>previously</t>
+  </si>
+  <si>
     <t>parri</t>
   </si>
   <si>
-    <t>currently</t>
-  </si>
-  <si>
-    <t>povri</t>
-  </si>
-  <si>
-    <t>parvi</t>
-  </si>
-  <si>
-    <t>equivalent to feces, or poop</t>
-  </si>
-  <si>
-    <t>patrnig</t>
-  </si>
-  <si>
-    <t>a painting</t>
-  </si>
-  <si>
-    <t>pav</t>
-  </si>
-  <si>
-    <t>to give, or grant</t>
-  </si>
-  <si>
-    <t>equivalent of the</t>
-  </si>
-  <si>
-    <t>peim</t>
-  </si>
-  <si>
-    <t>a piece, fragment, or part</t>
-  </si>
-  <si>
-    <t>pla</t>
-  </si>
-  <si>
-    <t>a plank of wood</t>
-  </si>
-  <si>
-    <t>plor</t>
-  </si>
-  <si>
-    <t>a quill</t>
-  </si>
-  <si>
-    <t>plorvlar</t>
-  </si>
-  <si>
-    <t>used to describe a sour taste</t>
-  </si>
-  <si>
-    <t>plûb</t>
-  </si>
-  <si>
-    <t>a bird</t>
-  </si>
-  <si>
-    <t>polfir</t>
-  </si>
-  <si>
-    <t>1: to worry about. 2: to care for someone.</t>
-  </si>
-  <si>
-    <t>pordun</t>
-  </si>
-  <si>
-    <t>a boot from a pair of boots</t>
-  </si>
-  <si>
-    <t>pov</t>
-  </si>
-  <si>
-    <t>1: the past time, or before. 2: previous, or last.</t>
-  </si>
-  <si>
-    <t>previously</t>
-  </si>
-  <si>
     <t>pûk</t>
   </si>
   <si>
@@ -1920,6 +2196,12 @@
     <t>a room</t>
   </si>
   <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>equivalent to you</t>
+  </si>
+  <si>
     <t>rûdag</t>
   </si>
   <si>
@@ -1938,6 +2220,12 @@
     <t>right</t>
   </si>
   <si>
+    <t>sæf</t>
+  </si>
+  <si>
+    <t>one's wife</t>
+  </si>
+  <si>
     <t>sær</t>
   </si>
   <si>
@@ -2076,6 +2364,12 @@
     <t>1: a tunic, or a long sleeved shirt. 2: a chain mail hauberk.</t>
   </si>
   <si>
+    <t>sfov</t>
+  </si>
+  <si>
+    <t>the nose of a creature</t>
+  </si>
+  <si>
     <t>sig</t>
   </si>
   <si>
@@ -2145,6 +2439,12 @@
     <t>under, or below</t>
   </si>
   <si>
+    <t>spûva</t>
+  </si>
+  <si>
+    <t>1: play. 2: silly (don't forget to add the appropriate suffix)</t>
+  </si>
+  <si>
     <t>to fly</t>
   </si>
   <si>
@@ -2178,6 +2478,18 @@
     <t>to write, or print</t>
   </si>
   <si>
+    <t>svusor</t>
+  </si>
+  <si>
+    <t>to send</t>
+  </si>
+  <si>
+    <t>talavûr</t>
+  </si>
+  <si>
+    <t>1: the design of, or the looks of. 2: designing. (don't forget the verb tenses!)</t>
+  </si>
+  <si>
     <t>talg</t>
   </si>
   <si>
@@ -2208,45 +2520,51 @@
     <t>something that was done again</t>
   </si>
   <si>
-    <t>tamr</t>
+    <t>tanlar</t>
+  </si>
+  <si>
+    <t>to read</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>start, or begin an action or process</t>
+  </si>
+  <si>
+    <t>tarfa</t>
+  </si>
+  <si>
+    <t>to raid, or pillage</t>
+  </si>
+  <si>
+    <t>tastan</t>
+  </si>
+  <si>
+    <t>thousand</t>
+  </si>
+  <si>
+    <t>an unknown object. equivalent to thing.</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>telg</t>
+  </si>
+  <si>
+    <t>1: to own, or have. 2: has ownership of.</t>
+  </si>
+  <si>
+    <t>tervin</t>
   </si>
   <si>
     <t>the time</t>
   </si>
   <si>
-    <t>tanlar</t>
-  </si>
-  <si>
-    <t>to read</t>
-  </si>
-  <si>
-    <t>start an action or process</t>
-  </si>
-  <si>
-    <t>tastan</t>
-  </si>
-  <si>
-    <t>thousand</t>
-  </si>
-  <si>
-    <t>teim</t>
-  </si>
-  <si>
-    <t>an unknown object</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>telg</t>
-  </si>
-  <si>
-    <t>1: to own, or have. 2: has ownership of.</t>
-  </si>
-  <si>
     <t>correct, right, or true</t>
   </si>
   <si>
@@ -2256,6 +2574,12 @@
     <t>ice</t>
   </si>
   <si>
+    <t>toltyn</t>
+  </si>
+  <si>
+    <t>the chest, or torso of a creature</t>
+  </si>
+  <si>
     <t>tor</t>
   </si>
   <si>
@@ -2292,6 +2616,12 @@
     <t>towards</t>
   </si>
   <si>
+    <t>tyrlag</t>
+  </si>
+  <si>
+    <t>the shape of an object</t>
+  </si>
+  <si>
     <t>ûd</t>
   </si>
   <si>
@@ -2310,6 +2640,12 @@
     <t>over, or on top</t>
   </si>
   <si>
+    <t>uldaf</t>
+  </si>
+  <si>
+    <t>a mountain</t>
+  </si>
+  <si>
     <t>ulnt</t>
   </si>
   <si>
@@ -2319,13 +2655,7 @@
     <t>ûn</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>urd</t>
-  </si>
-  <si>
-    <t>to use, or make use of</t>
+    <t>1: one, or a, as in 'a bird'. 2: used to refer something by their greatest attribute, like 'great one', or 'old one', or 'fiery one'.</t>
   </si>
   <si>
     <t>urk</t>
@@ -2340,7 +2670,7 @@
     <t>to suffer</t>
   </si>
   <si>
-    <t>death</t>
+    <t>1: death. 2: someone that is dead.</t>
   </si>
   <si>
     <t>vak</t>
@@ -2355,6 +2685,12 @@
     <t>to die</t>
   </si>
   <si>
+    <t>valr</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
     <t>vaninreg</t>
   </si>
   <si>
@@ -2409,7 +2745,7 @@
     <t>silver</t>
   </si>
   <si>
-    <t>no, as in 'no, i didn't.'</t>
+    <t>no, as in 'no, i didn't', or 'no, you may not'.</t>
   </si>
   <si>
     <t>vog</t>
@@ -2418,6 +2754,12 @@
     <t>to hunt</t>
   </si>
   <si>
+    <t>vok</t>
+  </si>
+  <si>
+    <t>to ruin, or destroy</t>
+  </si>
+  <si>
     <t>vol</t>
   </si>
   <si>
@@ -2460,18 +2802,24 @@
     <t>to wait, or stay at a place</t>
   </si>
   <si>
-    <t>wol</t>
+    <t>wonir</t>
+  </si>
+  <si>
+    <t>to give up, or surrender</t>
+  </si>
+  <si>
+    <t>wovur</t>
+  </si>
+  <si>
+    <t>a wolf</t>
+  </si>
+  <si>
+    <t>wûl</t>
   </si>
   <si>
     <t>the wind</t>
   </si>
   <si>
-    <t>wovur</t>
-  </si>
-  <si>
-    <t>a wolf</t>
-  </si>
-  <si>
     <t>ygta</t>
   </si>
   <si>
@@ -2502,23 +2850,77 @@
     <t>1: to bet/gamble on something. 2: a bet/gamble.</t>
   </si>
   <si>
+    <t>zar</t>
+  </si>
+  <si>
+    <t>the feeling of pain; hurts</t>
+  </si>
+  <si>
     <t>zevær</t>
   </si>
   <si>
     <t>a pillar</t>
   </si>
   <si>
-    <t>wonir</t>
-  </si>
-  <si>
-    <t>to give up, or surrender</t>
+    <t>zintig</t>
+  </si>
+  <si>
+    <t>a lizard</t>
+  </si>
+  <si>
+    <t>zin</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>irgaf</t>
+  </si>
+  <si>
+    <t>someone's neck</t>
+  </si>
+  <si>
+    <t>gevt</t>
+  </si>
+  <si>
+    <t>1: to cover. 2: the cover of</t>
+  </si>
+  <si>
+    <t>gala</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>zod</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>floger</t>
+  </si>
+  <si>
+    <t>trade, or exchange</t>
+  </si>
+  <si>
+    <t>dalmal</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>nitmal</t>
+  </si>
+  <si>
+    <t>dinner, or supper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2546,12 +2948,26 @@
       <name val="EB Garamond"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="EB Garamond"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="EB Garamond"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="EB Garamond"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2576,6 +2992,12 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -2583,7 +3005,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2611,6 +3033,12 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
@@ -2626,10 +3054,13 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2851,12 +3282,14 @@
     <col customWidth="1" min="1" max="1" width="8.88"/>
     <col customWidth="1" min="2" max="2" width="35.5"/>
     <col customWidth="1" min="3" max="3" width="9.63"/>
-    <col customWidth="1" min="4" max="4" width="16.5"/>
+    <col customWidth="1" min="4" max="4" width="18.5"/>
     <col customWidth="1" min="5" max="5" width="10.25"/>
-    <col customWidth="1" min="6" max="6" width="33.38"/>
+    <col customWidth="1" min="6" max="6" width="52.13"/>
     <col customWidth="1" min="7" max="7" width="9.13"/>
     <col customWidth="1" min="8" max="8" width="36.25"/>
     <col customWidth="1" min="9" max="9" width="8.88"/>
+    <col customWidth="1" min="10" max="10" width="30.13"/>
+    <col customWidth="1" min="11" max="11" width="73.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2885,8 +3318,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="J1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
@@ -2904,32 +3341,36 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>9</v>
+      <c r="A2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>13</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="H2" s="8" t="str">
         <f>IF(COUNTIF(A:A, H1)&gt;0, "Yes", "No")</f>
         <v>Yes</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="J2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -2947,31 +3388,35 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
+      <c r="A3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
+      <c r="D3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="J3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -2989,38 +3434,36 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(A:A, REGEXMATCH(B:B, H3))"),"enlut")</f>
-        <v>enlut</v>
-      </c>
-      <c r="H4" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(B:B, REGEXMATCH(B:B, H3))"),"to learn")</f>
-        <v>to learn</v>
-      </c>
-      <c r="I4" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(C:C, REGEXMATCH(B:B, H3))"),"")</f>
-        <v/>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="A4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="15" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(A:C, EQ(A:A, H3))"),"#N/A")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -3038,27 +3481,37 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>27</v>
+      <c r="A5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="15" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(A:C, REGEXMATCH(B:B, H3))"),"enlutar")</f>
+        <v>enlutar</v>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"to know, or understand, or feel someone's feelings")</f>
+        <v>to know, or understand, or feel someone's feelings</v>
+      </c>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="J5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -3076,27 +3529,31 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>31</v>
+      <c r="A6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>33</v>
+      <c r="D6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -3114,27 +3571,31 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>35</v>
+      <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>37</v>
+      <c r="D7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -3152,27 +3613,31 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>39</v>
+      <c r="A8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>41</v>
+      <c r="D8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -3190,27 +3655,31 @@
       <c r="Z8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>43</v>
+      <c r="A9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>46</v>
+      <c r="D9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -3228,29 +3697,31 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>52</v>
+      <c r="A10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="J10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -3268,27 +3739,33 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>56</v>
+      <c r="A11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -3306,27 +3783,31 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>58</v>
+      <c r="A12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>60</v>
+      <c r="D12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -3344,27 +3825,31 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>62</v>
+      <c r="A13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>65</v>
+      <c r="D13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="J13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -3382,21 +3867,21 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>67</v>
+      <c r="A14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>69</v>
+      <c r="D14" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -3420,21 +3905,21 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>71</v>
+      <c r="A15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>73</v>
+      <c r="D15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -3458,15 +3943,13 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>75</v>
+      <c r="A16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -3489,11 +3972,11 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>77</v>
+      <c r="A17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -3521,16 +4004,15 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>79</v>
+      <c r="A18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -3553,11 +4035,11 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>81</v>
+      <c r="A19" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -3585,14 +4067,16 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>83</v>
+      <c r="A20" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -3617,11 +4101,11 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>85</v>
+      <c r="A21" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -3649,11 +4133,11 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>87</v>
+      <c r="A22" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -3681,11 +4165,11 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>89</v>
+      <c r="A23" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -3713,11 +4197,11 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>91</v>
+      <c r="A24" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -3745,11 +4229,11 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>93</v>
+      <c r="A25" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -3777,11 +4261,11 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>95</v>
+      <c r="A26" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -3809,11 +4293,11 @@
       <c r="Z26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>97</v>
+      <c r="A27" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -3841,11 +4325,11 @@
       <c r="Z27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>99</v>
+      <c r="A28" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -3873,11 +4357,11 @@
       <c r="Z28" s="8"/>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>101</v>
+      <c r="A29" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -3905,11 +4389,11 @@
       <c r="Z29" s="8"/>
     </row>
     <row r="30">
-      <c r="A30" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>103</v>
+      <c r="A30" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -3937,11 +4421,11 @@
       <c r="Z30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>105</v>
+      <c r="A31" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -3969,11 +4453,11 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32">
-      <c r="A32" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>107</v>
+      <c r="A32" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -4001,11 +4485,11 @@
       <c r="Z32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>109</v>
+      <c r="A33" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -4033,11 +4517,11 @@
       <c r="Z33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>111</v>
+      <c r="A34" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -4065,11 +4549,11 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>113</v>
+      <c r="A35" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -4097,11 +4581,11 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>115</v>
+      <c r="A36" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -4129,11 +4613,11 @@
       <c r="Z36" s="8"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>117</v>
+      <c r="A37" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -4161,11 +4645,11 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>119</v>
+      <c r="A38" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -4193,15 +4677,13 @@
       <c r="Z38" s="8"/>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>122</v>
-      </c>
+      <c r="A39" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -4227,11 +4709,11 @@
       <c r="Z39" s="8"/>
     </row>
     <row r="40">
-      <c r="A40" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>124</v>
+      <c r="A40" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -4259,11 +4741,11 @@
       <c r="Z40" s="8"/>
     </row>
     <row r="41">
-      <c r="A41" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>126</v>
+      <c r="A41" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -4291,11 +4773,11 @@
       <c r="Z41" s="8"/>
     </row>
     <row r="42">
-      <c r="A42" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>128</v>
+      <c r="A42" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -4323,13 +4805,15 @@
       <c r="Z42" s="8"/>
     </row>
     <row r="43">
-      <c r="A43" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="8"/>
+      <c r="A43" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -4355,11 +4839,11 @@
       <c r="Z43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>132</v>
+      <c r="A44" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -4387,11 +4871,11 @@
       <c r="Z44" s="8"/>
     </row>
     <row r="45">
-      <c r="A45" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>134</v>
+      <c r="A45" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -4419,11 +4903,11 @@
       <c r="Z45" s="8"/>
     </row>
     <row r="46">
-      <c r="A46" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>136</v>
+      <c r="A46" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -4451,11 +4935,11 @@
       <c r="Z46" s="8"/>
     </row>
     <row r="47">
-      <c r="A47" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>138</v>
+      <c r="A47" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -4483,11 +4967,11 @@
       <c r="Z47" s="8"/>
     </row>
     <row r="48">
-      <c r="A48" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>140</v>
+      <c r="A48" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -4515,11 +4999,11 @@
       <c r="Z48" s="8"/>
     </row>
     <row r="49">
-      <c r="A49" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>142</v>
+      <c r="A49" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -4547,11 +5031,11 @@
       <c r="Z49" s="8"/>
     </row>
     <row r="50">
-      <c r="A50" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>144</v>
+      <c r="A50" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -4579,11 +5063,11 @@
       <c r="Z50" s="8"/>
     </row>
     <row r="51">
-      <c r="A51" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>146</v>
+      <c r="A51" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -4611,11 +5095,11 @@
       <c r="Z51" s="8"/>
     </row>
     <row r="52">
-      <c r="A52" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>148</v>
+      <c r="A52" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -4643,11 +5127,11 @@
       <c r="Z52" s="8"/>
     </row>
     <row r="53">
-      <c r="A53" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>150</v>
+      <c r="A53" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -4675,11 +5159,11 @@
       <c r="Z53" s="8"/>
     </row>
     <row r="54">
-      <c r="A54" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>152</v>
+      <c r="A54" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -4707,11 +5191,11 @@
       <c r="Z54" s="8"/>
     </row>
     <row r="55">
-      <c r="A55" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>154</v>
+      <c r="A55" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -4739,11 +5223,11 @@
       <c r="Z55" s="8"/>
     </row>
     <row r="56">
-      <c r="A56" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>156</v>
+      <c r="A56" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -4771,11 +5255,11 @@
       <c r="Z56" s="8"/>
     </row>
     <row r="57">
-      <c r="A57" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>158</v>
+      <c r="A57" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -4803,11 +5287,11 @@
       <c r="Z57" s="8"/>
     </row>
     <row r="58">
-      <c r="A58" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>160</v>
+      <c r="A58" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -4835,11 +5319,11 @@
       <c r="Z58" s="8"/>
     </row>
     <row r="59">
-      <c r="A59" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>162</v>
+      <c r="A59" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -4867,11 +5351,11 @@
       <c r="Z59" s="8"/>
     </row>
     <row r="60">
-      <c r="A60" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>164</v>
+      <c r="A60" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -4899,11 +5383,11 @@
       <c r="Z60" s="8"/>
     </row>
     <row r="61">
-      <c r="A61" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>166</v>
+      <c r="A61" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4931,11 +5415,11 @@
       <c r="Z61" s="8"/>
     </row>
     <row r="62">
-      <c r="A62" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>168</v>
+      <c r="A62" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -4963,11 +5447,11 @@
       <c r="Z62" s="8"/>
     </row>
     <row r="63">
-      <c r="A63" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>170</v>
+      <c r="A63" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -4995,11 +5479,11 @@
       <c r="Z63" s="8"/>
     </row>
     <row r="64">
-      <c r="A64" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>172</v>
+      <c r="A64" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -5027,11 +5511,11 @@
       <c r="Z64" s="8"/>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>174</v>
+      <c r="A65" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -5059,11 +5543,11 @@
       <c r="Z65" s="8"/>
     </row>
     <row r="66">
-      <c r="A66" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>176</v>
+      <c r="A66" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -5091,11 +5575,11 @@
       <c r="Z66" s="8"/>
     </row>
     <row r="67">
-      <c r="A67" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>178</v>
+      <c r="A67" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5123,11 +5607,11 @@
       <c r="Z67" s="8"/>
     </row>
     <row r="68">
-      <c r="A68" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>180</v>
+      <c r="A68" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -5155,11 +5639,11 @@
       <c r="Z68" s="8"/>
     </row>
     <row r="69">
-      <c r="A69" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>182</v>
+      <c r="A69" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -5187,11 +5671,11 @@
       <c r="Z69" s="8"/>
     </row>
     <row r="70">
-      <c r="A70" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>184</v>
+      <c r="A70" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -5219,11 +5703,11 @@
       <c r="Z70" s="8"/>
     </row>
     <row r="71">
-      <c r="A71" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>186</v>
+      <c r="A71" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -5251,11 +5735,11 @@
       <c r="Z71" s="8"/>
     </row>
     <row r="72">
-      <c r="A72" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>188</v>
+      <c r="A72" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -5283,11 +5767,11 @@
       <c r="Z72" s="8"/>
     </row>
     <row r="73">
-      <c r="A73" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>190</v>
+      <c r="A73" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -5315,11 +5799,11 @@
       <c r="Z73" s="8"/>
     </row>
     <row r="74">
-      <c r="A74" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>192</v>
+      <c r="A74" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -5347,15 +5831,13 @@
       <c r="Z74" s="8"/>
     </row>
     <row r="75">
-      <c r="A75" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="A75" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -5381,11 +5863,11 @@
       <c r="Z75" s="8"/>
     </row>
     <row r="76">
-      <c r="A76" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>195</v>
+      <c r="A76" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -5413,15 +5895,13 @@
       <c r="Z76" s="8"/>
     </row>
     <row r="77">
-      <c r="A77" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>198</v>
-      </c>
+      <c r="A77" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -5447,11 +5927,11 @@
       <c r="Z77" s="8"/>
     </row>
     <row r="78">
-      <c r="A78" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>200</v>
+      <c r="A78" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -5479,11 +5959,11 @@
       <c r="Z78" s="8"/>
     </row>
     <row r="79">
-      <c r="A79" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>202</v>
+      <c r="A79" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -5511,11 +5991,11 @@
       <c r="Z79" s="8"/>
     </row>
     <row r="80">
-      <c r="A80" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>204</v>
+      <c r="A80" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -5543,13 +6023,15 @@
       <c r="Z80" s="8"/>
     </row>
     <row r="81">
-      <c r="A81" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C81" s="8"/>
+      <c r="A81" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
@@ -5575,11 +6057,11 @@
       <c r="Z81" s="8"/>
     </row>
     <row r="82">
-      <c r="A82" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>208</v>
+      <c r="A82" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -5607,13 +6089,15 @@
       <c r="Z82" s="8"/>
     </row>
     <row r="83">
-      <c r="A83" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C83" s="8"/>
+      <c r="A83" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>235</v>
+      </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -5639,13 +6123,15 @@
       <c r="Z83" s="8"/>
     </row>
     <row r="84">
-      <c r="A84" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C84" s="8"/>
+      <c r="A84" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>238</v>
+      </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -5671,11 +6157,11 @@
       <c r="Z84" s="8"/>
     </row>
     <row r="85">
-      <c r="A85" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>214</v>
+      <c r="A85" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -5703,15 +6189,13 @@
       <c r="Z85" s="8"/>
     </row>
     <row r="86">
-      <c r="A86" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>217</v>
-      </c>
+      <c r="A86" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -5737,11 +6221,11 @@
       <c r="Z86" s="8"/>
     </row>
     <row r="87">
-      <c r="A87" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>219</v>
+      <c r="A87" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -5769,11 +6253,11 @@
       <c r="Z87" s="8"/>
     </row>
     <row r="88">
-      <c r="A88" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>221</v>
+      <c r="A88" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -5801,11 +6285,11 @@
       <c r="Z88" s="8"/>
     </row>
     <row r="89">
-      <c r="A89" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>223</v>
+      <c r="A89" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -5833,11 +6317,11 @@
       <c r="Z89" s="8"/>
     </row>
     <row r="90">
-      <c r="A90" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>225</v>
+      <c r="A90" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -5865,11 +6349,11 @@
       <c r="Z90" s="8"/>
     </row>
     <row r="91">
-      <c r="A91" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>227</v>
+      <c r="A91" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -5897,11 +6381,11 @@
       <c r="Z91" s="8"/>
     </row>
     <row r="92">
-      <c r="A92" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>229</v>
+      <c r="A92" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -5929,13 +6413,15 @@
       <c r="Z92" s="8"/>
     </row>
     <row r="93">
-      <c r="A93" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C93" s="8"/>
+      <c r="A93" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>257</v>
+      </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -5961,11 +6447,11 @@
       <c r="Z93" s="8"/>
     </row>
     <row r="94">
-      <c r="A94" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>233</v>
+      <c r="A94" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -5993,11 +6479,11 @@
       <c r="Z94" s="8"/>
     </row>
     <row r="95">
-      <c r="A95" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>235</v>
+      <c r="A95" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -6025,11 +6511,11 @@
       <c r="Z95" s="8"/>
     </row>
     <row r="96">
-      <c r="A96" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>237</v>
+      <c r="A96" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -6057,11 +6543,11 @@
       <c r="Z96" s="8"/>
     </row>
     <row r="97">
-      <c r="A97" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>239</v>
+      <c r="A97" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -6089,13 +6575,15 @@
       <c r="Z97" s="8"/>
     </row>
     <row r="98">
-      <c r="A98" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C98" s="8"/>
+      <c r="A98" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>268</v>
+      </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
@@ -6121,11 +6609,11 @@
       <c r="Z98" s="8"/>
     </row>
     <row r="99">
-      <c r="A99" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>243</v>
+      <c r="A99" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -6153,15 +6641,13 @@
       <c r="Z99" s="8"/>
     </row>
     <row r="100">
-      <c r="A100" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>246</v>
-      </c>
+      <c r="A100" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -6187,11 +6673,11 @@
       <c r="Z100" s="8"/>
     </row>
     <row r="101">
-      <c r="A101" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>248</v>
+      <c r="A101" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -6219,11 +6705,11 @@
       <c r="Z101" s="8"/>
     </row>
     <row r="102">
-      <c r="A102" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>250</v>
+      <c r="A102" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -6251,11 +6737,11 @@
       <c r="Z102" s="8"/>
     </row>
     <row r="103">
-      <c r="A103" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>251</v>
+      <c r="A103" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -6283,11 +6769,11 @@
       <c r="Z103" s="8"/>
     </row>
     <row r="104">
-      <c r="A104" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>253</v>
+      <c r="A104" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>280</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -6315,11 +6801,11 @@
       <c r="Z104" s="8"/>
     </row>
     <row r="105">
-      <c r="A105" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>255</v>
+      <c r="A105" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -6347,11 +6833,11 @@
       <c r="Z105" s="8"/>
     </row>
     <row r="106">
-      <c r="A106" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>257</v>
+      <c r="A106" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>284</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -6379,11 +6865,11 @@
       <c r="Z106" s="8"/>
     </row>
     <row r="107">
-      <c r="A107" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>259</v>
+      <c r="A107" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -6411,11 +6897,11 @@
       <c r="Z107" s="8"/>
     </row>
     <row r="108">
-      <c r="A108" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>261</v>
+      <c r="A108" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>288</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -6443,13 +6929,15 @@
       <c r="Z108" s="8"/>
     </row>
     <row r="109">
-      <c r="A109" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C109" s="14"/>
+      <c r="A109" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>291</v>
+      </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
@@ -6475,11 +6963,11 @@
       <c r="Z109" s="8"/>
     </row>
     <row r="110">
-      <c r="A110" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>265</v>
+      <c r="A110" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -6507,15 +6995,13 @@
       <c r="Z110" s="8"/>
     </row>
     <row r="111">
-      <c r="A111" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>268</v>
-      </c>
+      <c r="A111" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
@@ -6541,11 +7027,11 @@
       <c r="Z111" s="8"/>
     </row>
     <row r="112">
-      <c r="A112" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>270</v>
+      <c r="A112" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -6573,11 +7059,11 @@
       <c r="Z112" s="8"/>
     </row>
     <row r="113">
-      <c r="A113" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>272</v>
+      <c r="A113" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -6605,11 +7091,11 @@
       <c r="Z113" s="8"/>
     </row>
     <row r="114">
-      <c r="A114" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>274</v>
+      <c r="A114" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -6637,11 +7123,11 @@
       <c r="Z114" s="8"/>
     </row>
     <row r="115">
-      <c r="A115" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>276</v>
+      <c r="A115" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>302</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -6669,11 +7155,11 @@
       <c r="Z115" s="8"/>
     </row>
     <row r="116">
-      <c r="A116" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>278</v>
+      <c r="A116" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -6701,15 +7187,13 @@
       <c r="Z116" s="8"/>
     </row>
     <row r="117">
-      <c r="A117" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>281</v>
-      </c>
+      <c r="A117" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
@@ -6735,11 +7219,11 @@
       <c r="Z117" s="8"/>
     </row>
     <row r="118">
-      <c r="A118" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>283</v>
+      <c r="A118" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -6767,11 +7251,11 @@
       <c r="Z118" s="8"/>
     </row>
     <row r="119">
-      <c r="A119" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>285</v>
+      <c r="A119" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>310</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -6799,13 +7283,13 @@
       <c r="Z119" s="8"/>
     </row>
     <row r="120">
-      <c r="A120" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C120" s="8"/>
+      <c r="A120" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C120" s="17"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
@@ -6831,11 +7315,11 @@
       <c r="Z120" s="8"/>
     </row>
     <row r="121">
-      <c r="A121" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>289</v>
+      <c r="A121" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>314</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -6863,11 +7347,11 @@
       <c r="Z121" s="8"/>
     </row>
     <row r="122">
-      <c r="A122" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>291</v>
+      <c r="A122" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>316</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -6895,13 +7379,15 @@
       <c r="Z122" s="8"/>
     </row>
     <row r="123">
-      <c r="A123" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="C123" s="8"/>
+      <c r="A123" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>319</v>
+      </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
@@ -6927,11 +7413,11 @@
       <c r="Z123" s="8"/>
     </row>
     <row r="124">
-      <c r="A124" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>295</v>
+      <c r="A124" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>321</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -6959,11 +7445,11 @@
       <c r="Z124" s="8"/>
     </row>
     <row r="125">
-      <c r="A125" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>297</v>
+      <c r="A125" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>323</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -6991,11 +7477,11 @@
       <c r="Z125" s="8"/>
     </row>
     <row r="126">
-      <c r="A126" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>299</v>
+      <c r="A126" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>325</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -7023,11 +7509,11 @@
       <c r="Z126" s="8"/>
     </row>
     <row r="127">
-      <c r="A127" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>301</v>
+      <c r="A127" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>327</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -7055,11 +7541,11 @@
       <c r="Z127" s="8"/>
     </row>
     <row r="128">
-      <c r="A128" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>303</v>
+      <c r="A128" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>329</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -7087,13 +7573,15 @@
       <c r="Z128" s="8"/>
     </row>
     <row r="129">
-      <c r="A129" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C129" s="8"/>
+      <c r="A129" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>332</v>
+      </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -7119,11 +7607,11 @@
       <c r="Z129" s="8"/>
     </row>
     <row r="130">
-      <c r="A130" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>307</v>
+      <c r="A130" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>334</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -7151,11 +7639,11 @@
       <c r="Z130" s="8"/>
     </row>
     <row r="131">
-      <c r="A131" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>309</v>
+      <c r="A131" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>336</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -7183,11 +7671,11 @@
       <c r="Z131" s="8"/>
     </row>
     <row r="132">
-      <c r="A132" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>311</v>
+      <c r="A132" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>338</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -7215,11 +7703,11 @@
       <c r="Z132" s="8"/>
     </row>
     <row r="133">
-      <c r="A133" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>313</v>
+      <c r="A133" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>340</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -7247,11 +7735,11 @@
       <c r="Z133" s="8"/>
     </row>
     <row r="134">
-      <c r="A134" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>315</v>
+      <c r="A134" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>342</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -7279,11 +7767,11 @@
       <c r="Z134" s="8"/>
     </row>
     <row r="135">
-      <c r="A135" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>317</v>
+      <c r="A135" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>344</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -7311,11 +7799,11 @@
       <c r="Z135" s="8"/>
     </row>
     <row r="136">
-      <c r="A136" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>319</v>
+      <c r="A136" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -7343,11 +7831,11 @@
       <c r="Z136" s="8"/>
     </row>
     <row r="137">
-      <c r="A137" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>321</v>
+      <c r="A137" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>348</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -7375,11 +7863,11 @@
       <c r="Z137" s="8"/>
     </row>
     <row r="138">
-      <c r="A138" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>323</v>
+      <c r="A138" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -7407,11 +7895,11 @@
       <c r="Z138" s="8"/>
     </row>
     <row r="139">
-      <c r="A139" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>325</v>
+      <c r="A139" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>352</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -7439,11 +7927,11 @@
       <c r="Z139" s="8"/>
     </row>
     <row r="140">
-      <c r="A140" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>327</v>
+      <c r="A140" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>354</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -7471,11 +7959,11 @@
       <c r="Z140" s="8"/>
     </row>
     <row r="141">
-      <c r="A141" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>329</v>
+      <c r="A141" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>356</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -7503,11 +7991,11 @@
       <c r="Z141" s="8"/>
     </row>
     <row r="142">
-      <c r="A142" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>331</v>
+      <c r="A142" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>358</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -7535,11 +8023,11 @@
       <c r="Z142" s="8"/>
     </row>
     <row r="143">
-      <c r="A143" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>333</v>
+      <c r="A143" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>360</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -7567,11 +8055,11 @@
       <c r="Z143" s="8"/>
     </row>
     <row r="144">
-      <c r="A144" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>335</v>
+      <c r="A144" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>362</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -7599,11 +8087,11 @@
       <c r="Z144" s="8"/>
     </row>
     <row r="145">
-      <c r="A145" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>337</v>
+      <c r="A145" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>364</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -7631,11 +8119,11 @@
       <c r="Z145" s="8"/>
     </row>
     <row r="146">
-      <c r="A146" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>339</v>
+      <c r="A146" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>366</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -7663,11 +8151,11 @@
       <c r="Z146" s="8"/>
     </row>
     <row r="147">
-      <c r="A147" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>341</v>
+      <c r="A147" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>368</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -7695,11 +8183,11 @@
       <c r="Z147" s="8"/>
     </row>
     <row r="148">
-      <c r="A148" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>343</v>
+      <c r="A148" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>370</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -7727,11 +8215,11 @@
       <c r="Z148" s="8"/>
     </row>
     <row r="149">
-      <c r="A149" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>345</v>
+      <c r="A149" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>372</v>
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -7759,11 +8247,11 @@
       <c r="Z149" s="8"/>
     </row>
     <row r="150">
-      <c r="A150" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>347</v>
+      <c r="A150" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>374</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -7791,11 +8279,11 @@
       <c r="Z150" s="8"/>
     </row>
     <row r="151">
-      <c r="A151" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>349</v>
+      <c r="A151" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>376</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
@@ -7823,11 +8311,11 @@
       <c r="Z151" s="8"/>
     </row>
     <row r="152">
-      <c r="A152" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>351</v>
+      <c r="A152" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
@@ -7855,11 +8343,11 @@
       <c r="Z152" s="8"/>
     </row>
     <row r="153">
-      <c r="A153" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>353</v>
+      <c r="A153" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>380</v>
       </c>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
@@ -7887,15 +8375,13 @@
       <c r="Z153" s="8"/>
     </row>
     <row r="154">
-      <c r="A154" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>157</v>
-      </c>
+      <c r="A154" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
@@ -7921,15 +8407,13 @@
       <c r="Z154" s="8"/>
     </row>
     <row r="155">
-      <c r="A155" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>157</v>
-      </c>
+      <c r="A155" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
@@ -7955,11 +8439,11 @@
       <c r="Z155" s="8"/>
     </row>
     <row r="156">
-      <c r="A156" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>359</v>
+      <c r="A156" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>386</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -7987,11 +8471,11 @@
       <c r="Z156" s="8"/>
     </row>
     <row r="157">
-      <c r="A157" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>361</v>
+      <c r="A157" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>388</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -8019,15 +8503,13 @@
       <c r="Z157" s="8"/>
     </row>
     <row r="158">
-      <c r="A158" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B158" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="A158" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
@@ -8053,11 +8535,11 @@
       <c r="Z158" s="8"/>
     </row>
     <row r="159">
-      <c r="A159" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>364</v>
+      <c r="A159" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>392</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -8085,11 +8567,11 @@
       <c r="Z159" s="8"/>
     </row>
     <row r="160">
-      <c r="A160" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>366</v>
+      <c r="A160" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>394</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -8117,11 +8599,11 @@
       <c r="Z160" s="8"/>
     </row>
     <row r="161">
-      <c r="A161" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>368</v>
+      <c r="A161" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>396</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -8149,11 +8631,11 @@
       <c r="Z161" s="8"/>
     </row>
     <row r="162">
-      <c r="A162" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="B162" s="12" t="s">
-        <v>370</v>
+      <c r="A162" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>398</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -8181,11 +8663,11 @@
       <c r="Z162" s="8"/>
     </row>
     <row r="163">
-      <c r="A163" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B163" s="12" t="s">
-        <v>372</v>
+      <c r="A163" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>400</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
@@ -8213,11 +8695,11 @@
       <c r="Z163" s="8"/>
     </row>
     <row r="164">
-      <c r="A164" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="B164" s="12" t="s">
-        <v>374</v>
+      <c r="A164" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>402</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
@@ -8245,11 +8727,11 @@
       <c r="Z164" s="8"/>
     </row>
     <row r="165">
-      <c r="A165" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B165" s="12" t="s">
-        <v>376</v>
+      <c r="A165" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
@@ -8277,11 +8759,11 @@
       <c r="Z165" s="8"/>
     </row>
     <row r="166">
-      <c r="A166" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="B166" s="12" t="s">
-        <v>378</v>
+      <c r="A166" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>406</v>
       </c>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
@@ -8309,11 +8791,11 @@
       <c r="Z166" s="8"/>
     </row>
     <row r="167">
-      <c r="A167" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="B167" s="12" t="s">
-        <v>380</v>
+      <c r="A167" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>408</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -8341,11 +8823,11 @@
       <c r="Z167" s="8"/>
     </row>
     <row r="168">
-      <c r="A168" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="B168" s="12" t="s">
-        <v>382</v>
+      <c r="A168" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>410</v>
       </c>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
@@ -8373,14 +8855,14 @@
       <c r="Z168" s="8"/>
     </row>
     <row r="169">
-      <c r="A169" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>385</v>
+      <c r="A169" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
@@ -8407,13 +8889,15 @@
       <c r="Z169" s="8"/>
     </row>
     <row r="170">
-      <c r="A170" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="C170" s="8"/>
+      <c r="A170" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
@@ -8439,11 +8923,11 @@
       <c r="Z170" s="8"/>
     </row>
     <row r="171">
-      <c r="A171" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="B171" s="12" t="s">
-        <v>389</v>
+      <c r="A171" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>416</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
@@ -8471,11 +8955,11 @@
       <c r="Z171" s="8"/>
     </row>
     <row r="172">
-      <c r="A172" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="B172" s="12" t="s">
-        <v>391</v>
+      <c r="A172" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>418</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
@@ -8503,13 +8987,15 @@
       <c r="Z172" s="8"/>
     </row>
     <row r="173">
-      <c r="A173" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="C173" s="8"/>
+      <c r="A173" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
@@ -8535,11 +9021,11 @@
       <c r="Z173" s="8"/>
     </row>
     <row r="174">
-      <c r="A174" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>395</v>
+      <c r="A174" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>421</v>
       </c>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
@@ -8567,11 +9053,11 @@
       <c r="Z174" s="8"/>
     </row>
     <row r="175">
-      <c r="A175" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="B175" s="12" t="s">
-        <v>397</v>
+      <c r="A175" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>423</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
@@ -8599,11 +9085,11 @@
       <c r="Z175" s="8"/>
     </row>
     <row r="176">
-      <c r="A176" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="B176" s="12" t="s">
-        <v>399</v>
+      <c r="A176" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>425</v>
       </c>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
@@ -8631,11 +9117,11 @@
       <c r="Z176" s="8"/>
     </row>
     <row r="177">
-      <c r="A177" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="B177" s="12" t="s">
-        <v>401</v>
+      <c r="A177" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>427</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
@@ -8663,11 +9149,11 @@
       <c r="Z177" s="8"/>
     </row>
     <row r="178">
-      <c r="A178" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="B178" s="12" t="s">
-        <v>403</v>
+      <c r="A178" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>429</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
@@ -8695,11 +9181,11 @@
       <c r="Z178" s="8"/>
     </row>
     <row r="179">
-      <c r="A179" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>405</v>
+      <c r="A179" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
@@ -8727,11 +9213,11 @@
       <c r="Z179" s="8"/>
     </row>
     <row r="180">
-      <c r="A180" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="B180" s="12" t="s">
-        <v>407</v>
+      <c r="A180" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>433</v>
       </c>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
@@ -8759,11 +9245,11 @@
       <c r="Z180" s="8"/>
     </row>
     <row r="181">
-      <c r="A181" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="B181" s="12" t="s">
-        <v>409</v>
+      <c r="A181" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>435</v>
       </c>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
@@ -8791,13 +9277,15 @@
       <c r="Z181" s="8"/>
     </row>
     <row r="182">
-      <c r="A182" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="B182" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="C182" s="8"/>
+      <c r="A182" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>233</v>
+      </c>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
@@ -8823,13 +9311,13 @@
       <c r="Z182" s="8"/>
     </row>
     <row r="183">
-      <c r="A183" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C183" s="12"/>
+      <c r="A183" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
@@ -8855,15 +9343,13 @@
       <c r="Z183" s="8"/>
     </row>
     <row r="184">
-      <c r="A184" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="B184" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>383</v>
-      </c>
+      <c r="A184" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
@@ -8889,11 +9375,11 @@
       <c r="Z184" s="8"/>
     </row>
     <row r="185">
-      <c r="A185" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="B185" s="12" t="s">
-        <v>416</v>
+      <c r="A185" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>442</v>
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
@@ -8921,14 +9407,14 @@
       <c r="Z185" s="8"/>
     </row>
     <row r="186">
-      <c r="A186" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>419</v>
+      <c r="A186" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>445</v>
       </c>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
@@ -8955,11 +9441,11 @@
       <c r="Z186" s="8"/>
     </row>
     <row r="187">
-      <c r="A187" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="B187" s="12" t="s">
-        <v>421</v>
+      <c r="A187" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>447</v>
       </c>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
@@ -8987,11 +9473,11 @@
       <c r="Z187" s="8"/>
     </row>
     <row r="188">
-      <c r="A188" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="B188" s="12" t="s">
-        <v>423</v>
+      <c r="A188" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>449</v>
       </c>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
@@ -9019,11 +9505,11 @@
       <c r="Z188" s="8"/>
     </row>
     <row r="189">
-      <c r="A189" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>425</v>
+      <c r="A189" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>451</v>
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
@@ -9051,11 +9537,11 @@
       <c r="Z189" s="8"/>
     </row>
     <row r="190">
-      <c r="A190" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>427</v>
+      <c r="A190" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>453</v>
       </c>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
@@ -9083,11 +9569,11 @@
       <c r="Z190" s="8"/>
     </row>
     <row r="191">
-      <c r="A191" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="B191" s="12" t="s">
-        <v>429</v>
+      <c r="A191" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>455</v>
       </c>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
@@ -9115,11 +9601,11 @@
       <c r="Z191" s="8"/>
     </row>
     <row r="192">
-      <c r="A192" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="B192" s="12" t="s">
-        <v>431</v>
+      <c r="A192" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>457</v>
       </c>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
@@ -9147,11 +9633,11 @@
       <c r="Z192" s="8"/>
     </row>
     <row r="193">
-      <c r="A193" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="B193" s="12" t="s">
-        <v>433</v>
+      <c r="A193" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
@@ -9179,11 +9665,11 @@
       <c r="Z193" s="8"/>
     </row>
     <row r="194">
-      <c r="A194" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="B194" s="12" t="s">
-        <v>435</v>
+      <c r="A194" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>461</v>
       </c>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
@@ -9211,15 +9697,13 @@
       <c r="Z194" s="8"/>
     </row>
     <row r="195">
-      <c r="A195" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="B195" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>438</v>
-      </c>
+      <c r="A195" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="C195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
@@ -9245,15 +9729,13 @@
       <c r="Z195" s="8"/>
     </row>
     <row r="196">
-      <c r="A196" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="B196" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="C196" s="12" t="s">
-        <v>436</v>
-      </c>
+      <c r="A196" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C196" s="8"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
@@ -9279,11 +9761,11 @@
       <c r="Z196" s="8"/>
     </row>
     <row r="197">
-      <c r="A197" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="B197" s="12" t="s">
-        <v>441</v>
+      <c r="A197" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>467</v>
       </c>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
@@ -9311,11 +9793,11 @@
       <c r="Z197" s="8"/>
     </row>
     <row r="198">
-      <c r="A198" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="B198" s="12" t="s">
-        <v>443</v>
+      <c r="A198" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>469</v>
       </c>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
@@ -9343,15 +9825,13 @@
       <c r="Z198" s="8"/>
     </row>
     <row r="199">
-      <c r="A199" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B199" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="C199" s="12" t="s">
-        <v>215</v>
-      </c>
+      <c r="A199" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C199" s="8"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
@@ -9377,11 +9857,11 @@
       <c r="Z199" s="8"/>
     </row>
     <row r="200">
-      <c r="A200" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="B200" s="12" t="s">
-        <v>446</v>
+      <c r="A200" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>473</v>
       </c>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
@@ -9409,15 +9889,13 @@
       <c r="Z200" s="8"/>
     </row>
     <row r="201">
-      <c r="A201" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B201" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>279</v>
-      </c>
+      <c r="A201" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="C201" s="8"/>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
@@ -9443,11 +9921,11 @@
       <c r="Z201" s="8"/>
     </row>
     <row r="202">
-      <c r="A202" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="B202" s="12" t="s">
-        <v>449</v>
+      <c r="A202" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>477</v>
       </c>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
@@ -9475,13 +9953,13 @@
       <c r="Z202" s="8"/>
     </row>
     <row r="203">
-      <c r="A203" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="B203" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="C203" s="8"/>
+      <c r="A203" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C203" s="14"/>
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
@@ -9507,13 +9985,15 @@
       <c r="Z203" s="8"/>
     </row>
     <row r="204">
-      <c r="A204" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="B204" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="C204" s="8"/>
+      <c r="A204" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>443</v>
+      </c>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
@@ -9539,11 +10019,11 @@
       <c r="Z204" s="8"/>
     </row>
     <row r="205">
-      <c r="A205" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="B205" s="12" t="s">
-        <v>455</v>
+      <c r="A205" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>482</v>
       </c>
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
@@ -9571,11 +10051,11 @@
       <c r="Z205" s="8"/>
     </row>
     <row r="206">
-      <c r="A206" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="B206" s="12" t="s">
-        <v>457</v>
+      <c r="A206" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>484</v>
       </c>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
@@ -9603,11 +10083,11 @@
       <c r="Z206" s="8"/>
     </row>
     <row r="207">
-      <c r="A207" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="B207" s="12" t="s">
-        <v>459</v>
+      <c r="A207" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>486</v>
       </c>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
@@ -9635,13 +10115,15 @@
       <c r="Z207" s="8"/>
     </row>
     <row r="208">
-      <c r="A208" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="B208" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="C208" s="8"/>
+      <c r="A208" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C208" s="14" t="s">
+        <v>489</v>
+      </c>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
@@ -9667,11 +10149,11 @@
       <c r="Z208" s="8"/>
     </row>
     <row r="209">
-      <c r="A209" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B209" s="12" t="s">
-        <v>463</v>
+      <c r="A209" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>491</v>
       </c>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
@@ -9699,11 +10181,11 @@
       <c r="Z209" s="8"/>
     </row>
     <row r="210">
-      <c r="A210" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="B210" s="12" t="s">
-        <v>465</v>
+      <c r="A210" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>493</v>
       </c>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
@@ -9731,11 +10213,11 @@
       <c r="Z210" s="8"/>
     </row>
     <row r="211">
-      <c r="A211" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B211" s="12" t="s">
-        <v>467</v>
+      <c r="A211" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>495</v>
       </c>
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
@@ -9763,11 +10245,11 @@
       <c r="Z211" s="8"/>
     </row>
     <row r="212">
-      <c r="A212" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="B212" s="12" t="s">
-        <v>469</v>
+      <c r="A212" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B212" s="14" t="s">
+        <v>497</v>
       </c>
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
@@ -9795,11 +10277,11 @@
       <c r="Z212" s="8"/>
     </row>
     <row r="213">
-      <c r="A213" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="B213" s="12" t="s">
-        <v>471</v>
+      <c r="A213" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B213" s="14" t="s">
+        <v>499</v>
       </c>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
@@ -9827,11 +10309,11 @@
       <c r="Z213" s="8"/>
     </row>
     <row r="214">
-      <c r="A214" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="B214" s="12" t="s">
-        <v>473</v>
+      <c r="A214" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="B214" s="14" t="s">
+        <v>501</v>
       </c>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
@@ -9859,11 +10341,11 @@
       <c r="Z214" s="8"/>
     </row>
     <row r="215">
-      <c r="A215" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="B215" s="12" t="s">
-        <v>475</v>
+      <c r="A215" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="B215" s="14" t="s">
+        <v>503</v>
       </c>
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
@@ -9891,11 +10373,11 @@
       <c r="Z215" s="8"/>
     </row>
     <row r="216">
-      <c r="A216" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="B216" s="12" t="s">
-        <v>477</v>
+      <c r="A216" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B216" s="14" t="s">
+        <v>505</v>
       </c>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
@@ -9923,13 +10405,15 @@
       <c r="Z216" s="8"/>
     </row>
     <row r="217">
-      <c r="A217" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="B217" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="C217" s="8"/>
+      <c r="A217" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B217" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="C217" s="14" t="s">
+        <v>508</v>
+      </c>
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
@@ -9955,13 +10439,15 @@
       <c r="Z217" s="8"/>
     </row>
     <row r="218">
-      <c r="A218" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="B218" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="C218" s="8"/>
+      <c r="A218" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B218" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="C218" s="14" t="s">
+        <v>506</v>
+      </c>
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
@@ -9987,11 +10473,11 @@
       <c r="Z218" s="8"/>
     </row>
     <row r="219">
-      <c r="A219" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="B219" s="12" t="s">
-        <v>483</v>
+      <c r="A219" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="B219" s="14" t="s">
+        <v>511</v>
       </c>
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
@@ -10019,11 +10505,11 @@
       <c r="Z219" s="8"/>
     </row>
     <row r="220">
-      <c r="A220" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="B220" s="12" t="s">
-        <v>485</v>
+      <c r="A220" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="B220" s="14" t="s">
+        <v>513</v>
       </c>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
@@ -10051,13 +10537,15 @@
       <c r="Z220" s="8"/>
     </row>
     <row r="221">
-      <c r="A221" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="B221" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="C221" s="8"/>
+      <c r="A221" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B221" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>255</v>
+      </c>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
@@ -10083,11 +10571,11 @@
       <c r="Z221" s="8"/>
     </row>
     <row r="222">
-      <c r="A222" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="B222" s="12" t="s">
-        <v>489</v>
+      <c r="A222" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B222" s="14" t="s">
+        <v>516</v>
       </c>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
@@ -10115,13 +10603,15 @@
       <c r="Z222" s="8"/>
     </row>
     <row r="223">
-      <c r="A223" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="B223" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="C223" s="8"/>
+      <c r="A223" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B223" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>330</v>
+      </c>
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
@@ -10147,11 +10637,11 @@
       <c r="Z223" s="8"/>
     </row>
     <row r="224">
-      <c r="A224" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="B224" s="12" t="s">
-        <v>493</v>
+      <c r="A224" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B224" s="14" t="s">
+        <v>519</v>
       </c>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
@@ -10179,11 +10669,11 @@
       <c r="Z224" s="8"/>
     </row>
     <row r="225">
-      <c r="A225" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="B225" s="12" t="s">
-        <v>495</v>
+      <c r="A225" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="B225" s="14" t="s">
+        <v>521</v>
       </c>
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
@@ -10211,11 +10701,11 @@
       <c r="Z225" s="8"/>
     </row>
     <row r="226">
-      <c r="A226" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="B226" s="12" t="s">
-        <v>497</v>
+      <c r="A226" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="B226" s="14" t="s">
+        <v>523</v>
       </c>
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
@@ -10243,11 +10733,11 @@
       <c r="Z226" s="8"/>
     </row>
     <row r="227">
-      <c r="A227" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="B227" s="12" t="s">
-        <v>499</v>
+      <c r="A227" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B227" s="14" t="s">
+        <v>525</v>
       </c>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
@@ -10275,11 +10765,11 @@
       <c r="Z227" s="8"/>
     </row>
     <row r="228">
-      <c r="A228" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="B228" s="12" t="s">
-        <v>501</v>
+      <c r="A228" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>527</v>
       </c>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
@@ -10307,11 +10797,11 @@
       <c r="Z228" s="8"/>
     </row>
     <row r="229">
-      <c r="A229" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="B229" s="12" t="s">
-        <v>503</v>
+      <c r="A229" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="B229" s="14" t="s">
+        <v>529</v>
       </c>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
@@ -10339,11 +10829,11 @@
       <c r="Z229" s="8"/>
     </row>
     <row r="230">
-      <c r="A230" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="B230" s="12" t="s">
-        <v>505</v>
+      <c r="A230" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="B230" s="14" t="s">
+        <v>531</v>
       </c>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
@@ -10371,11 +10861,11 @@
       <c r="Z230" s="8"/>
     </row>
     <row r="231">
-      <c r="A231" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="B231" s="12" t="s">
-        <v>507</v>
+      <c r="A231" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="B231" s="14" t="s">
+        <v>533</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
@@ -10403,11 +10893,11 @@
       <c r="Z231" s="8"/>
     </row>
     <row r="232">
-      <c r="A232" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="B232" s="12" t="s">
-        <v>509</v>
+      <c r="A232" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="B232" s="14" t="s">
+        <v>535</v>
       </c>
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
@@ -10435,11 +10925,11 @@
       <c r="Z232" s="8"/>
     </row>
     <row r="233">
-      <c r="A233" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="B233" s="12" t="s">
-        <v>511</v>
+      <c r="A233" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>537</v>
       </c>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
@@ -10467,11 +10957,11 @@
       <c r="Z233" s="8"/>
     </row>
     <row r="234">
-      <c r="A234" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="B234" s="12" t="s">
-        <v>513</v>
+      <c r="A234" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="B234" s="14" t="s">
+        <v>539</v>
       </c>
       <c r="C234" s="8"/>
       <c r="D234" s="8"/>
@@ -10499,11 +10989,11 @@
       <c r="Z234" s="8"/>
     </row>
     <row r="235">
-      <c r="A235" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="B235" s="12" t="s">
-        <v>515</v>
+      <c r="A235" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>541</v>
       </c>
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
@@ -10531,11 +11021,11 @@
       <c r="Z235" s="8"/>
     </row>
     <row r="236">
-      <c r="A236" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="B236" s="12" t="s">
-        <v>517</v>
+      <c r="A236" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>543</v>
       </c>
       <c r="C236" s="8"/>
       <c r="D236" s="8"/>
@@ -10563,15 +11053,13 @@
       <c r="Z236" s="8"/>
     </row>
     <row r="237">
-      <c r="A237" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="B237" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="C237" s="12" t="s">
-        <v>520</v>
-      </c>
+      <c r="A237" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="C237" s="8"/>
       <c r="D237" s="8"/>
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
@@ -10597,11 +11085,11 @@
       <c r="Z237" s="8"/>
     </row>
     <row r="238">
-      <c r="A238" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="B238" s="12" t="s">
-        <v>522</v>
+      <c r="A238" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>547</v>
       </c>
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
@@ -10629,11 +11117,11 @@
       <c r="Z238" s="8"/>
     </row>
     <row r="239">
-      <c r="A239" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="B239" s="12" t="s">
-        <v>524</v>
+      <c r="A239" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B239" s="14" t="s">
+        <v>549</v>
       </c>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
@@ -10661,11 +11149,11 @@
       <c r="Z239" s="8"/>
     </row>
     <row r="240">
-      <c r="A240" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="B240" s="12" t="s">
-        <v>526</v>
+      <c r="A240" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>551</v>
       </c>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
@@ -10693,11 +11181,11 @@
       <c r="Z240" s="8"/>
     </row>
     <row r="241">
-      <c r="A241" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="B241" s="12" t="s">
-        <v>528</v>
+      <c r="A241" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="B241" s="14" t="s">
+        <v>553</v>
       </c>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
@@ -10725,11 +11213,11 @@
       <c r="Z241" s="8"/>
     </row>
     <row r="242">
-      <c r="A242" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="B242" s="12" t="s">
-        <v>530</v>
+      <c r="A242" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>555</v>
       </c>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
@@ -10757,11 +11245,11 @@
       <c r="Z242" s="8"/>
     </row>
     <row r="243">
-      <c r="A243" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="B243" s="12" t="s">
-        <v>532</v>
+      <c r="A243" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="B243" s="14" t="s">
+        <v>557</v>
       </c>
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
@@ -10789,11 +11277,11 @@
       <c r="Z243" s="8"/>
     </row>
     <row r="244">
-      <c r="A244" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="B244" s="12" t="s">
-        <v>534</v>
+      <c r="A244" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="B244" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
@@ -10821,11 +11309,11 @@
       <c r="Z244" s="8"/>
     </row>
     <row r="245">
-      <c r="A245" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="B245" s="12" t="s">
-        <v>536</v>
+      <c r="A245" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B245" s="14" t="s">
+        <v>561</v>
       </c>
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
@@ -10853,11 +11341,11 @@
       <c r="Z245" s="8"/>
     </row>
     <row r="246">
-      <c r="A246" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="B246" s="12" t="s">
-        <v>538</v>
+      <c r="A246" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B246" s="14" t="s">
+        <v>563</v>
       </c>
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
@@ -10885,11 +11373,11 @@
       <c r="Z246" s="8"/>
     </row>
     <row r="247">
-      <c r="A247" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="B247" s="12" t="s">
-        <v>540</v>
+      <c r="A247" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B247" s="14" t="s">
+        <v>565</v>
       </c>
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
@@ -10917,11 +11405,11 @@
       <c r="Z247" s="8"/>
     </row>
     <row r="248">
-      <c r="A248" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="B248" s="12" t="s">
-        <v>542</v>
+      <c r="A248" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="B248" s="14" t="s">
+        <v>567</v>
       </c>
       <c r="C248" s="8"/>
       <c r="D248" s="8"/>
@@ -10949,11 +11437,11 @@
       <c r="Z248" s="8"/>
     </row>
     <row r="249">
-      <c r="A249" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="B249" s="12" t="s">
-        <v>544</v>
+      <c r="A249" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="B249" s="14" t="s">
+        <v>569</v>
       </c>
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
@@ -10981,11 +11469,11 @@
       <c r="Z249" s="8"/>
     </row>
     <row r="250">
-      <c r="A250" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="B250" s="12" t="s">
-        <v>546</v>
+      <c r="A250" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="B250" s="14" t="s">
+        <v>571</v>
       </c>
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
@@ -11013,11 +11501,11 @@
       <c r="Z250" s="8"/>
     </row>
     <row r="251">
-      <c r="A251" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="B251" s="12" t="s">
-        <v>548</v>
+      <c r="A251" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B251" s="14" t="s">
+        <v>573</v>
       </c>
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
@@ -11045,11 +11533,11 @@
       <c r="Z251" s="8"/>
     </row>
     <row r="252">
-      <c r="A252" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="B252" s="12" t="s">
-        <v>550</v>
+      <c r="A252" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="B252" s="14" t="s">
+        <v>575</v>
       </c>
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
@@ -11077,11 +11565,11 @@
       <c r="Z252" s="8"/>
     </row>
     <row r="253">
-      <c r="A253" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="B253" s="12" t="s">
-        <v>552</v>
+      <c r="A253" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="B253" s="14" t="s">
+        <v>577</v>
       </c>
       <c r="C253" s="8"/>
       <c r="D253" s="8"/>
@@ -11109,11 +11597,11 @@
       <c r="Z253" s="8"/>
     </row>
     <row r="254">
-      <c r="A254" s="12" t="s">
-        <v>553</v>
-      </c>
-      <c r="B254" s="12" t="s">
-        <v>554</v>
+      <c r="A254" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B254" s="14" t="s">
+        <v>579</v>
       </c>
       <c r="C254" s="8"/>
       <c r="D254" s="8"/>
@@ -11141,11 +11629,11 @@
       <c r="Z254" s="8"/>
     </row>
     <row r="255">
-      <c r="A255" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="B255" s="12" t="s">
-        <v>556</v>
+      <c r="A255" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B255" s="14" t="s">
+        <v>581</v>
       </c>
       <c r="C255" s="8"/>
       <c r="D255" s="8"/>
@@ -11173,11 +11661,11 @@
       <c r="Z255" s="8"/>
     </row>
     <row r="256">
-      <c r="A256" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="B256" s="12" t="s">
-        <v>558</v>
+      <c r="A256" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B256" s="14" t="s">
+        <v>583</v>
       </c>
       <c r="C256" s="8"/>
       <c r="D256" s="8"/>
@@ -11205,11 +11693,11 @@
       <c r="Z256" s="8"/>
     </row>
     <row r="257">
-      <c r="A257" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="B257" s="12" t="s">
-        <v>560</v>
+      <c r="A257" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B257" s="14" t="s">
+        <v>585</v>
       </c>
       <c r="C257" s="8"/>
       <c r="D257" s="8"/>
@@ -11237,11 +11725,11 @@
       <c r="Z257" s="8"/>
     </row>
     <row r="258">
-      <c r="A258" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="B258" s="12" t="s">
-        <v>562</v>
+      <c r="A258" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="B258" s="14" t="s">
+        <v>587</v>
       </c>
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
@@ -11269,11 +11757,11 @@
       <c r="Z258" s="8"/>
     </row>
     <row r="259">
-      <c r="A259" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="B259" s="12" t="s">
-        <v>564</v>
+      <c r="A259" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="B259" s="14" t="s">
+        <v>589</v>
       </c>
       <c r="C259" s="8"/>
       <c r="D259" s="8"/>
@@ -11301,11 +11789,11 @@
       <c r="Z259" s="8"/>
     </row>
     <row r="260">
-      <c r="A260" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="B260" s="12" t="s">
-        <v>566</v>
+      <c r="A260" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B260" s="14" t="s">
+        <v>591</v>
       </c>
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
@@ -11333,11 +11821,11 @@
       <c r="Z260" s="8"/>
     </row>
     <row r="261">
-      <c r="A261" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="B261" s="12" t="s">
-        <v>568</v>
+      <c r="A261" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B261" s="14" t="s">
+        <v>593</v>
       </c>
       <c r="C261" s="8"/>
       <c r="D261" s="8"/>
@@ -11365,11 +11853,11 @@
       <c r="Z261" s="8"/>
     </row>
     <row r="262">
-      <c r="A262" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="B262" s="12" t="s">
-        <v>570</v>
+      <c r="A262" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="B262" s="14" t="s">
+        <v>595</v>
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
@@ -11397,14 +11885,14 @@
       <c r="Z262" s="8"/>
     </row>
     <row r="263">
-      <c r="A263" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B263" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="C263" s="12" t="s">
-        <v>572</v>
+      <c r="A263" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B263" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="C263" s="14" t="s">
+        <v>598</v>
       </c>
       <c r="D263" s="8"/>
       <c r="E263" s="8"/>
@@ -11431,11 +11919,11 @@
       <c r="Z263" s="8"/>
     </row>
     <row r="264">
-      <c r="A264" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>574</v>
+      <c r="A264" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="B264" s="14" t="s">
+        <v>600</v>
       </c>
       <c r="C264" s="8"/>
       <c r="D264" s="8"/>
@@ -11463,11 +11951,11 @@
       <c r="Z264" s="8"/>
     </row>
     <row r="265">
-      <c r="A265" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="B265" s="12" t="s">
-        <v>576</v>
+      <c r="A265" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B265" s="14" t="s">
+        <v>602</v>
       </c>
       <c r="C265" s="8"/>
       <c r="D265" s="8"/>
@@ -11495,11 +11983,11 @@
       <c r="Z265" s="8"/>
     </row>
     <row r="266">
-      <c r="A266" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="B266" s="12" t="s">
-        <v>578</v>
+      <c r="A266" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="B266" s="14" t="s">
+        <v>604</v>
       </c>
       <c r="C266" s="8"/>
       <c r="D266" s="8"/>
@@ -11527,11 +12015,11 @@
       <c r="Z266" s="8"/>
     </row>
     <row r="267">
-      <c r="A267" s="12" t="s">
-        <v>579</v>
-      </c>
-      <c r="B267" s="12" t="s">
-        <v>580</v>
+      <c r="A267" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>606</v>
       </c>
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
@@ -11559,11 +12047,11 @@
       <c r="Z267" s="8"/>
     </row>
     <row r="268">
-      <c r="A268" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="B268" s="12" t="s">
-        <v>582</v>
+      <c r="A268" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B268" s="14" t="s">
+        <v>608</v>
       </c>
       <c r="C268" s="8"/>
       <c r="D268" s="8"/>
@@ -11591,11 +12079,11 @@
       <c r="Z268" s="8"/>
     </row>
     <row r="269">
-      <c r="A269" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="B269" s="12" t="s">
-        <v>584</v>
+      <c r="A269" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="B269" s="14" t="s">
+        <v>610</v>
       </c>
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
@@ -11623,11 +12111,11 @@
       <c r="Z269" s="8"/>
     </row>
     <row r="270">
-      <c r="A270" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="B270" s="12" t="s">
-        <v>586</v>
+      <c r="A270" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="B270" s="14" t="s">
+        <v>612</v>
       </c>
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
@@ -11655,11 +12143,11 @@
       <c r="Z270" s="8"/>
     </row>
     <row r="271">
-      <c r="A271" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="B271" s="12" t="s">
-        <v>588</v>
+      <c r="A271" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="B271" s="14" t="s">
+        <v>614</v>
       </c>
       <c r="C271" s="8"/>
       <c r="D271" s="8"/>
@@ -11687,11 +12175,11 @@
       <c r="Z271" s="8"/>
     </row>
     <row r="272">
-      <c r="A272" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="B272" s="12" t="s">
-        <v>590</v>
+      <c r="A272" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="B272" s="14" t="s">
+        <v>616</v>
       </c>
       <c r="C272" s="8"/>
       <c r="D272" s="8"/>
@@ -11719,11 +12207,11 @@
       <c r="Z272" s="8"/>
     </row>
     <row r="273">
-      <c r="A273" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="B273" s="12" t="s">
-        <v>592</v>
+      <c r="A273" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="B273" s="14" t="s">
+        <v>618</v>
       </c>
       <c r="C273" s="8"/>
       <c r="D273" s="8"/>
@@ -11751,11 +12239,11 @@
       <c r="Z273" s="8"/>
     </row>
     <row r="274">
-      <c r="A274" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="B274" s="12" t="s">
-        <v>594</v>
+      <c r="A274" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B274" s="14" t="s">
+        <v>620</v>
       </c>
       <c r="C274" s="8"/>
       <c r="D274" s="8"/>
@@ -11783,11 +12271,11 @@
       <c r="Z274" s="8"/>
     </row>
     <row r="275">
-      <c r="A275" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="B275" s="12" t="s">
-        <v>596</v>
+      <c r="A275" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B275" s="14" t="s">
+        <v>622</v>
       </c>
       <c r="C275" s="8"/>
       <c r="D275" s="8"/>
@@ -11815,11 +12303,11 @@
       <c r="Z275" s="8"/>
     </row>
     <row r="276">
-      <c r="A276" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="B276" s="12" t="s">
-        <v>598</v>
+      <c r="A276" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B276" s="14" t="s">
+        <v>624</v>
       </c>
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
@@ -11847,15 +12335,13 @@
       <c r="Z276" s="8"/>
     </row>
     <row r="277">
-      <c r="A277" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="B277" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="C277" s="12" t="s">
-        <v>601</v>
-      </c>
+      <c r="A277" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B277" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="C277" s="8"/>
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
@@ -11881,11 +12367,11 @@
       <c r="Z277" s="8"/>
     </row>
     <row r="278">
-      <c r="A278" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="B278" s="12" t="s">
-        <v>603</v>
+      <c r="A278" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="B278" s="14" t="s">
+        <v>628</v>
       </c>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
@@ -11913,11 +12399,11 @@
       <c r="Z278" s="8"/>
     </row>
     <row r="279">
-      <c r="A279" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="B279" s="12" t="s">
-        <v>605</v>
+      <c r="A279" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="B279" s="14" t="s">
+        <v>630</v>
       </c>
       <c r="C279" s="8"/>
       <c r="D279" s="8"/>
@@ -11945,11 +12431,11 @@
       <c r="Z279" s="8"/>
     </row>
     <row r="280">
-      <c r="A280" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="B280" s="12" t="s">
-        <v>607</v>
+      <c r="A280" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="B280" s="14" t="s">
+        <v>632</v>
       </c>
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
@@ -11977,11 +12463,11 @@
       <c r="Z280" s="8"/>
     </row>
     <row r="281">
-      <c r="A281" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B281" s="12" t="s">
-        <v>608</v>
+      <c r="A281" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="B281" s="14" t="s">
+        <v>634</v>
       </c>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
@@ -12009,11 +12495,11 @@
       <c r="Z281" s="8"/>
     </row>
     <row r="282">
-      <c r="A282" s="12" t="s">
-        <v>609</v>
-      </c>
-      <c r="B282" s="12" t="s">
-        <v>610</v>
+      <c r="A282" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="B282" s="14" t="s">
+        <v>636</v>
       </c>
       <c r="C282" s="8"/>
       <c r="D282" s="8"/>
@@ -12041,11 +12527,11 @@
       <c r="Z282" s="8"/>
     </row>
     <row r="283">
-      <c r="A283" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="B283" s="12" t="s">
-        <v>612</v>
+      <c r="A283" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="B283" s="14" t="s">
+        <v>638</v>
       </c>
       <c r="C283" s="8"/>
       <c r="D283" s="8"/>
@@ -12073,11 +12559,11 @@
       <c r="Z283" s="8"/>
     </row>
     <row r="284">
-      <c r="A284" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="B284" s="12" t="s">
-        <v>614</v>
+      <c r="A284" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="B284" s="14" t="s">
+        <v>640</v>
       </c>
       <c r="C284" s="8"/>
       <c r="D284" s="8"/>
@@ -12105,11 +12591,11 @@
       <c r="Z284" s="8"/>
     </row>
     <row r="285">
-      <c r="A285" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="B285" s="12" t="s">
-        <v>616</v>
+      <c r="A285" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="B285" s="14" t="s">
+        <v>642</v>
       </c>
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
@@ -12137,11 +12623,11 @@
       <c r="Z285" s="8"/>
     </row>
     <row r="286">
-      <c r="A286" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="B286" s="12" t="s">
-        <v>618</v>
+      <c r="A286" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="B286" s="14" t="s">
+        <v>644</v>
       </c>
       <c r="C286" s="8"/>
       <c r="D286" s="8"/>
@@ -12169,11 +12655,11 @@
       <c r="Z286" s="8"/>
     </row>
     <row r="287">
-      <c r="A287" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="B287" s="12" t="s">
-        <v>620</v>
+      <c r="A287" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="B287" s="14" t="s">
+        <v>646</v>
       </c>
       <c r="C287" s="8"/>
       <c r="D287" s="8"/>
@@ -12201,11 +12687,11 @@
       <c r="Z287" s="8"/>
     </row>
     <row r="288">
-      <c r="A288" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="B288" s="12" t="s">
-        <v>622</v>
+      <c r="A288" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="B288" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="C288" s="8"/>
       <c r="D288" s="8"/>
@@ -12233,11 +12719,11 @@
       <c r="Z288" s="8"/>
     </row>
     <row r="289">
-      <c r="A289" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="B289" s="12" t="s">
-        <v>624</v>
+      <c r="A289" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="B289" s="14" t="s">
+        <v>650</v>
       </c>
       <c r="C289" s="8"/>
       <c r="D289" s="8"/>
@@ -12265,15 +12751,13 @@
       <c r="Z289" s="8"/>
     </row>
     <row r="290">
-      <c r="A290" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="B290" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="C290" s="12" t="s">
-        <v>599</v>
-      </c>
+      <c r="A290" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B290" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C290" s="8"/>
       <c r="D290" s="8"/>
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
@@ -12299,13 +12783,15 @@
       <c r="Z290" s="8"/>
     </row>
     <row r="291">
-      <c r="A291" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="B291" s="12" t="s">
-        <v>627</v>
-      </c>
-      <c r="C291" s="8"/>
+      <c r="A291" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="C291" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="D291" s="8"/>
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
@@ -12331,15 +12817,13 @@
       <c r="Z291" s="8"/>
     </row>
     <row r="292">
-      <c r="A292" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B292" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="C292" s="12" t="s">
-        <v>120</v>
-      </c>
+      <c r="A292" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="C292" s="8"/>
       <c r="D292" s="8"/>
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
@@ -12365,11 +12849,11 @@
       <c r="Z292" s="8"/>
     </row>
     <row r="293">
-      <c r="A293" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="B293" s="12" t="s">
-        <v>630</v>
+      <c r="A293" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="B293" s="14" t="s">
+        <v>658</v>
       </c>
       <c r="C293" s="8"/>
       <c r="D293" s="8"/>
@@ -12397,11 +12881,11 @@
       <c r="Z293" s="8"/>
     </row>
     <row r="294">
-      <c r="A294" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="B294" s="12" t="s">
-        <v>632</v>
+      <c r="A294" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="B294" s="14" t="s">
+        <v>660</v>
       </c>
       <c r="C294" s="8"/>
       <c r="D294" s="8"/>
@@ -12429,11 +12913,11 @@
       <c r="Z294" s="8"/>
     </row>
     <row r="295">
-      <c r="A295" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="B295" s="12" t="s">
-        <v>634</v>
+      <c r="A295" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B295" s="14" t="s">
+        <v>662</v>
       </c>
       <c r="C295" s="8"/>
       <c r="D295" s="8"/>
@@ -12461,11 +12945,11 @@
       <c r="Z295" s="8"/>
     </row>
     <row r="296">
-      <c r="A296" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="B296" s="12" t="s">
-        <v>636</v>
+      <c r="A296" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="B296" s="14" t="s">
+        <v>664</v>
       </c>
       <c r="C296" s="8"/>
       <c r="D296" s="8"/>
@@ -12493,11 +12977,11 @@
       <c r="Z296" s="8"/>
     </row>
     <row r="297">
-      <c r="A297" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="B297" s="12" t="s">
-        <v>638</v>
+      <c r="A297" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="B297" s="14" t="s">
+        <v>666</v>
       </c>
       <c r="C297" s="8"/>
       <c r="D297" s="8"/>
@@ -12525,11 +13009,11 @@
       <c r="Z297" s="8"/>
     </row>
     <row r="298">
-      <c r="A298" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="B298" s="12" t="s">
-        <v>640</v>
+      <c r="A298" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="B298" s="14" t="s">
+        <v>668</v>
       </c>
       <c r="C298" s="8"/>
       <c r="D298" s="8"/>
@@ -12557,15 +13041,13 @@
       <c r="Z298" s="8"/>
     </row>
     <row r="299">
-      <c r="A299" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="B299" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="C299" s="12" t="s">
-        <v>643</v>
-      </c>
+      <c r="A299" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="B299" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="C299" s="8"/>
       <c r="D299" s="8"/>
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
@@ -12591,13 +13073,15 @@
       <c r="Z299" s="8"/>
     </row>
     <row r="300">
-      <c r="A300" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="B300" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="C300" s="8"/>
+      <c r="A300" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B300" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="C300" s="14" t="s">
+        <v>266</v>
+      </c>
       <c r="D300" s="8"/>
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
@@ -12623,11 +13107,11 @@
       <c r="Z300" s="8"/>
     </row>
     <row r="301">
-      <c r="A301" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="B301" s="12" t="s">
-        <v>647</v>
+      <c r="A301" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="B301" s="14" t="s">
+        <v>673</v>
       </c>
       <c r="C301" s="8"/>
       <c r="D301" s="8"/>
@@ -12655,11 +13139,11 @@
       <c r="Z301" s="8"/>
     </row>
     <row r="302">
-      <c r="A302" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="B302" s="12" t="s">
-        <v>649</v>
+      <c r="A302" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B302" s="14" t="s">
+        <v>675</v>
       </c>
       <c r="C302" s="8"/>
       <c r="D302" s="8"/>
@@ -12687,11 +13171,11 @@
       <c r="Z302" s="8"/>
     </row>
     <row r="303">
-      <c r="A303" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="B303" s="12" t="s">
-        <v>651</v>
+      <c r="A303" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="B303" s="14" t="s">
+        <v>677</v>
       </c>
       <c r="C303" s="8"/>
       <c r="D303" s="8"/>
@@ -12719,11 +13203,11 @@
       <c r="Z303" s="8"/>
     </row>
     <row r="304">
-      <c r="A304" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="B304" s="12" t="s">
-        <v>653</v>
+      <c r="A304" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B304" s="14" t="s">
+        <v>679</v>
       </c>
       <c r="C304" s="8"/>
       <c r="D304" s="8"/>
@@ -12751,11 +13235,11 @@
       <c r="Z304" s="8"/>
     </row>
     <row r="305">
-      <c r="A305" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="B305" s="12" t="s">
-        <v>655</v>
+      <c r="A305" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="B305" s="14" t="s">
+        <v>681</v>
       </c>
       <c r="C305" s="8"/>
       <c r="D305" s="8"/>
@@ -12783,15 +13267,13 @@
       <c r="Z305" s="8"/>
     </row>
     <row r="306">
-      <c r="A306" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="B306" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="C306" s="12" t="s">
-        <v>641</v>
-      </c>
+      <c r="A306" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="B306" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="C306" s="8"/>
       <c r="D306" s="8"/>
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
@@ -12817,11 +13299,11 @@
       <c r="Z306" s="8"/>
     </row>
     <row r="307">
-      <c r="A307" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="B307" s="12" t="s">
-        <v>658</v>
+      <c r="A307" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="B307" s="14" t="s">
+        <v>685</v>
       </c>
       <c r="C307" s="8"/>
       <c r="D307" s="8"/>
@@ -12849,11 +13331,11 @@
       <c r="Z307" s="8"/>
     </row>
     <row r="308">
-      <c r="A308" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="B308" s="12" t="s">
-        <v>660</v>
+      <c r="A308" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="B308" s="14" t="s">
+        <v>687</v>
       </c>
       <c r="C308" s="8"/>
       <c r="D308" s="8"/>
@@ -12881,13 +13363,15 @@
       <c r="Z308" s="8"/>
     </row>
     <row r="309">
-      <c r="A309" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="B309" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="C309" s="8"/>
+      <c r="A309" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="B309" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="C309" s="14" t="s">
+        <v>690</v>
+      </c>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
@@ -12913,11 +13397,11 @@
       <c r="Z309" s="8"/>
     </row>
     <row r="310">
-      <c r="A310" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="B310" s="12" t="s">
-        <v>664</v>
+      <c r="A310" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="B310" s="14" t="s">
+        <v>692</v>
       </c>
       <c r="C310" s="8"/>
       <c r="D310" s="8"/>
@@ -12945,11 +13429,11 @@
       <c r="Z310" s="8"/>
     </row>
     <row r="311">
-      <c r="A311" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="B311" s="12" t="s">
-        <v>666</v>
+      <c r="A311" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="B311" s="14" t="s">
+        <v>694</v>
       </c>
       <c r="C311" s="8"/>
       <c r="D311" s="8"/>
@@ -12977,11 +13461,11 @@
       <c r="Z311" s="8"/>
     </row>
     <row r="312">
-      <c r="A312" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="B312" s="12" t="s">
-        <v>668</v>
+      <c r="A312" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="B312" s="14" t="s">
+        <v>696</v>
       </c>
       <c r="C312" s="8"/>
       <c r="D312" s="8"/>
@@ -13009,11 +13493,11 @@
       <c r="Z312" s="8"/>
     </row>
     <row r="313">
-      <c r="A313" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="B313" s="12" t="s">
-        <v>670</v>
+      <c r="A313" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="B313" s="14" t="s">
+        <v>698</v>
       </c>
       <c r="C313" s="8"/>
       <c r="D313" s="8"/>
@@ -13041,11 +13525,11 @@
       <c r="Z313" s="8"/>
     </row>
     <row r="314">
-      <c r="A314" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="B314" s="12" t="s">
-        <v>672</v>
+      <c r="A314" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B314" s="14" t="s">
+        <v>700</v>
       </c>
       <c r="C314" s="8"/>
       <c r="D314" s="8"/>
@@ -13073,11 +13557,11 @@
       <c r="Z314" s="8"/>
     </row>
     <row r="315">
-      <c r="A315" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="B315" s="12" t="s">
-        <v>674</v>
+      <c r="A315" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="B315" s="14" t="s">
+        <v>702</v>
       </c>
       <c r="C315" s="8"/>
       <c r="D315" s="8"/>
@@ -13105,11 +13589,11 @@
       <c r="Z315" s="8"/>
     </row>
     <row r="316">
-      <c r="A316" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="B316" s="12" t="s">
-        <v>676</v>
+      <c r="A316" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B316" s="14" t="s">
+        <v>704</v>
       </c>
       <c r="C316" s="8"/>
       <c r="D316" s="8"/>
@@ -13137,11 +13621,11 @@
       <c r="Z316" s="8"/>
     </row>
     <row r="317">
-      <c r="A317" s="12" t="s">
-        <v>677</v>
-      </c>
-      <c r="B317" s="12" t="s">
-        <v>678</v>
+      <c r="A317" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B317" s="14" t="s">
+        <v>706</v>
       </c>
       <c r="C317" s="8"/>
       <c r="D317" s="8"/>
@@ -13169,11 +13653,11 @@
       <c r="Z317" s="8"/>
     </row>
     <row r="318">
-      <c r="A318" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="B318" s="12" t="s">
-        <v>680</v>
+      <c r="A318" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="B318" s="14" t="s">
+        <v>708</v>
       </c>
       <c r="C318" s="8"/>
       <c r="D318" s="8"/>
@@ -13201,11 +13685,11 @@
       <c r="Z318" s="8"/>
     </row>
     <row r="319">
-      <c r="A319" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="B319" s="12" t="s">
-        <v>682</v>
+      <c r="A319" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B319" s="14" t="s">
+        <v>710</v>
       </c>
       <c r="C319" s="8"/>
       <c r="D319" s="8"/>
@@ -13233,11 +13717,11 @@
       <c r="Z319" s="8"/>
     </row>
     <row r="320">
-      <c r="A320" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="B320" s="12" t="s">
-        <v>684</v>
+      <c r="A320" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="B320" s="14" t="s">
+        <v>712</v>
       </c>
       <c r="C320" s="8"/>
       <c r="D320" s="8"/>
@@ -13265,11 +13749,11 @@
       <c r="Z320" s="8"/>
     </row>
     <row r="321">
-      <c r="A321" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="B321" s="12" t="s">
-        <v>686</v>
+      <c r="A321" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B321" s="14" t="s">
+        <v>714</v>
       </c>
       <c r="C321" s="8"/>
       <c r="D321" s="8"/>
@@ -13297,13 +13781,15 @@
       <c r="Z321" s="8"/>
     </row>
     <row r="322">
-      <c r="A322" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="B322" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="C322" s="8"/>
+      <c r="A322" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="B322" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="C322" s="14" t="s">
+        <v>717</v>
+      </c>
       <c r="D322" s="8"/>
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
@@ -13329,11 +13815,11 @@
       <c r="Z322" s="8"/>
     </row>
     <row r="323">
-      <c r="A323" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="B323" s="12" t="s">
-        <v>690</v>
+      <c r="A323" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="B323" s="14" t="s">
+        <v>719</v>
       </c>
       <c r="C323" s="8"/>
       <c r="D323" s="8"/>
@@ -13361,13 +13847,15 @@
       <c r="Z323" s="8"/>
     </row>
     <row r="324">
-      <c r="A324" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="B324" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="C324" s="8"/>
+      <c r="A324" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B324" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C324" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
@@ -13393,11 +13881,11 @@
       <c r="Z324" s="8"/>
     </row>
     <row r="325">
-      <c r="A325" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="B325" s="12" t="s">
-        <v>694</v>
+      <c r="A325" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="B325" s="14" t="s">
+        <v>722</v>
       </c>
       <c r="C325" s="8"/>
       <c r="D325" s="8"/>
@@ -13425,11 +13913,11 @@
       <c r="Z325" s="8"/>
     </row>
     <row r="326">
-      <c r="A326" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="B326" s="12" t="s">
-        <v>696</v>
+      <c r="A326" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="B326" s="14" t="s">
+        <v>724</v>
       </c>
       <c r="C326" s="8"/>
       <c r="D326" s="8"/>
@@ -13457,11 +13945,11 @@
       <c r="Z326" s="8"/>
     </row>
     <row r="327">
-      <c r="A327" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="B327" s="11" t="s">
-        <v>698</v>
+      <c r="A327" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="B327" s="14" t="s">
+        <v>726</v>
       </c>
       <c r="C327" s="8"/>
       <c r="D327" s="8"/>
@@ -13489,11 +13977,11 @@
       <c r="Z327" s="8"/>
     </row>
     <row r="328">
-      <c r="A328" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="B328" s="12" t="s">
-        <v>700</v>
+      <c r="A328" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="B328" s="14" t="s">
+        <v>728</v>
       </c>
       <c r="C328" s="8"/>
       <c r="D328" s="8"/>
@@ -13521,11 +14009,11 @@
       <c r="Z328" s="8"/>
     </row>
     <row r="329">
-      <c r="A329" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="B329" s="12" t="s">
-        <v>702</v>
+      <c r="A329" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="B329" s="14" t="s">
+        <v>730</v>
       </c>
       <c r="C329" s="8"/>
       <c r="D329" s="8"/>
@@ -13553,11 +14041,11 @@
       <c r="Z329" s="8"/>
     </row>
     <row r="330">
-      <c r="A330" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="B330" s="12" t="s">
-        <v>704</v>
+      <c r="A330" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="B330" s="14" t="s">
+        <v>732</v>
       </c>
       <c r="C330" s="8"/>
       <c r="D330" s="8"/>
@@ -13585,15 +14073,13 @@
       <c r="Z330" s="8"/>
     </row>
     <row r="331">
-      <c r="A331" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="B331" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="C331" s="12" t="s">
-        <v>707</v>
-      </c>
+      <c r="A331" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="B331" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="C331" s="8"/>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
@@ -13619,11 +14105,11 @@
       <c r="Z331" s="8"/>
     </row>
     <row r="332">
-      <c r="A332" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="B332" s="12" t="s">
-        <v>709</v>
+      <c r="A332" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B332" s="14" t="s">
+        <v>736</v>
       </c>
       <c r="C332" s="8"/>
       <c r="D332" s="8"/>
@@ -13651,14 +14137,14 @@
       <c r="Z332" s="8"/>
     </row>
     <row r="333">
-      <c r="A333" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="B333" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="C333" s="12" t="s">
-        <v>705</v>
+      <c r="A333" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="B333" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="C333" s="14" t="s">
+        <v>739</v>
       </c>
       <c r="D333" s="8"/>
       <c r="E333" s="8"/>
@@ -13685,11 +14171,11 @@
       <c r="Z333" s="8"/>
     </row>
     <row r="334">
-      <c r="A334" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="B334" s="12" t="s">
-        <v>712</v>
+      <c r="A334" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="B334" s="14" t="s">
+        <v>741</v>
       </c>
       <c r="C334" s="8"/>
       <c r="D334" s="8"/>
@@ -13717,11 +14203,11 @@
       <c r="Z334" s="8"/>
     </row>
     <row r="335">
-      <c r="A335" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="B335" s="12" t="s">
-        <v>714</v>
+      <c r="A335" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="B335" s="14" t="s">
+        <v>743</v>
       </c>
       <c r="C335" s="8"/>
       <c r="D335" s="8"/>
@@ -13749,11 +14235,11 @@
       <c r="Z335" s="8"/>
     </row>
     <row r="336">
-      <c r="A336" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="B336" s="12" t="s">
-        <v>716</v>
+      <c r="A336" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="B336" s="14" t="s">
+        <v>745</v>
       </c>
       <c r="C336" s="8"/>
       <c r="D336" s="8"/>
@@ -13781,11 +14267,11 @@
       <c r="Z336" s="8"/>
     </row>
     <row r="337">
-      <c r="A337" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="B337" s="9" t="s">
-        <v>718</v>
+      <c r="A337" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="B337" s="14" t="s">
+        <v>747</v>
       </c>
       <c r="C337" s="8"/>
       <c r="D337" s="8"/>
@@ -13813,11 +14299,11 @@
       <c r="Z337" s="8"/>
     </row>
     <row r="338">
-      <c r="A338" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="B338" s="12" t="s">
-        <v>720</v>
+      <c r="A338" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="B338" s="14" t="s">
+        <v>749</v>
       </c>
       <c r="C338" s="8"/>
       <c r="D338" s="8"/>
@@ -13845,11 +14331,11 @@
       <c r="Z338" s="8"/>
     </row>
     <row r="339">
-      <c r="A339" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="B339" s="12" t="s">
-        <v>722</v>
+      <c r="A339" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="B339" s="14" t="s">
+        <v>751</v>
       </c>
       <c r="C339" s="8"/>
       <c r="D339" s="8"/>
@@ -13877,13 +14363,15 @@
       <c r="Z339" s="8"/>
     </row>
     <row r="340">
-      <c r="A340" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="B340" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="C340" s="8"/>
+      <c r="A340" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="B340" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="C340" s="14" t="s">
+        <v>737</v>
+      </c>
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
@@ -13909,11 +14397,11 @@
       <c r="Z340" s="8"/>
     </row>
     <row r="341">
-      <c r="A341" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="B341" s="12" t="s">
-        <v>726</v>
+      <c r="A341" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="B341" s="14" t="s">
+        <v>754</v>
       </c>
       <c r="C341" s="8"/>
       <c r="D341" s="8"/>
@@ -13941,11 +14429,11 @@
       <c r="Z341" s="8"/>
     </row>
     <row r="342">
-      <c r="A342" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="B342" s="12" t="s">
-        <v>728</v>
+      <c r="A342" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="B342" s="14" t="s">
+        <v>756</v>
       </c>
       <c r="C342" s="8"/>
       <c r="D342" s="8"/>
@@ -13973,11 +14461,11 @@
       <c r="Z342" s="8"/>
     </row>
     <row r="343">
-      <c r="A343" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="B343" s="12" t="s">
-        <v>730</v>
+      <c r="A343" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="B343" s="14" t="s">
+        <v>758</v>
       </c>
       <c r="C343" s="8"/>
       <c r="D343" s="8"/>
@@ -14005,11 +14493,11 @@
       <c r="Z343" s="8"/>
     </row>
     <row r="344">
-      <c r="A344" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="B344" s="12" t="s">
-        <v>732</v>
+      <c r="A344" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="B344" s="14" t="s">
+        <v>760</v>
       </c>
       <c r="C344" s="8"/>
       <c r="D344" s="8"/>
@@ -14037,11 +14525,11 @@
       <c r="Z344" s="8"/>
     </row>
     <row r="345">
-      <c r="A345" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="B345" s="12" t="s">
-        <v>734</v>
+      <c r="A345" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="B345" s="14" t="s">
+        <v>762</v>
       </c>
       <c r="C345" s="8"/>
       <c r="D345" s="8"/>
@@ -14069,15 +14557,13 @@
       <c r="Z345" s="8"/>
     </row>
     <row r="346">
-      <c r="A346" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B346" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="C346" s="12" t="s">
-        <v>196</v>
-      </c>
+      <c r="A346" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="B346" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="C346" s="8"/>
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
@@ -14103,11 +14589,11 @@
       <c r="Z346" s="8"/>
     </row>
     <row r="347">
-      <c r="A347" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="B347" s="12" t="s">
-        <v>737</v>
+      <c r="A347" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="B347" s="14" t="s">
+        <v>766</v>
       </c>
       <c r="C347" s="8"/>
       <c r="D347" s="8"/>
@@ -14135,11 +14621,11 @@
       <c r="Z347" s="8"/>
     </row>
     <row r="348">
-      <c r="A348" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="B348" s="12" t="s">
-        <v>739</v>
+      <c r="A348" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="B348" s="14" t="s">
+        <v>768</v>
       </c>
       <c r="C348" s="8"/>
       <c r="D348" s="8"/>
@@ -14167,11 +14653,11 @@
       <c r="Z348" s="8"/>
     </row>
     <row r="349">
-      <c r="A349" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="B349" s="12" t="s">
-        <v>741</v>
+      <c r="A349" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="B349" s="14" t="s">
+        <v>770</v>
       </c>
       <c r="C349" s="8"/>
       <c r="D349" s="8"/>
@@ -14199,11 +14685,11 @@
       <c r="Z349" s="8"/>
     </row>
     <row r="350">
-      <c r="A350" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="B350" s="9" t="s">
-        <v>743</v>
+      <c r="A350" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="B350" s="14" t="s">
+        <v>772</v>
       </c>
       <c r="C350" s="8"/>
       <c r="D350" s="8"/>
@@ -14231,15 +14717,13 @@
       <c r="Z350" s="8"/>
     </row>
     <row r="351">
-      <c r="A351" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B351" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="C351" s="12" t="s">
-        <v>266</v>
-      </c>
+      <c r="A351" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B351" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="C351" s="8"/>
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
@@ -14265,11 +14749,11 @@
       <c r="Z351" s="8"/>
     </row>
     <row r="352">
-      <c r="A352" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="B352" s="12" t="s">
-        <v>746</v>
+      <c r="A352" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B352" s="14" t="s">
+        <v>776</v>
       </c>
       <c r="C352" s="8"/>
       <c r="D352" s="8"/>
@@ -14297,11 +14781,11 @@
       <c r="Z352" s="8"/>
     </row>
     <row r="353">
-      <c r="A353" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="B353" s="12" t="s">
-        <v>748</v>
+      <c r="A353" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="B353" s="14" t="s">
+        <v>778</v>
       </c>
       <c r="C353" s="8"/>
       <c r="D353" s="8"/>
@@ -14329,11 +14813,11 @@
       <c r="Z353" s="8"/>
     </row>
     <row r="354">
-      <c r="A354" s="12" t="s">
-        <v>749</v>
-      </c>
-      <c r="B354" s="12" t="s">
-        <v>750</v>
+      <c r="A354" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="B354" s="14" t="s">
+        <v>780</v>
       </c>
       <c r="C354" s="8"/>
       <c r="D354" s="8"/>
@@ -14361,11 +14845,11 @@
       <c r="Z354" s="8"/>
     </row>
     <row r="355">
-      <c r="A355" s="12" t="s">
-        <v>751</v>
-      </c>
-      <c r="B355" s="12" t="s">
-        <v>752</v>
+      <c r="A355" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="B355" s="14" t="s">
+        <v>782</v>
       </c>
       <c r="C355" s="8"/>
       <c r="D355" s="8"/>
@@ -14393,11 +14877,11 @@
       <c r="Z355" s="8"/>
     </row>
     <row r="356">
-      <c r="A356" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="B356" s="12" t="s">
-        <v>754</v>
+      <c r="A356" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="B356" s="14" t="s">
+        <v>784</v>
       </c>
       <c r="C356" s="8"/>
       <c r="D356" s="8"/>
@@ -14425,11 +14909,11 @@
       <c r="Z356" s="8"/>
     </row>
     <row r="357">
-      <c r="A357" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="B357" s="12" t="s">
-        <v>756</v>
+      <c r="A357" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B357" s="14" t="s">
+        <v>786</v>
       </c>
       <c r="C357" s="8"/>
       <c r="D357" s="8"/>
@@ -14457,11 +14941,11 @@
       <c r="Z357" s="8"/>
     </row>
     <row r="358">
-      <c r="A358" s="12" t="s">
-        <v>757</v>
-      </c>
-      <c r="B358" s="12" t="s">
-        <v>758</v>
+      <c r="A358" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="B358" s="14" t="s">
+        <v>788</v>
       </c>
       <c r="C358" s="8"/>
       <c r="D358" s="8"/>
@@ -14489,11 +14973,11 @@
       <c r="Z358" s="8"/>
     </row>
     <row r="359">
-      <c r="A359" s="12" t="s">
-        <v>759</v>
-      </c>
-      <c r="B359" s="12" t="s">
-        <v>760</v>
+      <c r="A359" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="B359" s="14" t="s">
+        <v>790</v>
       </c>
       <c r="C359" s="8"/>
       <c r="D359" s="8"/>
@@ -14521,11 +15005,11 @@
       <c r="Z359" s="8"/>
     </row>
     <row r="360">
-      <c r="A360" s="12" t="s">
-        <v>761</v>
-      </c>
-      <c r="B360" s="12" t="s">
-        <v>762</v>
+      <c r="A360" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="B360" s="14" t="s">
+        <v>792</v>
       </c>
       <c r="C360" s="8"/>
       <c r="D360" s="8"/>
@@ -14553,11 +15037,11 @@
       <c r="Z360" s="8"/>
     </row>
     <row r="361">
-      <c r="A361" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="B361" s="12" t="s">
-        <v>764</v>
+      <c r="A361" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="B361" s="14" t="s">
+        <v>794</v>
       </c>
       <c r="C361" s="8"/>
       <c r="D361" s="8"/>
@@ -14585,11 +15069,11 @@
       <c r="Z361" s="8"/>
     </row>
     <row r="362">
-      <c r="A362" s="12" t="s">
-        <v>765</v>
-      </c>
-      <c r="B362" s="12" t="s">
-        <v>766</v>
+      <c r="A362" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="B362" s="13" t="s">
+        <v>796</v>
       </c>
       <c r="C362" s="8"/>
       <c r="D362" s="8"/>
@@ -14617,11 +15101,11 @@
       <c r="Z362" s="8"/>
     </row>
     <row r="363">
-      <c r="A363" s="12" t="s">
-        <v>767</v>
-      </c>
-      <c r="B363" s="12" t="s">
-        <v>768</v>
+      <c r="A363" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="B363" s="14" t="s">
+        <v>798</v>
       </c>
       <c r="C363" s="8"/>
       <c r="D363" s="8"/>
@@ -14649,11 +15133,11 @@
       <c r="Z363" s="8"/>
     </row>
     <row r="364">
-      <c r="A364" s="12" t="s">
-        <v>769</v>
-      </c>
-      <c r="B364" s="12" t="s">
-        <v>770</v>
+      <c r="A364" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="B364" s="14" t="s">
+        <v>800</v>
       </c>
       <c r="C364" s="8"/>
       <c r="D364" s="8"/>
@@ -14681,11 +15165,11 @@
       <c r="Z364" s="8"/>
     </row>
     <row r="365">
-      <c r="A365" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="B365" s="12" t="s">
-        <v>772</v>
+      <c r="A365" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="B365" s="14" t="s">
+        <v>802</v>
       </c>
       <c r="C365" s="8"/>
       <c r="D365" s="8"/>
@@ -14713,13 +15197,15 @@
       <c r="Z365" s="8"/>
     </row>
     <row r="366">
-      <c r="A366" s="12" t="s">
-        <v>773</v>
-      </c>
-      <c r="B366" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="C366" s="8"/>
+      <c r="A366" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="B366" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C366" s="14" t="s">
+        <v>805</v>
+      </c>
       <c r="D366" s="8"/>
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
@@ -14745,15 +15231,13 @@
       <c r="Z366" s="8"/>
     </row>
     <row r="367">
-      <c r="A367" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="B367" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="C367" s="12" t="s">
-        <v>518</v>
-      </c>
+      <c r="A367" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="B367" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C367" s="8"/>
       <c r="D367" s="8"/>
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
@@ -14779,11 +15263,11 @@
       <c r="Z367" s="8"/>
     </row>
     <row r="368">
-      <c r="A368" s="12" t="s">
-        <v>776</v>
-      </c>
-      <c r="B368" s="12" t="s">
-        <v>777</v>
+      <c r="A368" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="B368" s="14" t="s">
+        <v>809</v>
       </c>
       <c r="C368" s="8"/>
       <c r="D368" s="8"/>
@@ -14811,13 +15295,15 @@
       <c r="Z368" s="8"/>
     </row>
     <row r="369">
-      <c r="A369" s="12" t="s">
-        <v>778</v>
-      </c>
-      <c r="B369" s="12" t="s">
-        <v>779</v>
-      </c>
-      <c r="C369" s="8"/>
+      <c r="A369" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="B369" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="C369" s="14" t="s">
+        <v>803</v>
+      </c>
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
@@ -14843,11 +15329,11 @@
       <c r="Z369" s="8"/>
     </row>
     <row r="370">
-      <c r="A370" s="12" t="s">
-        <v>780</v>
-      </c>
-      <c r="B370" s="12" t="s">
-        <v>781</v>
+      <c r="A370" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="B370" s="14" t="s">
+        <v>812</v>
       </c>
       <c r="C370" s="8"/>
       <c r="D370" s="8"/>
@@ -14875,11 +15361,11 @@
       <c r="Z370" s="8"/>
     </row>
     <row r="371">
-      <c r="A371" s="12" t="s">
-        <v>782</v>
-      </c>
-      <c r="B371" s="12" t="s">
-        <v>783</v>
+      <c r="A371" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="B371" s="14" t="s">
+        <v>814</v>
       </c>
       <c r="C371" s="8"/>
       <c r="D371" s="8"/>
@@ -14907,11 +15393,11 @@
       <c r="Z371" s="8"/>
     </row>
     <row r="372">
-      <c r="A372" s="12" t="s">
-        <v>784</v>
-      </c>
-      <c r="B372" s="12" t="s">
-        <v>785</v>
+      <c r="A372" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="B372" s="14" t="s">
+        <v>816</v>
       </c>
       <c r="C372" s="8"/>
       <c r="D372" s="8"/>
@@ -14939,11 +15425,11 @@
       <c r="Z372" s="8"/>
     </row>
     <row r="373">
-      <c r="A373" s="12" t="s">
-        <v>786</v>
-      </c>
-      <c r="B373" s="12" t="s">
-        <v>787</v>
+      <c r="A373" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="B373" s="11" t="s">
+        <v>818</v>
       </c>
       <c r="C373" s="8"/>
       <c r="D373" s="8"/>
@@ -14971,11 +15457,11 @@
       <c r="Z373" s="8"/>
     </row>
     <row r="374">
-      <c r="A374" s="12" t="s">
-        <v>788</v>
-      </c>
-      <c r="B374" s="12" t="s">
-        <v>789</v>
+      <c r="A374" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="B374" s="14" t="s">
+        <v>820</v>
       </c>
       <c r="C374" s="8"/>
       <c r="D374" s="8"/>
@@ -15003,11 +15489,11 @@
       <c r="Z374" s="8"/>
     </row>
     <row r="375">
-      <c r="A375" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="B375" s="12" t="s">
-        <v>791</v>
+      <c r="A375" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="B375" s="14" t="s">
+        <v>822</v>
       </c>
       <c r="C375" s="8"/>
       <c r="D375" s="8"/>
@@ -15035,11 +15521,11 @@
       <c r="Z375" s="8"/>
     </row>
     <row r="376">
-      <c r="A376" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="B376" s="12" t="s">
-        <v>793</v>
+      <c r="A376" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="B376" s="14" t="s">
+        <v>824</v>
       </c>
       <c r="C376" s="8"/>
       <c r="D376" s="8"/>
@@ -15067,11 +15553,11 @@
       <c r="Z376" s="8"/>
     </row>
     <row r="377">
-      <c r="A377" s="12" t="s">
-        <v>794</v>
-      </c>
-      <c r="B377" s="12" t="s">
-        <v>795</v>
+      <c r="A377" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="B377" s="14" t="s">
+        <v>826</v>
       </c>
       <c r="C377" s="8"/>
       <c r="D377" s="8"/>
@@ -15099,11 +15585,11 @@
       <c r="Z377" s="8"/>
     </row>
     <row r="378">
-      <c r="A378" s="12" t="s">
-        <v>796</v>
-      </c>
-      <c r="B378" s="12" t="s">
-        <v>797</v>
+      <c r="A378" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="B378" s="14" t="s">
+        <v>828</v>
       </c>
       <c r="C378" s="8"/>
       <c r="D378" s="8"/>
@@ -15131,15 +15617,13 @@
       <c r="Z378" s="8"/>
     </row>
     <row r="379">
-      <c r="A379" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="B379" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="C379" s="12" t="s">
-        <v>417</v>
-      </c>
+      <c r="A379" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="B379" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="C379" s="8"/>
       <c r="D379" s="8"/>
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
@@ -15165,11 +15649,11 @@
       <c r="Z379" s="8"/>
     </row>
     <row r="380">
-      <c r="A380" s="12" t="s">
-        <v>799</v>
-      </c>
-      <c r="B380" s="12" t="s">
-        <v>800</v>
+      <c r="A380" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="B380" s="14" t="s">
+        <v>832</v>
       </c>
       <c r="C380" s="8"/>
       <c r="D380" s="8"/>
@@ -15197,11 +15681,11 @@
       <c r="Z380" s="8"/>
     </row>
     <row r="381">
-      <c r="A381" s="12" t="s">
-        <v>801</v>
-      </c>
-      <c r="B381" s="12" t="s">
-        <v>802</v>
+      <c r="A381" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="B381" s="14" t="s">
+        <v>834</v>
       </c>
       <c r="C381" s="8"/>
       <c r="D381" s="8"/>
@@ -15229,11 +15713,11 @@
       <c r="Z381" s="8"/>
     </row>
     <row r="382">
-      <c r="A382" s="12" t="s">
-        <v>803</v>
-      </c>
-      <c r="B382" s="12" t="s">
-        <v>804</v>
+      <c r="A382" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="B382" s="14" t="s">
+        <v>836</v>
       </c>
       <c r="C382" s="8"/>
       <c r="D382" s="8"/>
@@ -15261,14 +15745,14 @@
       <c r="Z382" s="8"/>
     </row>
     <row r="383">
-      <c r="A383" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="B383" s="12" t="s">
-        <v>806</v>
-      </c>
-      <c r="C383" s="12" t="s">
-        <v>807</v>
+      <c r="A383" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="B383" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="C383" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="D383" s="8"/>
       <c r="E383" s="8"/>
@@ -15295,11 +15779,11 @@
       <c r="Z383" s="8"/>
     </row>
     <row r="384">
-      <c r="A384" s="12" t="s">
-        <v>808</v>
-      </c>
-      <c r="B384" s="12" t="s">
-        <v>809</v>
+      <c r="A384" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="B384" s="14" t="s">
+        <v>840</v>
       </c>
       <c r="C384" s="8"/>
       <c r="D384" s="8"/>
@@ -15327,11 +15811,11 @@
       <c r="Z384" s="8"/>
     </row>
     <row r="385">
-      <c r="A385" s="12" t="s">
-        <v>810</v>
-      </c>
-      <c r="B385" s="12" t="s">
-        <v>811</v>
+      <c r="A385" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="B385" s="14" t="s">
+        <v>842</v>
       </c>
       <c r="C385" s="8"/>
       <c r="D385" s="8"/>
@@ -15359,11 +15843,11 @@
       <c r="Z385" s="8"/>
     </row>
     <row r="386">
-      <c r="A386" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="B386" s="12" t="s">
-        <v>813</v>
+      <c r="A386" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B386" s="14" t="s">
+        <v>843</v>
       </c>
       <c r="C386" s="8"/>
       <c r="D386" s="8"/>
@@ -15391,15 +15875,13 @@
       <c r="Z386" s="8"/>
     </row>
     <row r="387">
-      <c r="A387" s="12" t="s">
-        <v>807</v>
-      </c>
-      <c r="B387" s="12" t="s">
-        <v>814</v>
-      </c>
-      <c r="C387" s="12" t="s">
-        <v>805</v>
-      </c>
+      <c r="A387" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="B387" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="C387" s="8"/>
       <c r="D387" s="8"/>
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
@@ -15425,11 +15907,11 @@
       <c r="Z387" s="8"/>
     </row>
     <row r="388">
-      <c r="A388" s="12" t="s">
-        <v>815</v>
-      </c>
-      <c r="B388" s="12" t="s">
-        <v>816</v>
+      <c r="A388" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="B388" s="11" t="s">
+        <v>847</v>
       </c>
       <c r="C388" s="8"/>
       <c r="D388" s="8"/>
@@ -15457,11 +15939,11 @@
       <c r="Z388" s="8"/>
     </row>
     <row r="389">
-      <c r="A389" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="B389" s="12" t="s">
-        <v>818</v>
+      <c r="A389" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="B389" s="14" t="s">
+        <v>849</v>
       </c>
       <c r="C389" s="8"/>
       <c r="D389" s="8"/>
@@ -15489,13 +15971,15 @@
       <c r="Z389" s="8"/>
     </row>
     <row r="390">
-      <c r="A390" s="12" t="s">
-        <v>819</v>
-      </c>
-      <c r="B390" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="C390" s="8"/>
+      <c r="A390" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B390" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C390" s="14" t="s">
+        <v>317</v>
+      </c>
       <c r="D390" s="8"/>
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
@@ -15521,11 +16005,11 @@
       <c r="Z390" s="8"/>
     </row>
     <row r="391">
-      <c r="A391" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="B391" s="12" t="s">
-        <v>822</v>
+      <c r="A391" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="B391" s="14" t="s">
+        <v>852</v>
       </c>
       <c r="C391" s="8"/>
       <c r="D391" s="8"/>
@@ -15553,11 +16037,11 @@
       <c r="Z391" s="8"/>
     </row>
     <row r="392">
-      <c r="A392" s="12" t="s">
-        <v>823</v>
-      </c>
-      <c r="B392" s="12" t="s">
-        <v>824</v>
+      <c r="A392" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="B392" s="14" t="s">
+        <v>854</v>
       </c>
       <c r="C392" s="8"/>
       <c r="D392" s="8"/>
@@ -15585,11 +16069,11 @@
       <c r="Z392" s="8"/>
     </row>
     <row r="393">
-      <c r="A393" s="12" t="s">
-        <v>825</v>
-      </c>
-      <c r="B393" s="12" t="s">
-        <v>826</v>
+      <c r="A393" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="B393" s="14" t="s">
+        <v>856</v>
       </c>
       <c r="C393" s="8"/>
       <c r="D393" s="8"/>
@@ -15617,11 +16101,11 @@
       <c r="Z393" s="8"/>
     </row>
     <row r="394">
-      <c r="A394" s="12" t="s">
-        <v>827</v>
-      </c>
-      <c r="B394" s="12" t="s">
-        <v>828</v>
+      <c r="A394" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="B394" s="14" t="s">
+        <v>858</v>
       </c>
       <c r="C394" s="8"/>
       <c r="D394" s="8"/>
@@ -15649,11 +16133,11 @@
       <c r="Z394" s="8"/>
     </row>
     <row r="395">
-      <c r="A395" s="12" t="s">
-        <v>829</v>
-      </c>
-      <c r="B395" s="12" t="s">
-        <v>830</v>
+      <c r="A395" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="B395" s="14" t="s">
+        <v>860</v>
       </c>
       <c r="C395" s="8"/>
       <c r="D395" s="8"/>
@@ -15681,11 +16165,11 @@
       <c r="Z395" s="8"/>
     </row>
     <row r="396">
-      <c r="A396" s="12" t="s">
-        <v>831</v>
-      </c>
-      <c r="B396" s="12" t="s">
-        <v>832</v>
+      <c r="A396" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="B396" s="14" t="s">
+        <v>862</v>
       </c>
       <c r="C396" s="8"/>
       <c r="D396" s="8"/>
@@ -15713,8 +16197,12 @@
       <c r="Z396" s="8"/>
     </row>
     <row r="397">
-      <c r="A397" s="8"/>
-      <c r="B397" s="8"/>
+      <c r="A397" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="B397" s="14" t="s">
+        <v>864</v>
+      </c>
       <c r="C397" s="8"/>
       <c r="D397" s="8"/>
       <c r="E397" s="8"/>
@@ -15741,8 +16229,12 @@
       <c r="Z397" s="8"/>
     </row>
     <row r="398">
-      <c r="A398" s="8"/>
-      <c r="B398" s="8"/>
+      <c r="A398" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="B398" s="14" t="s">
+        <v>866</v>
+      </c>
       <c r="C398" s="8"/>
       <c r="D398" s="8"/>
       <c r="E398" s="8"/>
@@ -15769,8 +16261,12 @@
       <c r="Z398" s="8"/>
     </row>
     <row r="399">
-      <c r="A399" s="8"/>
-      <c r="B399" s="8"/>
+      <c r="A399" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="B399" s="14" t="s">
+        <v>868</v>
+      </c>
       <c r="C399" s="8"/>
       <c r="D399" s="8"/>
       <c r="E399" s="8"/>
@@ -15797,8 +16293,12 @@
       <c r="Z399" s="8"/>
     </row>
     <row r="400">
-      <c r="A400" s="8"/>
-      <c r="B400" s="8"/>
+      <c r="A400" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="B400" s="14" t="s">
+        <v>870</v>
+      </c>
       <c r="C400" s="8"/>
       <c r="D400" s="8"/>
       <c r="E400" s="8"/>
@@ -15825,8 +16325,12 @@
       <c r="Z400" s="8"/>
     </row>
     <row r="401">
-      <c r="A401" s="8"/>
-      <c r="B401" s="8"/>
+      <c r="A401" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="B401" s="14" t="s">
+        <v>872</v>
+      </c>
       <c r="C401" s="8"/>
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
@@ -15853,8 +16357,12 @@
       <c r="Z401" s="8"/>
     </row>
     <row r="402">
-      <c r="A402" s="8"/>
-      <c r="B402" s="8"/>
+      <c r="A402" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="B402" s="14" t="s">
+        <v>874</v>
+      </c>
       <c r="C402" s="8"/>
       <c r="D402" s="8"/>
       <c r="E402" s="8"/>
@@ -15881,8 +16389,12 @@
       <c r="Z402" s="8"/>
     </row>
     <row r="403">
-      <c r="A403" s="8"/>
-      <c r="B403" s="8"/>
+      <c r="A403" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="B403" s="14" t="s">
+        <v>876</v>
+      </c>
       <c r="C403" s="8"/>
       <c r="D403" s="8"/>
       <c r="E403" s="8"/>
@@ -15909,8 +16421,12 @@
       <c r="Z403" s="8"/>
     </row>
     <row r="404">
-      <c r="A404" s="8"/>
-      <c r="B404" s="8"/>
+      <c r="A404" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="B404" s="14" t="s">
+        <v>878</v>
+      </c>
       <c r="C404" s="8"/>
       <c r="D404" s="8"/>
       <c r="E404" s="8"/>
@@ -15937,8 +16453,12 @@
       <c r="Z404" s="8"/>
     </row>
     <row r="405">
-      <c r="A405" s="8"/>
-      <c r="B405" s="8"/>
+      <c r="A405" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="B405" s="14" t="s">
+        <v>880</v>
+      </c>
       <c r="C405" s="8"/>
       <c r="D405" s="8"/>
       <c r="E405" s="8"/>
@@ -15965,8 +16485,12 @@
       <c r="Z405" s="8"/>
     </row>
     <row r="406">
-      <c r="A406" s="8"/>
-      <c r="B406" s="8"/>
+      <c r="A406" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="B406" s="14" t="s">
+        <v>882</v>
+      </c>
       <c r="C406" s="8"/>
       <c r="D406" s="8"/>
       <c r="E406" s="8"/>
@@ -15993,8 +16517,12 @@
       <c r="Z406" s="8"/>
     </row>
     <row r="407">
-      <c r="A407" s="8"/>
-      <c r="B407" s="8"/>
+      <c r="A407" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="B407" s="14" t="s">
+        <v>884</v>
+      </c>
       <c r="C407" s="8"/>
       <c r="D407" s="8"/>
       <c r="E407" s="8"/>
@@ -16021,9 +16549,15 @@
       <c r="Z407" s="8"/>
     </row>
     <row r="408">
-      <c r="A408" s="8"/>
-      <c r="B408" s="8"/>
-      <c r="C408" s="8"/>
+      <c r="A408" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="B408" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="C408" s="14" t="s">
+        <v>596</v>
+      </c>
       <c r="D408" s="8"/>
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
@@ -16049,8 +16583,12 @@
       <c r="Z408" s="8"/>
     </row>
     <row r="409">
-      <c r="A409" s="8"/>
-      <c r="B409" s="8"/>
+      <c r="A409" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="B409" s="14" t="s">
+        <v>887</v>
+      </c>
       <c r="C409" s="8"/>
       <c r="D409" s="8"/>
       <c r="E409" s="8"/>
@@ -16077,8 +16615,12 @@
       <c r="Z409" s="8"/>
     </row>
     <row r="410">
-      <c r="A410" s="8"/>
-      <c r="B410" s="8"/>
+      <c r="A410" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="B410" s="14" t="s">
+        <v>889</v>
+      </c>
       <c r="C410" s="8"/>
       <c r="D410" s="8"/>
       <c r="E410" s="8"/>
@@ -16105,8 +16647,12 @@
       <c r="Z410" s="8"/>
     </row>
     <row r="411">
-      <c r="A411" s="8"/>
-      <c r="B411" s="8"/>
+      <c r="A411" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="B411" s="14" t="s">
+        <v>891</v>
+      </c>
       <c r="C411" s="8"/>
       <c r="D411" s="8"/>
       <c r="E411" s="8"/>
@@ -16133,8 +16679,12 @@
       <c r="Z411" s="8"/>
     </row>
     <row r="412">
-      <c r="A412" s="8"/>
-      <c r="B412" s="8"/>
+      <c r="A412" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="B412" s="14" t="s">
+        <v>893</v>
+      </c>
       <c r="C412" s="8"/>
       <c r="D412" s="8"/>
       <c r="E412" s="8"/>
@@ -16161,8 +16711,12 @@
       <c r="Z412" s="8"/>
     </row>
     <row r="413">
-      <c r="A413" s="8"/>
-      <c r="B413" s="8"/>
+      <c r="A413" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="B413" s="14" t="s">
+        <v>895</v>
+      </c>
       <c r="C413" s="8"/>
       <c r="D413" s="8"/>
       <c r="E413" s="8"/>
@@ -16189,8 +16743,12 @@
       <c r="Z413" s="8"/>
     </row>
     <row r="414">
-      <c r="A414" s="8"/>
-      <c r="B414" s="8"/>
+      <c r="A414" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="B414" s="14" t="s">
+        <v>897</v>
+      </c>
       <c r="C414" s="8"/>
       <c r="D414" s="8"/>
       <c r="E414" s="8"/>
@@ -16217,8 +16775,12 @@
       <c r="Z414" s="8"/>
     </row>
     <row r="415">
-      <c r="A415" s="8"/>
-      <c r="B415" s="8"/>
+      <c r="A415" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="B415" s="14" t="s">
+        <v>899</v>
+      </c>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
       <c r="E415" s="8"/>
@@ -16245,8 +16807,12 @@
       <c r="Z415" s="8"/>
     </row>
     <row r="416">
-      <c r="A416" s="8"/>
-      <c r="B416" s="8"/>
+      <c r="A416" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="B416" s="14" t="s">
+        <v>901</v>
+      </c>
       <c r="C416" s="8"/>
       <c r="D416" s="8"/>
       <c r="E416" s="8"/>
@@ -16273,8 +16839,12 @@
       <c r="Z416" s="8"/>
     </row>
     <row r="417">
-      <c r="A417" s="8"/>
-      <c r="B417" s="8"/>
+      <c r="A417" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="B417" s="14" t="s">
+        <v>903</v>
+      </c>
       <c r="C417" s="8"/>
       <c r="D417" s="8"/>
       <c r="E417" s="8"/>
@@ -16301,8 +16871,12 @@
       <c r="Z417" s="8"/>
     </row>
     <row r="418">
-      <c r="A418" s="8"/>
-      <c r="B418" s="8"/>
+      <c r="A418" s="14" t="s">
+        <v>904</v>
+      </c>
+      <c r="B418" s="14" t="s">
+        <v>905</v>
+      </c>
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
       <c r="E418" s="8"/>
@@ -16329,8 +16903,12 @@
       <c r="Z418" s="8"/>
     </row>
     <row r="419">
-      <c r="A419" s="8"/>
-      <c r="B419" s="8"/>
+      <c r="A419" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="B419" s="14" t="s">
+        <v>907</v>
+      </c>
       <c r="C419" s="8"/>
       <c r="D419" s="8"/>
       <c r="E419" s="8"/>
@@ -16357,8 +16935,12 @@
       <c r="Z419" s="8"/>
     </row>
     <row r="420">
-      <c r="A420" s="8"/>
-      <c r="B420" s="8"/>
+      <c r="A420" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="B420" s="14" t="s">
+        <v>909</v>
+      </c>
       <c r="C420" s="8"/>
       <c r="D420" s="8"/>
       <c r="E420" s="8"/>
@@ -16385,9 +16967,15 @@
       <c r="Z420" s="8"/>
     </row>
     <row r="421">
-      <c r="A421" s="8"/>
-      <c r="B421" s="8"/>
-      <c r="C421" s="8"/>
+      <c r="A421" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B421" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="C421" s="14" t="s">
+        <v>487</v>
+      </c>
       <c r="D421" s="8"/>
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
@@ -16413,8 +17001,12 @@
       <c r="Z421" s="8"/>
     </row>
     <row r="422">
-      <c r="A422" s="8"/>
-      <c r="B422" s="8"/>
+      <c r="A422" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="B422" s="14" t="s">
+        <v>912</v>
+      </c>
       <c r="C422" s="8"/>
       <c r="D422" s="8"/>
       <c r="E422" s="8"/>
@@ -16441,8 +17033,12 @@
       <c r="Z422" s="8"/>
     </row>
     <row r="423">
-      <c r="A423" s="8"/>
-      <c r="B423" s="8"/>
+      <c r="A423" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="B423" s="14" t="s">
+        <v>914</v>
+      </c>
       <c r="C423" s="8"/>
       <c r="D423" s="8"/>
       <c r="E423" s="8"/>
@@ -16469,8 +17065,12 @@
       <c r="Z423" s="8"/>
     </row>
     <row r="424">
-      <c r="A424" s="8"/>
-      <c r="B424" s="8"/>
+      <c r="A424" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="B424" s="14" t="s">
+        <v>916</v>
+      </c>
       <c r="C424" s="8"/>
       <c r="D424" s="8"/>
       <c r="E424" s="8"/>
@@ -16497,8 +17097,12 @@
       <c r="Z424" s="8"/>
     </row>
     <row r="425">
-      <c r="A425" s="8"/>
-      <c r="B425" s="8"/>
+      <c r="A425" s="14" t="s">
+        <v>917</v>
+      </c>
+      <c r="B425" s="14" t="s">
+        <v>918</v>
+      </c>
       <c r="C425" s="8"/>
       <c r="D425" s="8"/>
       <c r="E425" s="8"/>
@@ -16525,9 +17129,15 @@
       <c r="Z425" s="8"/>
     </row>
     <row r="426">
-      <c r="A426" s="8"/>
-      <c r="B426" s="8"/>
-      <c r="C426" s="8"/>
+      <c r="A426" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="B426" s="14" t="s">
+        <v>920</v>
+      </c>
+      <c r="C426" s="14" t="s">
+        <v>921</v>
+      </c>
       <c r="D426" s="8"/>
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
@@ -16553,8 +17163,12 @@
       <c r="Z426" s="8"/>
     </row>
     <row r="427">
-      <c r="A427" s="8"/>
-      <c r="B427" s="8"/>
+      <c r="A427" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="B427" s="14" t="s">
+        <v>923</v>
+      </c>
       <c r="C427" s="8"/>
       <c r="D427" s="8"/>
       <c r="E427" s="8"/>
@@ -16581,8 +17195,12 @@
       <c r="Z427" s="8"/>
     </row>
     <row r="428">
-      <c r="A428" s="8"/>
-      <c r="B428" s="8"/>
+      <c r="A428" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="B428" s="14" t="s">
+        <v>925</v>
+      </c>
       <c r="C428" s="8"/>
       <c r="D428" s="8"/>
       <c r="E428" s="8"/>
@@ -16609,8 +17227,12 @@
       <c r="Z428" s="8"/>
     </row>
     <row r="429">
-      <c r="A429" s="8"/>
-      <c r="B429" s="8"/>
+      <c r="A429" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="B429" s="14" t="s">
+        <v>927</v>
+      </c>
       <c r="C429" s="8"/>
       <c r="D429" s="8"/>
       <c r="E429" s="8"/>
@@ -16637,9 +17259,15 @@
       <c r="Z429" s="8"/>
     </row>
     <row r="430">
-      <c r="A430" s="8"/>
-      <c r="B430" s="8"/>
-      <c r="C430" s="8"/>
+      <c r="A430" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="B430" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="C430" s="14" t="s">
+        <v>919</v>
+      </c>
       <c r="D430" s="8"/>
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
@@ -16665,8 +17293,12 @@
       <c r="Z430" s="8"/>
     </row>
     <row r="431">
-      <c r="A431" s="8"/>
-      <c r="B431" s="8"/>
+      <c r="A431" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="B431" s="14" t="s">
+        <v>930</v>
+      </c>
       <c r="C431" s="8"/>
       <c r="D431" s="8"/>
       <c r="E431" s="8"/>
@@ -16693,8 +17325,12 @@
       <c r="Z431" s="8"/>
     </row>
     <row r="432">
-      <c r="A432" s="8"/>
-      <c r="B432" s="8"/>
+      <c r="A432" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="B432" s="14" t="s">
+        <v>932</v>
+      </c>
       <c r="C432" s="8"/>
       <c r="D432" s="8"/>
       <c r="E432" s="8"/>
@@ -16721,8 +17357,12 @@
       <c r="Z432" s="8"/>
     </row>
     <row r="433">
-      <c r="A433" s="8"/>
-      <c r="B433" s="8"/>
+      <c r="A433" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="B433" s="14" t="s">
+        <v>934</v>
+      </c>
       <c r="C433" s="8"/>
       <c r="D433" s="8"/>
       <c r="E433" s="8"/>
@@ -16749,8 +17389,12 @@
       <c r="Z433" s="8"/>
     </row>
     <row r="434">
-      <c r="A434" s="8"/>
-      <c r="B434" s="8"/>
+      <c r="A434" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="B434" s="14" t="s">
+        <v>936</v>
+      </c>
       <c r="C434" s="8"/>
       <c r="D434" s="8"/>
       <c r="E434" s="8"/>
@@ -16777,8 +17421,12 @@
       <c r="Z434" s="8"/>
     </row>
     <row r="435">
-      <c r="A435" s="8"/>
-      <c r="B435" s="8"/>
+      <c r="A435" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="B435" s="14" t="s">
+        <v>938</v>
+      </c>
       <c r="C435" s="8"/>
       <c r="D435" s="8"/>
       <c r="E435" s="8"/>
@@ -16805,8 +17453,12 @@
       <c r="Z435" s="8"/>
     </row>
     <row r="436">
-      <c r="A436" s="8"/>
-      <c r="B436" s="8"/>
+      <c r="A436" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="B436" s="14" t="s">
+        <v>940</v>
+      </c>
       <c r="C436" s="8"/>
       <c r="D436" s="8"/>
       <c r="E436" s="8"/>
@@ -16833,8 +17485,12 @@
       <c r="Z436" s="8"/>
     </row>
     <row r="437">
-      <c r="A437" s="8"/>
-      <c r="B437" s="8"/>
+      <c r="A437" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="B437" s="14" t="s">
+        <v>942</v>
+      </c>
       <c r="C437" s="8"/>
       <c r="D437" s="8"/>
       <c r="E437" s="8"/>
@@ -16861,8 +17517,12 @@
       <c r="Z437" s="8"/>
     </row>
     <row r="438">
-      <c r="A438" s="8"/>
-      <c r="B438" s="8"/>
+      <c r="A438" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="B438" s="14" t="s">
+        <v>944</v>
+      </c>
       <c r="C438" s="8"/>
       <c r="D438" s="8"/>
       <c r="E438" s="8"/>
@@ -16889,8 +17549,12 @@
       <c r="Z438" s="8"/>
     </row>
     <row r="439">
-      <c r="A439" s="8"/>
-      <c r="B439" s="8"/>
+      <c r="A439" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="B439" s="14" t="s">
+        <v>946</v>
+      </c>
       <c r="C439" s="8"/>
       <c r="D439" s="8"/>
       <c r="E439" s="8"/>
@@ -16917,8 +17581,12 @@
       <c r="Z439" s="8"/>
     </row>
     <row r="440">
-      <c r="A440" s="8"/>
-      <c r="B440" s="8"/>
+      <c r="A440" s="14" t="s">
+        <v>947</v>
+      </c>
+      <c r="B440" s="14" t="s">
+        <v>948</v>
+      </c>
       <c r="C440" s="8"/>
       <c r="D440" s="8"/>
       <c r="E440" s="8"/>
@@ -16945,8 +17613,12 @@
       <c r="Z440" s="8"/>
     </row>
     <row r="441">
-      <c r="A441" s="8"/>
-      <c r="B441" s="8"/>
+      <c r="A441" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="B441" s="14" t="s">
+        <v>950</v>
+      </c>
       <c r="C441" s="8"/>
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
@@ -16973,8 +17645,12 @@
       <c r="Z441" s="8"/>
     </row>
     <row r="442">
-      <c r="A442" s="8"/>
-      <c r="B442" s="8"/>
+      <c r="A442" s="14" t="s">
+        <v>951</v>
+      </c>
+      <c r="B442" s="14" t="s">
+        <v>952</v>
+      </c>
       <c r="C442" s="8"/>
       <c r="D442" s="8"/>
       <c r="E442" s="8"/>
@@ -17001,8 +17677,12 @@
       <c r="Z442" s="8"/>
     </row>
     <row r="443">
-      <c r="A443" s="8"/>
-      <c r="B443" s="8"/>
+      <c r="A443" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="B443" s="14" t="s">
+        <v>954</v>
+      </c>
       <c r="C443" s="8"/>
       <c r="D443" s="8"/>
       <c r="E443" s="8"/>
@@ -17029,8 +17709,12 @@
       <c r="Z443" s="8"/>
     </row>
     <row r="444">
-      <c r="A444" s="8"/>
-      <c r="B444" s="8"/>
+      <c r="A444" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="B444" s="14" t="s">
+        <v>956</v>
+      </c>
       <c r="C444" s="8"/>
       <c r="D444" s="8"/>
       <c r="E444" s="8"/>
@@ -17057,8 +17741,12 @@
       <c r="Z444" s="8"/>
     </row>
     <row r="445">
-      <c r="A445" s="8"/>
-      <c r="B445" s="8"/>
+      <c r="A445" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="B445" s="14" t="s">
+        <v>958</v>
+      </c>
       <c r="C445" s="8"/>
       <c r="D445" s="8"/>
       <c r="E445" s="8"/>
@@ -17085,8 +17773,12 @@
       <c r="Z445" s="8"/>
     </row>
     <row r="446">
-      <c r="A446" s="8"/>
-      <c r="B446" s="8"/>
+      <c r="A446" s="14" t="s">
+        <v>959</v>
+      </c>
+      <c r="B446" s="14" t="s">
+        <v>960</v>
+      </c>
       <c r="C446" s="8"/>
       <c r="D446" s="8"/>
       <c r="E446" s="8"/>
@@ -17113,8 +17805,12 @@
       <c r="Z446" s="8"/>
     </row>
     <row r="447">
-      <c r="A447" s="8"/>
-      <c r="B447" s="8"/>
+      <c r="A447" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="B447" s="14" t="s">
+        <v>962</v>
+      </c>
       <c r="C447" s="8"/>
       <c r="D447" s="8"/>
       <c r="E447" s="8"/>
@@ -17141,8 +17837,12 @@
       <c r="Z447" s="8"/>
     </row>
     <row r="448">
-      <c r="A448" s="8"/>
-      <c r="B448" s="8"/>
+      <c r="A448" s="14" t="s">
+        <v>963</v>
+      </c>
+      <c r="B448" s="14" t="s">
+        <v>964</v>
+      </c>
       <c r="C448" s="8"/>
       <c r="D448" s="8"/>
       <c r="E448" s="8"/>
@@ -17169,8 +17869,12 @@
       <c r="Z448" s="8"/>
     </row>
     <row r="449">
-      <c r="A449" s="8"/>
-      <c r="B449" s="8"/>
+      <c r="A449" s="14" t="s">
+        <v>965</v>
+      </c>
+      <c r="B449" s="14" t="s">
+        <v>966</v>
+      </c>
       <c r="C449" s="8"/>
       <c r="D449" s="8"/>
       <c r="E449" s="8"/>

--- a/Conlangs/norvunic.xlsx
+++ b/Conlangs/norvunic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="969">
   <si>
     <t>Word</t>
   </si>
@@ -36,2514 +36,2517 @@
     <t>Search:</t>
   </si>
   <si>
+    <t>lan</t>
+  </si>
+  <si>
+    <t>RULES</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>ægi</t>
+  </si>
+  <si>
+    <t>very, or really</t>
+  </si>
+  <si>
+    <t>negator/not (ik)</t>
+  </si>
+  <si>
+    <t>before word</t>
+  </si>
+  <si>
+    <t>ik dæn = not can (cannot/can't)</t>
+  </si>
+  <si>
+    <t>Contains?</t>
+  </si>
+  <si>
+    <t>1. Use the SVO order.</t>
+  </si>
+  <si>
+    <t>Al lot sig nor. (I like this rock.)</t>
+  </si>
+  <si>
+    <t>ægi lis</t>
+  </si>
+  <si>
+    <t>something that is tiny</t>
+  </si>
+  <si>
+    <t>very, or really (ægi)</t>
+  </si>
+  <si>
+    <t>after word</t>
+  </si>
+  <si>
+    <t>nus ægi blûlr = blue very robes (very blue robes)</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>2. Use as little words as possible.</t>
+  </si>
+  <si>
+    <t>Al atr Alti heim. (I go I own home.) (because atr means "to go, or move to", we don't need an extra "to")</t>
+  </si>
+  <si>
+    <t>æner</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>dolfar</t>
+  </si>
+  <si>
+    <t>past tense/ed (-de)</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>davde = ran</t>
+  </si>
+  <si>
+    <t>3. Follow the morpheme rules.</t>
+  </si>
+  <si>
+    <t>Al davde sar. (I runned there.) (You follow the morpheme rules. Ran = Run (verb) + ed (past tense).)</t>
+  </si>
+  <si>
+    <t>æt</t>
+  </si>
+  <si>
+    <t>out, or out of</t>
+  </si>
+  <si>
+    <t>present tense/ing (parva)</t>
+  </si>
+  <si>
+    <t>dav parva = run currently (running)</t>
+  </si>
+  <si>
+    <t>4. Word order does not change in a question.</t>
+  </si>
+  <si>
+    <t>"What is this thing?" turns into "What this thing is?"</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>future tense/will (hav)</t>
+  </si>
+  <si>
+    <t>hav dav = will run</t>
+  </si>
+  <si>
+    <t>SENTENCES</t>
+  </si>
+  <si>
+    <t>afa</t>
+  </si>
+  <si>
+    <t>refers to a group the speaker is in. equivalent to us, and we.</t>
+  </si>
+  <si>
+    <t>plural/s (-le)</t>
+  </si>
+  <si>
+    <t>atelgle = apples</t>
+  </si>
+  <si>
+    <t>Where is/are</t>
+  </si>
+  <si>
+    <t>Lan linsûr ru? (What place you? Proper english: Where are you?)</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>about something, or the properties of</t>
+  </si>
+  <si>
+    <t>singular/a (ûn)</t>
+  </si>
+  <si>
+    <t>ûn atelg = one apple (an apple)</t>
+  </si>
+  <si>
+    <t>How did</t>
+  </si>
+  <si>
+    <t>Lan ru glede? (What you did? Proper english: How did you do that? or What have you done?)</t>
+  </si>
+  <si>
+    <t>aht</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>possessive (ti)</t>
+  </si>
+  <si>
+    <t>after pronoun</t>
+  </si>
+  <si>
+    <t>beigti sulf = dog's fur, alti sig heim = i own this house, matti sert = matt's shirt (if it ends with "tt", it becomes just an I)</t>
+  </si>
+  <si>
+    <t>How did #2</t>
+  </si>
+  <si>
+    <t>Lan burig sat? (What cause that? Proper english: What happened? or How did it happen? or What caused it?)</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>refers to the speaker. equivalent to i, me, and my.</t>
+  </si>
+  <si>
+    <t>nationality (lot) (like -ian, -ic, -ish, -ese, -i, -an)</t>
+  </si>
+  <si>
+    <t>after nation</t>
+  </si>
+  <si>
+    <t>norvun lot = norvun like (norvunic), eng lot = england like (english)</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>Lan servgal ru jeg? (What person be you? Proper english: Who are you?)</t>
+  </si>
+  <si>
+    <t>ald</t>
+  </si>
+  <si>
+    <t>something, or someone that is old</t>
+  </si>
+  <si>
+    <t>hæner</t>
+  </si>
+  <si>
+    <t>language (-lagi) (same thing as above)</t>
+  </si>
+  <si>
+    <t>norvunlagi = norvun speak (norvunic), englagi = england speak (english)</t>
+  </si>
+  <si>
+    <t>What is</t>
+  </si>
+  <si>
+    <t>Lan ûn atelg jeg? (What an apple be? Proper english: What is an apple?)</t>
+  </si>
+  <si>
+    <t>algbod</t>
+  </si>
+  <si>
+    <t>1: a problem. 2: trouble</t>
+  </si>
+  <si>
+    <t>likeness/ly, ness or ful (-vol)</t>
+  </si>
+  <si>
+    <t>fjolva = quickly, ru jeg leifa = you are beautiful (if it ends with f, only do "a")</t>
+  </si>
+  <si>
+    <t>What time</t>
+  </si>
+  <si>
+    <t>Lan tervin par jeg? (What time now be? Proper english: What time is it?)</t>
+  </si>
+  <si>
+    <t>alglo</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>weather/ing (sorp)</t>
+  </si>
+  <si>
+    <t>pa jû jeg sorp parva = the rainwater be falling (it's raining)</t>
+  </si>
+  <si>
+    <t>When</t>
+  </si>
+  <si>
+    <t>Lan tervin hav sat alp? (When will it come?)</t>
+  </si>
+  <si>
+    <t>alp</t>
+  </si>
+  <si>
+    <t>come here</t>
+  </si>
+  <si>
+    <t>ready ('ap)</t>
+  </si>
+  <si>
+    <t>hagt'ap skog = battle-for axe (axe for battle)</t>
+  </si>
+  <si>
+    <t>altûgar</t>
+  </si>
+  <si>
+    <t>1: being brave, or bold. 2: bravery.</t>
+  </si>
+  <si>
+    <t>most/est (-je)</t>
+  </si>
+  <si>
+    <t>bagje = biggest, dagnulje = most powerful</t>
+  </si>
+  <si>
+    <t>antul</t>
+  </si>
+  <si>
+    <t>any type of armor</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>for. can be used as a suffix, explained in 'morphemes'.</t>
+  </si>
+  <si>
+    <t>arandas</t>
+  </si>
+  <si>
+    <t>the moon</t>
+  </si>
+  <si>
+    <t>arfjor</t>
+  </si>
+  <si>
+    <t>1: one's fears. 2: being afraid of something.</t>
+  </si>
+  <si>
+    <t>argedr</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>note: search WIP, and give the words some meaning</t>
+  </si>
+  <si>
+    <t>armur</t>
+  </si>
+  <si>
+    <t>an arm of a creature</t>
+  </si>
+  <si>
+    <t>atag</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>atelg</t>
+  </si>
+  <si>
+    <t>an apple</t>
+  </si>
+  <si>
+    <t>atr</t>
+  </si>
+  <si>
+    <t>1: to go, or move to. 2: to place, or put. 3: to move.</t>
+  </si>
+  <si>
+    <t>azalûil</t>
+  </si>
+  <si>
+    <t>an animal</t>
+  </si>
+  <si>
+    <t>azamurk</t>
+  </si>
+  <si>
+    <t>a monster, or an unknown creature</t>
+  </si>
+  <si>
+    <t>azar</t>
+  </si>
+  <si>
+    <t>used to describe something that is hot (temperature)</t>
+  </si>
+  <si>
+    <t>azarvæk</t>
+  </si>
+  <si>
+    <t>the sun</t>
+  </si>
+  <si>
+    <t>azened</t>
+  </si>
+  <si>
+    <t>an luxurious inn, or hotel</t>
+  </si>
+  <si>
+    <t>azom</t>
+  </si>
+  <si>
+    <t>equivalent to fire</t>
+  </si>
+  <si>
+    <t>azugor</t>
+  </si>
+  <si>
+    <t>1: norvunic name for a ranastar. 2: an anthropomorphic animal.</t>
+  </si>
+  <si>
+    <t>bafrud</t>
+  </si>
+  <si>
+    <t>ready for; prepared for</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>big, vast, massive, or great</t>
+  </si>
+  <si>
+    <t>bagt</t>
+  </si>
+  <si>
+    <t>battle, or any large-scale fight</t>
+  </si>
+  <si>
+    <t>bakt</t>
+  </si>
+  <si>
+    <t>1: an actual curse. 2: a swear used, or cuss.</t>
+  </si>
+  <si>
+    <t>balbeig</t>
+  </si>
+  <si>
+    <t>a fox</t>
+  </si>
+  <si>
+    <t>balfjo</t>
+  </si>
+  <si>
+    <t>to break, crack, or damage an object</t>
+  </si>
+  <si>
+    <t>balfjor</t>
+  </si>
+  <si>
+    <t>to destroy something big</t>
+  </si>
+  <si>
+    <t>balg</t>
+  </si>
+  <si>
+    <t>to succumb, or to die to</t>
+  </si>
+  <si>
+    <t>balp</t>
+  </si>
+  <si>
+    <t>to draw</t>
+  </si>
+  <si>
+    <t>baltr</t>
+  </si>
+  <si>
+    <t>equivalent to best</t>
+  </si>
+  <si>
+    <t>barsat</t>
+  </si>
+  <si>
+    <t>mighty</t>
+  </si>
+  <si>
+    <t>basla</t>
+  </si>
+  <si>
+    <t>1: to let, allow, permit, tolerate, or bear something. 2: a permit. 3: may.</t>
+  </si>
+  <si>
+    <t>pûkrol</t>
+  </si>
+  <si>
+    <t>bavgat</t>
+  </si>
+  <si>
+    <t>1: a bastard 2: a mischievous, or naughty person</t>
+  </si>
+  <si>
+    <t>beig</t>
+  </si>
+  <si>
+    <t>a domestivated dog</t>
+  </si>
+  <si>
+    <t>blogvir</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>blot</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>blûlr</t>
+  </si>
+  <si>
+    <t>1: robe, or robes. 2: a dress.</t>
+  </si>
+  <si>
+    <t>boder</t>
+  </si>
+  <si>
+    <t>a storage chest, or a wooden box</t>
+  </si>
+  <si>
+    <t>bof</t>
+  </si>
+  <si>
+    <t>1: to touch, or feel. 2: feeling, emotion, theme, or taste.</t>
+  </si>
+  <si>
+    <t>bor</t>
+  </si>
+  <si>
+    <t>a sphere, or a ball</t>
+  </si>
+  <si>
+    <t>bordyr</t>
+  </si>
+  <si>
+    <t>an idea</t>
+  </si>
+  <si>
+    <t>bort</t>
+  </si>
+  <si>
+    <t>a crossbow bolt, or a magical bolt</t>
+  </si>
+  <si>
+    <t>bosneim</t>
+  </si>
+  <si>
+    <t>a city</t>
+  </si>
+  <si>
+    <t>bov</t>
+  </si>
+  <si>
+    <t>a toe</t>
+  </si>
+  <si>
+    <t>burig</t>
+  </si>
+  <si>
+    <t>the cause of, or reason of</t>
+  </si>
+  <si>
+    <t>bûvt</t>
+  </si>
+  <si>
+    <t>to be curious, or adventurous</t>
+  </si>
+  <si>
+    <t>bûvtol</t>
+  </si>
+  <si>
+    <t>one's interest in something</t>
+  </si>
+  <si>
+    <t>buw</t>
+  </si>
+  <si>
+    <t>a bow (weapon)</t>
+  </si>
+  <si>
+    <t>byr</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>dæl</t>
+  </si>
+  <si>
+    <t>but, still, or yet</t>
+  </si>
+  <si>
+    <t>dæn</t>
+  </si>
+  <si>
+    <t>able to do something; can do something.</t>
+  </si>
+  <si>
+    <t>dagnul</t>
+  </si>
+  <si>
+    <t>1: power, or strength. 2: being strong.</t>
+  </si>
+  <si>
+    <t>dal</t>
+  </si>
+  <si>
+    <t>equivalent to day</t>
+  </si>
+  <si>
+    <t>dalf</t>
+  </si>
+  <si>
+    <t>to remove, take off, or doff attire</t>
+  </si>
+  <si>
+    <t>daln</t>
+  </si>
+  <si>
+    <t>to wear, put on, or don attire</t>
+  </si>
+  <si>
+    <t>dalvnin</t>
+  </si>
+  <si>
+    <t>wearing an attire</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>one's son</t>
+  </si>
+  <si>
+    <t>dank</t>
+  </si>
+  <si>
+    <t>to dance</t>
+  </si>
+  <si>
+    <t>dargol</t>
+  </si>
+  <si>
+    <t>1: black. 2: a place being dark.</t>
+  </si>
+  <si>
+    <t>dav</t>
+  </si>
+  <si>
+    <t>run, walk quickly</t>
+  </si>
+  <si>
+    <t>davn</t>
+  </si>
+  <si>
+    <t>the meat, or flesh of a creature</t>
+  </si>
+  <si>
+    <t>davu</t>
+  </si>
+  <si>
+    <t>to go pass something/someone in progress</t>
+  </si>
+  <si>
+    <t>der</t>
+  </si>
+  <si>
+    <t>refers to a group. equivalent to they, them and their.</t>
+  </si>
+  <si>
+    <t>dervda</t>
+  </si>
+  <si>
+    <t>a spear (weapon)</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>to walk</t>
+  </si>
+  <si>
+    <t>dit</t>
+  </si>
+  <si>
+    <t>to stab, stick in, insert, pierce or penetrate</t>
+  </si>
+  <si>
+    <t>dituzom</t>
+  </si>
+  <si>
+    <t>used to describe a spicy taste</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>dol</t>
+  </si>
+  <si>
+    <t>a village, or a town</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>dor</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>dorver</t>
+  </si>
+  <si>
+    <t>to close</t>
+  </si>
+  <si>
+    <t>hanver</t>
+  </si>
+  <si>
+    <t>dov</t>
+  </si>
+  <si>
+    <t>stop, end, complete or finish an action or process</t>
+  </si>
+  <si>
+    <t>tap</t>
+  </si>
+  <si>
+    <t>dovror</t>
+  </si>
+  <si>
+    <t>any type of metal</t>
+  </si>
+  <si>
+    <t>dovyrdal</t>
+  </si>
+  <si>
+    <t>the destiny, fate, result, aftermath, or conclusion of something</t>
+  </si>
+  <si>
+    <t>dûl</t>
+  </si>
+  <si>
+    <t>1: enough. 2: night.</t>
+  </si>
+  <si>
+    <t>dûlne</t>
+  </si>
+  <si>
+    <t>a bean</t>
+  </si>
+  <si>
+    <t>dum</t>
+  </si>
+  <si>
+    <t>equivalent to stupid/dumb</t>
+  </si>
+  <si>
+    <t>durmir</t>
+  </si>
+  <si>
+    <t>a character in a story</t>
+  </si>
+  <si>
+    <t>dûv</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>dyr</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>dyvot</t>
+  </si>
+  <si>
+    <t>1: used to describe if one has done horribly. 2: unskilled at. 3: used to describe the situation is going bad.</t>
+  </si>
+  <si>
+    <t>jom</t>
+  </si>
+  <si>
+    <t>eirvan</t>
+  </si>
+  <si>
+    <t>a friend, or ally</t>
+  </si>
+  <si>
+    <t>elgek</t>
+  </si>
+  <si>
+    <t>an arrow for a bow</t>
+  </si>
+  <si>
+    <t>elgûnalf</t>
+  </si>
+  <si>
+    <t>an elf</t>
+  </si>
+  <si>
+    <t>ened</t>
+  </si>
+  <si>
+    <t>an inn</t>
+  </si>
+  <si>
+    <t>enf</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>olp</t>
+  </si>
+  <si>
+    <t>eninter</t>
+  </si>
+  <si>
+    <t>something that is safe</t>
+  </si>
+  <si>
+    <t>enkar</t>
+  </si>
+  <si>
+    <t>a disease</t>
+  </si>
+  <si>
+    <t>enkord</t>
+  </si>
+  <si>
+    <t>to infect</t>
+  </si>
+  <si>
+    <t>enlûpov</t>
+  </si>
+  <si>
+    <t>1: the knowledge of someone. 2: information.</t>
+  </si>
+  <si>
+    <t>enlut</t>
+  </si>
+  <si>
+    <t>to learn</t>
+  </si>
+  <si>
+    <t>enlutar</t>
+  </si>
+  <si>
+    <t>to know, or understand, or feel someone's feelings</t>
+  </si>
+  <si>
+    <t>envok</t>
+  </si>
+  <si>
+    <t>1: used to describe something is epic. 2: chaos.</t>
+  </si>
+  <si>
+    <t>ern</t>
+  </si>
+  <si>
+    <t>in, or into</t>
+  </si>
+  <si>
+    <t>eserig</t>
+  </si>
+  <si>
+    <t>used to describe any type of magic</t>
+  </si>
+  <si>
+    <t>evlar</t>
+  </si>
+  <si>
+    <t>every, or all</t>
+  </si>
+  <si>
+    <t>evtamr</t>
+  </si>
+  <si>
+    <t>always, or everytime</t>
+  </si>
+  <si>
+    <t>navvar</t>
+  </si>
+  <si>
+    <t>ezrig</t>
+  </si>
+  <si>
+    <t>a bug, or insect</t>
+  </si>
+  <si>
+    <t>fal</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>the sea, ocean, or any giant body of water</t>
+  </si>
+  <si>
+    <t>falsor</t>
+  </si>
+  <si>
+    <t>a mermaid, or siren. literally means 'sea woman'.</t>
+  </si>
+  <si>
+    <t>favr</t>
+  </si>
+  <si>
+    <t>one's father</t>
+  </si>
+  <si>
+    <t>fen</t>
+  </si>
+  <si>
+    <t>to rest</t>
+  </si>
+  <si>
+    <t>ferer</t>
+  </si>
+  <si>
+    <t>a domesticated cat</t>
+  </si>
+  <si>
+    <t>fir</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>firg</t>
+  </si>
+  <si>
+    <t>a finger</t>
+  </si>
+  <si>
+    <t>firs</t>
+  </si>
+  <si>
+    <t>a tail</t>
+  </si>
+  <si>
+    <t>fjol</t>
+  </si>
+  <si>
+    <t>fast, or quick</t>
+  </si>
+  <si>
+    <t>fjolpla</t>
+  </si>
+  <si>
+    <t>used to describe anything used to transport over water; a boat.</t>
+  </si>
+  <si>
+    <t>fla</t>
+  </si>
+  <si>
+    <t>to use, or make use of</t>
+  </si>
+  <si>
+    <t>fod</t>
+  </si>
+  <si>
+    <t>incorrect, wrong, or false</t>
+  </si>
+  <si>
+    <t>tif</t>
+  </si>
+  <si>
+    <t>folvik</t>
+  </si>
+  <si>
+    <t>to defend, protect, or repel</t>
+  </si>
+  <si>
+    <t>fom</t>
+  </si>
+  <si>
+    <t>1: an unknown amount of. 2: something that is random.</t>
+  </si>
+  <si>
+    <t>fosgred</t>
+  </si>
+  <si>
+    <t>one's daughter</t>
+  </si>
+  <si>
+    <t>fresdi</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>frig</t>
+  </si>
+  <si>
+    <t>used to describe something that is cold (temperature)</t>
+  </si>
+  <si>
+    <t>fulg</t>
+  </si>
+  <si>
+    <t>morally evil</t>
+  </si>
+  <si>
+    <t>jomur</t>
+  </si>
+  <si>
+    <t>fûr</t>
+  </si>
+  <si>
+    <t>size, scale, or mass of</t>
+  </si>
+  <si>
+    <t>fyrif</t>
+  </si>
+  <si>
+    <t>mead</t>
+  </si>
+  <si>
+    <t>gær</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>gær plor</t>
+  </si>
+  <si>
+    <t>a pencil. literally means 'wood quill'</t>
+  </si>
+  <si>
+    <t>galar</t>
+  </si>
+  <si>
+    <t>1: to sieze, or capture. 2: to take, grab or move forcefully.</t>
+  </si>
+  <si>
+    <t>galdr</t>
+  </si>
+  <si>
+    <t>orange (color)</t>
+  </si>
+  <si>
+    <t>galk</t>
+  </si>
+  <si>
+    <t>a duck</t>
+  </si>
+  <si>
+    <t>galrig</t>
+  </si>
+  <si>
+    <t>to attack</t>
+  </si>
+  <si>
+    <t>galv</t>
+  </si>
+  <si>
+    <t>the weight of an object</t>
+  </si>
+  <si>
+    <t>galvir</t>
+  </si>
+  <si>
+    <t>being heavy</t>
+  </si>
+  <si>
+    <t>gard</t>
+  </si>
+  <si>
+    <t>one's husband</t>
+  </si>
+  <si>
+    <t>garv</t>
+  </si>
+  <si>
+    <t>a cart, or wagon</t>
+  </si>
+  <si>
+    <t>gatve</t>
+  </si>
+  <si>
+    <t>to annoy</t>
+  </si>
+  <si>
+    <t>gazr</t>
+  </si>
+  <si>
+    <t>to be angry</t>
+  </si>
+  <si>
+    <t>gef</t>
+  </si>
+  <si>
+    <t>a stick</t>
+  </si>
+  <si>
+    <t>geil</t>
+  </si>
+  <si>
+    <t>to shout, or yell</t>
+  </si>
+  <si>
+    <t>gevtir</t>
+  </si>
+  <si>
+    <t>a storm</t>
+  </si>
+  <si>
+    <t>gidhom</t>
+  </si>
+  <si>
+    <t>1: a shadow. 2: darkness. (don't forget to add suffixes)</t>
+  </si>
+  <si>
+    <t>gilja</t>
+  </si>
+  <si>
+    <t>to gibber</t>
+  </si>
+  <si>
+    <t>glæn</t>
+  </si>
+  <si>
+    <t>to buy</t>
+  </si>
+  <si>
+    <t>glan</t>
+  </si>
+  <si>
+    <t>1: something that is bright (visually). 2: the shine of something shiny.</t>
+  </si>
+  <si>
+    <t>gle</t>
+  </si>
+  <si>
+    <t>to act, do, or make</t>
+  </si>
+  <si>
+    <t>gledul</t>
+  </si>
+  <si>
+    <t>1: to work for. 2: to work as. 3: job/occupation.</t>
+  </si>
+  <si>
+    <t>gleid</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>glid</t>
+  </si>
+  <si>
+    <t>to get, take, gain or recieve</t>
+  </si>
+  <si>
+    <t>glof</t>
+  </si>
+  <si>
+    <t>being fat</t>
+  </si>
+  <si>
+    <t>glov</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>glyn</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>gol</t>
+  </si>
+  <si>
+    <t>1: a pole, staff, or scepter. 2: a long rod that is over a meter.</t>
+  </si>
+  <si>
+    <t>gop</t>
+  </si>
+  <si>
+    <t>to grab, or snatch</t>
+  </si>
+  <si>
+    <t>gor</t>
+  </si>
+  <si>
+    <t>a humanoid male</t>
+  </si>
+  <si>
+    <t>gort</t>
+  </si>
+  <si>
+    <t>1: hurt, or injured. 2: to hurt.</t>
+  </si>
+  <si>
+    <t>grast</t>
+  </si>
+  <si>
+    <t>disgust, or gross</t>
+  </si>
+  <si>
+    <t>gren</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>grûl</t>
+  </si>
+  <si>
+    <t>a mace</t>
+  </si>
+  <si>
+    <t>gûb</t>
+  </si>
+  <si>
+    <t>a goose</t>
+  </si>
+  <si>
+    <t>gug</t>
+  </si>
+  <si>
+    <t>rude, mean or impolite</t>
+  </si>
+  <si>
+    <t>gûl</t>
+  </si>
+  <si>
+    <t>a year</t>
+  </si>
+  <si>
+    <t>guld</t>
+  </si>
+  <si>
+    <t>to drink, or consume liquids</t>
+  </si>
+  <si>
+    <t>gund</t>
+  </si>
+  <si>
+    <t>1: physically weak. 2: a defensible thing that is weak. 3: prone to sickness and disease.</t>
+  </si>
+  <si>
+    <t>gundrgi</t>
+  </si>
+  <si>
+    <t>the weakness of something</t>
+  </si>
+  <si>
+    <t>gvolp</t>
+  </si>
+  <si>
+    <t>a group, crowd, or a set (like a lego set)</t>
+  </si>
+  <si>
+    <t>hæges</t>
+  </si>
+  <si>
+    <t>something that can be seen; visible</t>
+  </si>
+  <si>
+    <t>something that is young, or new</t>
+  </si>
+  <si>
+    <t>hær</t>
+  </si>
+  <si>
+    <t>to hear, or listen</t>
+  </si>
+  <si>
+    <t>hærdla</t>
+  </si>
+  <si>
+    <t>an ear of a creature</t>
+  </si>
+  <si>
+    <t>hæs</t>
+  </si>
+  <si>
+    <t>to see, watch, or look at</t>
+  </si>
+  <si>
+    <t>hagrur</t>
+  </si>
+  <si>
+    <t>to fight</t>
+  </si>
+  <si>
+    <t>hagt'ap skog</t>
+  </si>
+  <si>
+    <t>a battleaxe. literally means 'battle-for axe', or 'battle-ready axe' (weapon)</t>
+  </si>
+  <si>
+    <t>hagtol</t>
+  </si>
+  <si>
+    <t>conflict, or war</t>
+  </si>
+  <si>
+    <t>hal</t>
+  </si>
+  <si>
+    <t>a hallway</t>
+  </si>
+  <si>
+    <t>halga</t>
+  </si>
+  <si>
+    <t>hundred</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>haskal</t>
+  </si>
+  <si>
+    <t>thunder/the sound of lightning</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>to sit</t>
+  </si>
+  <si>
+    <t>hav</t>
+  </si>
+  <si>
+    <t>future tense. use this before the verb and adverbs.</t>
+  </si>
+  <si>
+    <t>havæges</t>
+  </si>
+  <si>
+    <t>to appear</t>
+  </si>
+  <si>
+    <t>ikæges</t>
+  </si>
+  <si>
+    <t>havaldr</t>
+  </si>
+  <si>
+    <t>a mortal, or someone who can die of age</t>
+  </si>
+  <si>
+    <t>havr</t>
+  </si>
+  <si>
+    <t>to want, or wish</t>
+  </si>
+  <si>
+    <t>heg</t>
+  </si>
+  <si>
+    <t>to eat, or consume solids</t>
+  </si>
+  <si>
+    <t>heim</t>
+  </si>
+  <si>
+    <t>a house, or one's home</t>
+  </si>
+  <si>
+    <t>hel</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>helfulg</t>
+  </si>
+  <si>
+    <t>a fiend. literally means 'evil thing from hell'</t>
+  </si>
+  <si>
+    <t>helg</t>
+  </si>
+  <si>
+    <t>a helmet</t>
+  </si>
+  <si>
+    <t>hir</t>
+  </si>
+  <si>
+    <t>a kid, or child</t>
+  </si>
+  <si>
+    <t>hom</t>
+  </si>
+  <si>
+    <t>the light</t>
+  </si>
+  <si>
+    <t>hov</t>
+  </si>
+  <si>
+    <t>equal, or being the same</t>
+  </si>
+  <si>
+    <t>hruld</t>
+  </si>
+  <si>
+    <t>a wizard</t>
+  </si>
+  <si>
+    <t>huld</t>
+  </si>
+  <si>
+    <t>a horse</t>
+  </si>
+  <si>
+    <t>hunan</t>
+  </si>
+  <si>
+    <t>the honey of bees</t>
+  </si>
+  <si>
+    <t>hûv</t>
+  </si>
+  <si>
+    <t>to push</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>if, in case, or on a condition</t>
+  </si>
+  <si>
+    <t>igblab</t>
+  </si>
+  <si>
+    <t>a chicken</t>
+  </si>
+  <si>
+    <t>ik</t>
+  </si>
+  <si>
+    <t>not, or negator. explained in 'morphemes'.</t>
+  </si>
+  <si>
+    <t>to disappear, or vanish</t>
+  </si>
+  <si>
+    <t>impagor</t>
+  </si>
+  <si>
+    <t>a picture, or an image</t>
+  </si>
+  <si>
+    <t>itar</t>
+  </si>
+  <si>
+    <t>an itch</t>
+  </si>
+  <si>
+    <t>itlon</t>
+  </si>
+  <si>
+    <t>to arrive at</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>yes, as in 'yes, i did', or 'yes, you may'.</t>
+  </si>
+  <si>
+    <t>vo</t>
+  </si>
+  <si>
+    <t>jadre</t>
+  </si>
+  <si>
+    <t>jade</t>
+  </si>
+  <si>
+    <t>jæl</t>
+  </si>
+  <si>
+    <t>1: god. 2: a deity.</t>
+  </si>
+  <si>
+    <t>jævil</t>
+  </si>
+  <si>
+    <t>being intelligent, smart, or bright (mentally)</t>
+  </si>
+  <si>
+    <t>jævûnil</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>jaglyd</t>
+  </si>
+  <si>
+    <t>to be born</t>
+  </si>
+  <si>
+    <t>jagt</t>
+  </si>
+  <si>
+    <t>used to describe a bitter taste</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>on, or onto</t>
+  </si>
+  <si>
+    <t>janva</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>jap</t>
+  </si>
+  <si>
+    <t>1: one's hope. 2: to hope for.</t>
+  </si>
+  <si>
+    <t>japvir</t>
+  </si>
+  <si>
+    <t>one's despair</t>
+  </si>
+  <si>
+    <t>javfer</t>
+  </si>
+  <si>
+    <t>to weave, knit or sow clothing</t>
+  </si>
+  <si>
+    <t>jeg</t>
+  </si>
+  <si>
+    <t>1: be, or act as something. 2: is, are, am.</t>
+  </si>
+  <si>
+    <t>1: used to describe if one has done well. 2: skilled at. 3: used to describe the situation is going well.</t>
+  </si>
+  <si>
+    <t>jomsald</t>
+  </si>
+  <si>
+    <t>hello, or hi. translated directly into "good far".</t>
+  </si>
+  <si>
+    <t>morally good</t>
+  </si>
+  <si>
+    <t>jrg</t>
+  </si>
+  <si>
+    <t>1: cattle. 2: a bull, or a cow.</t>
+  </si>
+  <si>
+    <t>jû</t>
+  </si>
+  <si>
+    <t>rainwater</t>
+  </si>
+  <si>
+    <t>jûmor</t>
+  </si>
+  <si>
+    <t>a king, or a male monarch</t>
+  </si>
+  <si>
+    <t>jûmorlorvet</t>
+  </si>
+  <si>
+    <t>a kingdom. literally means 'kings land'</t>
+  </si>
+  <si>
+    <t>jûr</t>
+  </si>
+  <si>
+    <t>a lord, jarl or earl</t>
+  </si>
+  <si>
+    <t>kal</t>
+  </si>
+  <si>
+    <t>a cup. mug, or tankard</t>
+  </si>
+  <si>
+    <t>kald</t>
+  </si>
+  <si>
+    <t>pants, or shorts (legwear)</t>
+  </si>
+  <si>
+    <t>kirselreg</t>
+  </si>
+  <si>
+    <t>any type of military fortification</t>
+  </si>
+  <si>
+    <t>kirserig</t>
+  </si>
+  <si>
+    <t>a structure where soldiers residue</t>
+  </si>
+  <si>
+    <t>klæd</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>klædvin</t>
+  </si>
+  <si>
+    <t>any cloth attire, or apparel; clothing.</t>
+  </si>
+  <si>
+    <t>kledvant</t>
+  </si>
+  <si>
+    <t>a gambeson, or padded armor</t>
+  </si>
+  <si>
+    <t>klid</t>
+  </si>
+  <si>
+    <t>chain mail</t>
+  </si>
+  <si>
+    <t>korpæt</t>
+  </si>
+  <si>
+    <t>complete (the adjective, not the verb), or absolute</t>
+  </si>
+  <si>
+    <t>kyræm</t>
+  </si>
+  <si>
+    <t>a sword (weapon)</t>
+  </si>
+  <si>
+    <t>lægi</t>
+  </si>
+  <si>
+    <t>a language</t>
+  </si>
+  <si>
+    <t>laftaln</t>
+  </si>
+  <si>
+    <t>the most liked; favorite</t>
+  </si>
+  <si>
+    <t>lagi</t>
+  </si>
+  <si>
+    <t>to speak, talk, or to say something</t>
+  </si>
+  <si>
+    <t>lalvdr</t>
+  </si>
+  <si>
+    <t>a fish</t>
+  </si>
+  <si>
+    <t>lanyr</t>
+  </si>
+  <si>
+    <t>while, or when the time comes</t>
+  </si>
+  <si>
+    <t>larfror</t>
+  </si>
+  <si>
+    <t>a flower</t>
+  </si>
+  <si>
+    <t>leif</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>leif-ezrig</t>
+  </si>
+  <si>
+    <t>a butterfly. literally means 'beautiful bug'</t>
+  </si>
+  <si>
+    <t>leivær</t>
+  </si>
+  <si>
+    <t>a pedestal</t>
+  </si>
+  <si>
+    <t>linsosvir</t>
+  </si>
+  <si>
+    <t>something that is very small; minuscule</t>
+  </si>
+  <si>
+    <t>linsûr</t>
+  </si>
+  <si>
+    <t>a place, or location</t>
+  </si>
+  <si>
+    <t>lis</t>
+  </si>
+  <si>
+    <t>something that is small, or little</t>
+  </si>
+  <si>
+    <t>lis fjolpla</t>
+  </si>
+  <si>
+    <t>a raft. literally means 'small boat'</t>
+  </si>
+  <si>
+    <t>lis huld</t>
+  </si>
+  <si>
+    <t>a pony. literally means 'small horse'</t>
+  </si>
+  <si>
+    <t>lof</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>equivalent to and, or then</t>
+  </si>
+  <si>
+    <t>lorso</t>
+  </si>
+  <si>
+    <t>many, much, several, or a lot of</t>
+  </si>
+  <si>
+    <t>lorvet</t>
+  </si>
+  <si>
+    <t>1: the ground. 2: land, or territory.</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>to like</t>
+  </si>
+  <si>
+    <t>lûdor</t>
+  </si>
+  <si>
+    <t>a horn, or the antlers of an animal</t>
+  </si>
+  <si>
+    <t>lûdor jrg</t>
+  </si>
+  <si>
+    <t>a yak</t>
+  </si>
+  <si>
+    <t>luf</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>lug</t>
+  </si>
+  <si>
+    <t>a leg of a creature</t>
+  </si>
+  <si>
+    <t>lûglar</t>
+  </si>
+  <si>
+    <t>1: a question. 2: to ask a question. 3. a question given by someone to solve.</t>
+  </si>
+  <si>
+    <t>lûil</t>
+  </si>
+  <si>
+    <t>1: life. 2: one that is alive, or still living.</t>
+  </si>
+  <si>
+    <t>væk</t>
+  </si>
+  <si>
+    <t>lur</t>
+  </si>
+  <si>
+    <t>1: more. 2: more indicator for verbs, adj and adv. example: 'longer!' = 'more long!'</t>
+  </si>
+  <si>
+    <t>lur dervda</t>
+  </si>
+  <si>
+    <t>a pike, or a long spear (weapon)</t>
+  </si>
+  <si>
+    <t>lur fjolpla</t>
+  </si>
+  <si>
+    <t>a longboat. literally means 'long boat'</t>
+  </si>
+  <si>
+    <t>lur kyræm</t>
+  </si>
+  <si>
+    <t>a longsword (weapon)</t>
+  </si>
+  <si>
+    <t>lur lagi</t>
+  </si>
+  <si>
+    <t>1: to give a speech, or to lecture. 2: a speech or lecture.</t>
+  </si>
+  <si>
+    <t>lur skog</t>
+  </si>
+  <si>
+    <t>a longaxe, or a dane axe. (weapon)</t>
+  </si>
+  <si>
+    <t>lurul</t>
+  </si>
+  <si>
+    <t>to help</t>
+  </si>
+  <si>
+    <t>lutamr</t>
+  </si>
+  <si>
+    <t>the future time, or after</t>
+  </si>
+  <si>
+    <t>lûven</t>
+  </si>
+  <si>
+    <t>equivalent of love</t>
+  </si>
+  <si>
+    <t>mær</t>
+  </si>
+  <si>
+    <t>1: meaning, or the meaning of. 2: to mean something.</t>
+  </si>
+  <si>
+    <t>maglon</t>
+  </si>
+  <si>
+    <t>million</t>
+  </si>
+  <si>
+    <t>mam</t>
+  </si>
+  <si>
+    <t>one's mother</t>
+  </si>
+  <si>
+    <t>mavjeg</t>
+  </si>
+  <si>
+    <t>maybe, might be, or could be</t>
+  </si>
+  <si>
+    <t>meldur</t>
+  </si>
+  <si>
+    <t>to share</t>
+  </si>
+  <si>
+    <t>mevol</t>
+  </si>
+  <si>
+    <t>the head of a creature</t>
+  </si>
+  <si>
+    <t>minad</t>
+  </si>
+  <si>
+    <t>1: the mind of someone. 2: the thoughts of someone.</t>
+  </si>
+  <si>
+    <t>mobre</t>
+  </si>
+  <si>
+    <t>marble</t>
+  </si>
+  <si>
+    <t>mos kyræm</t>
+  </si>
+  <si>
+    <t>a shortsword (weapon)</t>
+  </si>
+  <si>
+    <t>mot</t>
+  </si>
+  <si>
+    <t>the mouth of a creature</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>equivalent to should</t>
+  </si>
+  <si>
+    <t>mûal</t>
+  </si>
+  <si>
+    <t>to kiss</t>
+  </si>
+  <si>
+    <t>mûald</t>
+  </si>
+  <si>
+    <t>1: something that is real. 2: not fake.</t>
+  </si>
+  <si>
+    <t>mur</t>
+  </si>
+  <si>
+    <t>to be sad, or feeling down</t>
+  </si>
+  <si>
+    <t>murk</t>
+  </si>
+  <si>
+    <t>weird, or twisted</t>
+  </si>
+  <si>
+    <t>myr</t>
+  </si>
+  <si>
+    <t>someone's eye</t>
+  </si>
+  <si>
+    <t>nalver</t>
+  </si>
+  <si>
+    <t>a shoe</t>
+  </si>
+  <si>
+    <t>navr</t>
+  </si>
+  <si>
+    <t>1: one's name. when asked, the word usually means the full name. 2: the name of something.</t>
+  </si>
+  <si>
+    <t>never before</t>
+  </si>
+  <si>
+    <t>evtamr, tampût</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>refers to a male. equivalent to he, him, and his.</t>
+  </si>
+  <si>
+    <t>nedvir</t>
+  </si>
+  <si>
+    <t>to need, or require</t>
+  </si>
+  <si>
+    <t>nit</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>stone, or rock</t>
+  </si>
+  <si>
+    <t>norl</t>
+  </si>
+  <si>
+    <t>beside</t>
+  </si>
+  <si>
+    <t>nus</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>nyval</t>
+  </si>
+  <si>
+    <t>someone who is crazy, insane, or twisted</t>
+  </si>
+  <si>
+    <t>olbr</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>ordun</t>
+  </si>
+  <si>
+    <t>1: to think of. 2: to remember, or recall. 3: suppose, or guess.</t>
+  </si>
+  <si>
+    <t>orelg</t>
+  </si>
+  <si>
+    <t>the earth</t>
+  </si>
+  <si>
+    <t>orul</t>
+  </si>
+  <si>
+    <t>an orb, usually made of crystal or glass</t>
+  </si>
+  <si>
+    <t>paldun</t>
+  </si>
+  <si>
+    <t>purple, or violet</t>
+  </si>
+  <si>
+    <t>palfar</t>
+  </si>
+  <si>
+    <t>to pull</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>the present time, or now</t>
+  </si>
+  <si>
+    <t>pargad</t>
+  </si>
+  <si>
+    <t>to hit</t>
+  </si>
+  <si>
+    <t>parlar</t>
+  </si>
+  <si>
+    <t>any type of spice</t>
+  </si>
+  <si>
+    <t>parva</t>
+  </si>
+  <si>
+    <t>currently</t>
+  </si>
+  <si>
+    <t>povri</t>
+  </si>
+  <si>
+    <t>parvi</t>
+  </si>
+  <si>
+    <t>equivalent to feces, or poop</t>
+  </si>
+  <si>
+    <t>patrnig</t>
+  </si>
+  <si>
+    <t>a painting</t>
+  </si>
+  <si>
+    <t>pav</t>
+  </si>
+  <si>
+    <t>to give, or grant</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>equivalent of the</t>
+  </si>
+  <si>
+    <t>peim</t>
+  </si>
+  <si>
+    <t>a piece, fragment, or part</t>
+  </si>
+  <si>
+    <t>pla</t>
+  </si>
+  <si>
+    <t>a plank of wood</t>
+  </si>
+  <si>
+    <t>plor</t>
+  </si>
+  <si>
+    <t>a quill</t>
+  </si>
+  <si>
+    <t>plorvlar</t>
+  </si>
+  <si>
+    <t>used to describe a sour taste</t>
+  </si>
+  <si>
+    <t>plûb</t>
+  </si>
+  <si>
+    <t>a bird</t>
+  </si>
+  <si>
+    <t>polfir</t>
+  </si>
+  <si>
+    <t>1: to worry about. 2: to care for someone.</t>
+  </si>
+  <si>
+    <t>pordun</t>
+  </si>
+  <si>
+    <t>a boot from a pair of boots</t>
+  </si>
+  <si>
+    <t>pov</t>
+  </si>
+  <si>
+    <t>1: the past time, or before. 2: previous, or last.</t>
+  </si>
+  <si>
+    <t>povva</t>
+  </si>
+  <si>
+    <t>previously</t>
+  </si>
+  <si>
+    <t>parri</t>
+  </si>
+  <si>
+    <t>pûk</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>to prohibit.</t>
+  </si>
+  <si>
+    <t>ralm</t>
+  </si>
+  <si>
+    <t>a sprout, or shoot of a plant</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>a mouse, or a rat</t>
+  </si>
+  <si>
+    <t>rom</t>
+  </si>
+  <si>
+    <t>a room</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>equivalent to you</t>
+  </si>
+  <si>
+    <t>rûdag</t>
+  </si>
+  <si>
+    <t>rules, or law</t>
+  </si>
+  <si>
+    <t>rul</t>
+  </si>
+  <si>
+    <t>to reign, or rule</t>
+  </si>
+  <si>
+    <t>rym</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>sæf</t>
+  </si>
+  <si>
+    <t>one's wife</t>
+  </si>
+  <si>
+    <t>sær</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>sar</t>
+  </si>
+  <si>
+    <t>saf</t>
+  </si>
+  <si>
+    <t>a leaf</t>
+  </si>
+  <si>
+    <t>sag</t>
+  </si>
+  <si>
+    <t>a knife, dagger, or dirk (weapon)</t>
+  </si>
+  <si>
+    <t>sak</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>sald</t>
+  </si>
+  <si>
+    <t>far, or far away</t>
+  </si>
+  <si>
+    <t>salf</t>
+  </si>
+  <si>
+    <t>the state of health of one's body</t>
+  </si>
+  <si>
+    <t>salfri</t>
+  </si>
+  <si>
+    <t>being healthy</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>sart</t>
+  </si>
+  <si>
+    <t>grass</t>
+  </si>
+  <si>
+    <t>sartfen</t>
+  </si>
+  <si>
+    <t>a bed</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>that, or it</t>
+  </si>
+  <si>
+    <t>satle</t>
+  </si>
+  <si>
+    <t>equivalent of those, plural of that</t>
+  </si>
+  <si>
+    <t>saveik</t>
+  </si>
+  <si>
+    <t>to scream</t>
+  </si>
+  <si>
+    <t>savût</t>
+  </si>
+  <si>
+    <t>a ghost, or a spirit</t>
+  </si>
+  <si>
+    <t>sef</t>
+  </si>
+  <si>
+    <t>to thank something</t>
+  </si>
+  <si>
+    <t>segef</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>segefri</t>
+  </si>
+  <si>
+    <t>used to describe a sweet taste</t>
+  </si>
+  <si>
+    <t>seir</t>
+  </si>
+  <si>
+    <t>gray, or grey</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>selgvot</t>
+  </si>
+  <si>
+    <t>used to refer something that has rotten</t>
+  </si>
+  <si>
+    <t>selk</t>
+  </si>
+  <si>
+    <t>to rot</t>
+  </si>
+  <si>
+    <t>sergval</t>
+  </si>
+  <si>
+    <t>refers to a humanoid creature; person.</t>
+  </si>
+  <si>
+    <t>sert</t>
+  </si>
+  <si>
+    <t>1: a tunic, or a long sleeved shirt. 2: a chain mail hauberk.</t>
+  </si>
+  <si>
+    <t>sfov</t>
+  </si>
+  <si>
+    <t>the nose of a creature</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>sigle</t>
+  </si>
+  <si>
+    <t>equivalent of these, plural of this</t>
+  </si>
+  <si>
+    <t>sil</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>siv</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>skal</t>
+  </si>
+  <si>
+    <t>must, shall or have to</t>
+  </si>
+  <si>
+    <t>skobal</t>
+  </si>
+  <si>
+    <t>to shoot, or fire a weapon</t>
+  </si>
+  <si>
+    <t>skog</t>
+  </si>
+  <si>
+    <t>an axe (weapon)</t>
+  </si>
+  <si>
+    <t>solmun</t>
+  </si>
+  <si>
+    <t>equivalent to nothing</t>
+  </si>
+  <si>
+    <t>sor</t>
+  </si>
+  <si>
+    <t>a humanoid female</t>
+  </si>
+  <si>
+    <t>sorp</t>
+  </si>
+  <si>
+    <t>falling down</t>
+  </si>
+  <si>
+    <t>sref</t>
+  </si>
+  <si>
+    <t>sot</t>
+  </si>
+  <si>
+    <t>under, or below</t>
+  </si>
+  <si>
+    <t>spûva</t>
+  </si>
+  <si>
+    <t>1: play. 2: silly (don't forget to add the appropriate suffix)</t>
+  </si>
+  <si>
+    <t>to fly</t>
+  </si>
+  <si>
+    <t>storn</t>
+  </si>
+  <si>
+    <t>a story, or a length of text telling a story</t>
+  </si>
+  <si>
+    <t>sulf</t>
+  </si>
+  <si>
+    <t>fur, or hair</t>
+  </si>
+  <si>
+    <t>sulfgor</t>
+  </si>
+  <si>
+    <t>a primate</t>
+  </si>
+  <si>
+    <t>sur</t>
+  </si>
+  <si>
+    <t>refers to a female. equivalent to she, and her.</t>
+  </si>
+  <si>
+    <t>svus</t>
+  </si>
+  <si>
+    <t>to write, or print</t>
+  </si>
+  <si>
+    <t>svusor</t>
+  </si>
+  <si>
+    <t>to send</t>
+  </si>
+  <si>
+    <t>talavûr</t>
+  </si>
+  <si>
+    <t>1: the design of, or the looks of. 2: designing. (don't forget the verb tenses!)</t>
+  </si>
+  <si>
+    <t>talg</t>
+  </si>
+  <si>
+    <t>being skinny</t>
+  </si>
+  <si>
+    <t>talyg</t>
+  </si>
+  <si>
+    <t>used to describe anything that is an object</t>
+  </si>
+  <si>
+    <t>tam</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>tam-ûn</t>
+  </si>
+  <si>
+    <t>eleven</t>
+  </si>
+  <si>
+    <t>tampût</t>
+  </si>
+  <si>
+    <t>something that was done again</t>
+  </si>
+  <si>
+    <t>tanlar</t>
+  </si>
+  <si>
+    <t>to read</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>start, or begin an action or process</t>
+  </si>
+  <si>
+    <t>tarfa</t>
+  </si>
+  <si>
+    <t>to raid, or pillage</t>
+  </si>
+  <si>
+    <t>tastan</t>
+  </si>
+  <si>
+    <t>thousand</t>
+  </si>
+  <si>
     <t>teim</t>
   </si>
   <si>
-    <t>RULES</t>
-  </si>
-  <si>
-    <t>Examples</t>
-  </si>
-  <si>
-    <t>ægi</t>
-  </si>
-  <si>
-    <t>very, or really</t>
-  </si>
-  <si>
-    <t>negator/not (ik)</t>
-  </si>
-  <si>
-    <t>before word</t>
-  </si>
-  <si>
-    <t>ik dæn = not can (cannot/can't)</t>
-  </si>
-  <si>
-    <t>Contains?</t>
-  </si>
-  <si>
-    <t>1. Use the SVO order.</t>
-  </si>
-  <si>
-    <t>Al lot sig nor. (I like this rock.)</t>
-  </si>
-  <si>
-    <t>ægi lis</t>
-  </si>
-  <si>
-    <t>something that is tiny</t>
-  </si>
-  <si>
-    <t>very, or really (ægi)</t>
-  </si>
-  <si>
-    <t>after word</t>
-  </si>
-  <si>
-    <t>nus ægi blûlr = blue very robes (very blue robes)</t>
-  </si>
-  <si>
-    <t>understand</t>
-  </si>
-  <si>
-    <t>2. Use as little words as possible.</t>
-  </si>
-  <si>
-    <t>Al atr Alti heim. (I go I own home.) (because atr means "to go, or move to", we don't need an extra "to")</t>
-  </si>
-  <si>
-    <t>æner</t>
-  </si>
-  <si>
-    <t>early</t>
-  </si>
-  <si>
-    <t>dolfar</t>
-  </si>
-  <si>
-    <t>past tense/ed (-de)</t>
-  </si>
-  <si>
-    <t>suffix</t>
-  </si>
-  <si>
-    <t>davde = ran</t>
-  </si>
-  <si>
-    <t>3. Follow the morpheme rules.</t>
-  </si>
-  <si>
-    <t>Al davde sar. (I runned there.) (You follow the morpheme rules. Ran = Run (verb) + ed (past tense).)</t>
-  </si>
-  <si>
-    <t>æt</t>
-  </si>
-  <si>
-    <t>out, or out of</t>
-  </si>
-  <si>
-    <t>present tense/ing (parva)</t>
-  </si>
-  <si>
-    <t>dav parva = run currently (running)</t>
-  </si>
-  <si>
-    <t>4. Word order does not change in a question.</t>
-  </si>
-  <si>
-    <t>"What is this thing?" turns into "What this thing is?"</t>
-  </si>
-  <si>
-    <t>af</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>future tense/will (hav)</t>
-  </si>
-  <si>
-    <t>hav dav = will run</t>
-  </si>
-  <si>
-    <t>SENTENCES</t>
-  </si>
-  <si>
-    <t>afa</t>
-  </si>
-  <si>
-    <t>refers to a group the speaker is in. equivalent to us, and we.</t>
-  </si>
-  <si>
-    <t>plural/s (-le)</t>
-  </si>
-  <si>
-    <t>atelgle = apples</t>
-  </si>
-  <si>
-    <t>Where is/are</t>
-  </si>
-  <si>
-    <t>Lan linsûr ru? (What place you? Proper english: Where are you?)</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>about something, or the properties of</t>
-  </si>
-  <si>
-    <t>singular/a (ûn)</t>
-  </si>
-  <si>
-    <t>ûn atelg = one apple (an apple)</t>
-  </si>
-  <si>
-    <t>How did</t>
-  </si>
-  <si>
-    <t>Lan ru glede? (What you did? Proper english: How did you do that? or What have you done?)</t>
-  </si>
-  <si>
-    <t>aht</t>
-  </si>
-  <si>
-    <t>eight</t>
-  </si>
-  <si>
-    <t>possessive (ti)</t>
-  </si>
-  <si>
-    <t>after pronoun</t>
-  </si>
-  <si>
-    <t>beigti sulf = dog's fur, alti sig heim = i own this house, matti sert = matt's shirt (if it ends with "tt", it becomes just an I)</t>
-  </si>
-  <si>
-    <t>How did #2</t>
-  </si>
-  <si>
-    <t>Lan burig sat? (What cause that? Proper english: What happened? or How did it happen? or What caused it?)</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>refers to the speaker. equivalent to i, me, and my.</t>
-  </si>
-  <si>
-    <t>nationality (lot) (like -ian, -ic, -ish, -ese, -i, -an)</t>
-  </si>
-  <si>
-    <t>after nation</t>
-  </si>
-  <si>
-    <t>norvun lot = norvun like (norvunic), eng lot = england like (english)</t>
-  </si>
-  <si>
-    <t>Who</t>
-  </si>
-  <si>
-    <t>Lan servgal ru jeg? (What person be you? Proper english: Who are you?)</t>
-  </si>
-  <si>
-    <t>ald</t>
-  </si>
-  <si>
-    <t>something, or someone that is old</t>
-  </si>
-  <si>
-    <t>hæner</t>
-  </si>
-  <si>
-    <t>language (-lagi) (same thing as above)</t>
-  </si>
-  <si>
-    <t>norvunlagi = norvun speak (norvunic), englagi = england speak (english)</t>
-  </si>
-  <si>
-    <t>What is</t>
-  </si>
-  <si>
-    <t>Lan ûn atelg jeg? (What an apple be? Proper english: What is an apple?)</t>
-  </si>
-  <si>
-    <t>algbod</t>
-  </si>
-  <si>
-    <t>1: a problem. 2: trouble</t>
-  </si>
-  <si>
-    <t>likeness/ly, ness or ful (-vol)</t>
-  </si>
-  <si>
-    <t>fjolva = quickly, ru jeg leifa = you are beautiful (if it ends with f, only do "a")</t>
-  </si>
-  <si>
-    <t>What time</t>
-  </si>
-  <si>
-    <t>Lan tervin par jeg? (What time now be? Proper english: What time is it?)</t>
-  </si>
-  <si>
-    <t>alglo</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>weather/ing (sorp)</t>
-  </si>
-  <si>
-    <t>pa jû jeg sorp parva = the rainwater be falling (it's raining)</t>
-  </si>
-  <si>
-    <t>When</t>
-  </si>
-  <si>
-    <t>Lan tervin hav sat alp? (When will it come?)</t>
-  </si>
-  <si>
-    <t>alp</t>
-  </si>
-  <si>
-    <t>come here</t>
-  </si>
-  <si>
-    <t>ready ('ap)</t>
-  </si>
-  <si>
-    <t>hagt'ap skog = battle-for axe (axe for battle)</t>
-  </si>
-  <si>
-    <t>altûgar</t>
-  </si>
-  <si>
-    <t>1: being brave, or bold. 2: bravery.</t>
-  </si>
-  <si>
-    <t>most/est (-je)</t>
-  </si>
-  <si>
-    <t>bagje = biggest, dagnulje = most powerful</t>
-  </si>
-  <si>
-    <t>antul</t>
-  </si>
-  <si>
-    <t>any type of armor</t>
-  </si>
-  <si>
-    <t>ap</t>
-  </si>
-  <si>
-    <t>for. can be used as a suffix, explained in 'morphemes'.</t>
-  </si>
-  <si>
-    <t>arandas</t>
-  </si>
-  <si>
-    <t>the moon</t>
-  </si>
-  <si>
-    <t>arfjor</t>
-  </si>
-  <si>
-    <t>1: one's fears. 2: being afraid of something.</t>
-  </si>
-  <si>
-    <t>argedr</t>
-  </si>
-  <si>
-    <t>magenta</t>
-  </si>
-  <si>
-    <t>note: search WIP, and give the words some meaning</t>
-  </si>
-  <si>
-    <t>armur</t>
-  </si>
-  <si>
-    <t>an arm of a creature</t>
-  </si>
-  <si>
-    <t>atag</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>atelg</t>
-  </si>
-  <si>
-    <t>an apple</t>
-  </si>
-  <si>
-    <t>atr</t>
-  </si>
-  <si>
-    <t>1: to go, or move to. 2: to place, or put. 3: to move.</t>
-  </si>
-  <si>
-    <t>azalûil</t>
-  </si>
-  <si>
-    <t>an animal</t>
-  </si>
-  <si>
-    <t>azamurk</t>
-  </si>
-  <si>
-    <t>a monster, or an unknown creature</t>
-  </si>
-  <si>
-    <t>azar</t>
-  </si>
-  <si>
-    <t>used to describe something that is hot (temperature)</t>
-  </si>
-  <si>
-    <t>azarvæk</t>
-  </si>
-  <si>
-    <t>the sun</t>
-  </si>
-  <si>
-    <t>azened</t>
-  </si>
-  <si>
-    <t>an luxurious inn, or hotel</t>
-  </si>
-  <si>
-    <t>azom</t>
-  </si>
-  <si>
-    <t>equivalent to fire</t>
-  </si>
-  <si>
-    <t>azugor</t>
-  </si>
-  <si>
-    <t>1: norvunic name for a ranastar. 2: an anthropomorphic animal.</t>
-  </si>
-  <si>
-    <t>bafrud</t>
-  </si>
-  <si>
-    <t>ready for; prepared for</t>
-  </si>
-  <si>
-    <t>bag</t>
-  </si>
-  <si>
-    <t>big, vast, massive, or great</t>
-  </si>
-  <si>
-    <t>bagt</t>
-  </si>
-  <si>
-    <t>battle, or any large-scale fight</t>
-  </si>
-  <si>
-    <t>bakt</t>
-  </si>
-  <si>
-    <t>1: an actual curse. 2: a swear used, or cuss.</t>
-  </si>
-  <si>
-    <t>balbeig</t>
-  </si>
-  <si>
-    <t>a fox</t>
-  </si>
-  <si>
-    <t>balfjo</t>
-  </si>
-  <si>
-    <t>to break, crack, or damage an object</t>
-  </si>
-  <si>
-    <t>balfjor</t>
-  </si>
-  <si>
-    <t>to destroy something big</t>
-  </si>
-  <si>
-    <t>balg</t>
-  </si>
-  <si>
-    <t>to succumb, or to die to</t>
-  </si>
-  <si>
-    <t>balp</t>
-  </si>
-  <si>
-    <t>to draw</t>
-  </si>
-  <si>
-    <t>baltr</t>
-  </si>
-  <si>
-    <t>equivalent to best</t>
-  </si>
-  <si>
-    <t>barsat</t>
-  </si>
-  <si>
-    <t>mighty</t>
-  </si>
-  <si>
-    <t>basla</t>
-  </si>
-  <si>
-    <t>1: to let, allow, permit, tolerate, or bear something. 2: a permit. 3: may.</t>
-  </si>
-  <si>
-    <t>pûkrol</t>
-  </si>
-  <si>
-    <t>bavgat</t>
-  </si>
-  <si>
-    <t>1: a bastard 2: a mischievous, or naughty person</t>
-  </si>
-  <si>
-    <t>beig</t>
-  </si>
-  <si>
-    <t>a domestivated dog</t>
-  </si>
-  <si>
-    <t>blogvir</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>blot</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>blûlr</t>
-  </si>
-  <si>
-    <t>1: robe, or robes. 2: a dress.</t>
-  </si>
-  <si>
-    <t>boder</t>
-  </si>
-  <si>
-    <t>a storage chest, or a wooden box</t>
-  </si>
-  <si>
-    <t>bof</t>
-  </si>
-  <si>
-    <t>1: to touch, or feel. 2: feeling, emotion, theme, or taste.</t>
-  </si>
-  <si>
-    <t>bor</t>
-  </si>
-  <si>
-    <t>a sphere, or a ball</t>
-  </si>
-  <si>
-    <t>bordyr</t>
-  </si>
-  <si>
-    <t>an idea</t>
-  </si>
-  <si>
-    <t>bort</t>
-  </si>
-  <si>
-    <t>a crossbow bolt, or a magical bolt</t>
-  </si>
-  <si>
-    <t>bosneim</t>
-  </si>
-  <si>
-    <t>a city</t>
-  </si>
-  <si>
-    <t>bov</t>
-  </si>
-  <si>
-    <t>a toe</t>
-  </si>
-  <si>
-    <t>burig</t>
-  </si>
-  <si>
-    <t>the cause of, or reason of</t>
-  </si>
-  <si>
-    <t>bûvt</t>
-  </si>
-  <si>
-    <t>to be curious, or adventurous</t>
-  </si>
-  <si>
-    <t>bûvtol</t>
-  </si>
-  <si>
-    <t>one's interest in something</t>
-  </si>
-  <si>
-    <t>buw</t>
-  </si>
-  <si>
-    <t>a bow (weapon)</t>
-  </si>
-  <si>
-    <t>byr</t>
-  </si>
-  <si>
-    <t>bear</t>
-  </si>
-  <si>
-    <t>dæl</t>
-  </si>
-  <si>
-    <t>but, still, or yet</t>
-  </si>
-  <si>
-    <t>dæn</t>
-  </si>
-  <si>
-    <t>able to do something; can do something.</t>
-  </si>
-  <si>
-    <t>dagnul</t>
-  </si>
-  <si>
-    <t>1: power, or strength. 2: being strong.</t>
-  </si>
-  <si>
-    <t>dal</t>
-  </si>
-  <si>
-    <t>equivalent to day</t>
-  </si>
-  <si>
-    <t>dalf</t>
-  </si>
-  <si>
-    <t>to remove, take off, or doff attire</t>
-  </si>
-  <si>
-    <t>daln</t>
-  </si>
-  <si>
-    <t>to wear, put on, or don attire</t>
-  </si>
-  <si>
-    <t>dalvnin</t>
-  </si>
-  <si>
-    <t>wearing an attire</t>
-  </si>
-  <si>
-    <t>dan</t>
-  </si>
-  <si>
-    <t>one's son</t>
-  </si>
-  <si>
-    <t>dank</t>
-  </si>
-  <si>
-    <t>to dance</t>
-  </si>
-  <si>
-    <t>dargol</t>
-  </si>
-  <si>
-    <t>1: black. 2: a place being dark.</t>
-  </si>
-  <si>
-    <t>dav</t>
-  </si>
-  <si>
-    <t>run, walk quickly</t>
-  </si>
-  <si>
-    <t>davn</t>
-  </si>
-  <si>
-    <t>the meat, or flesh of a creature</t>
-  </si>
-  <si>
-    <t>davu</t>
-  </si>
-  <si>
-    <t>to go pass something/someone in progress</t>
-  </si>
-  <si>
-    <t>der</t>
-  </si>
-  <si>
-    <t>refers to a group. equivalent to they, them and their.</t>
-  </si>
-  <si>
-    <t>dervda</t>
-  </si>
-  <si>
-    <t>a spear (weapon)</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>to walk</t>
-  </si>
-  <si>
-    <t>dit</t>
-  </si>
-  <si>
-    <t>to stab, stick in, insert, pierce or penetrate</t>
-  </si>
-  <si>
-    <t>dituzom</t>
-  </si>
-  <si>
-    <t>used to describe a spicy taste</t>
-  </si>
-  <si>
-    <t>div</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>dol</t>
-  </si>
-  <si>
-    <t>a village, or a town</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>dor</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>dorver</t>
-  </si>
-  <si>
-    <t>to close</t>
-  </si>
-  <si>
-    <t>hanver</t>
-  </si>
-  <si>
-    <t>dov</t>
-  </si>
-  <si>
-    <t>stop, end, complete or finish an action or process</t>
-  </si>
-  <si>
-    <t>tap</t>
-  </si>
-  <si>
-    <t>dovror</t>
-  </si>
-  <si>
-    <t>any type of metal</t>
-  </si>
-  <si>
-    <t>dovyrdal</t>
-  </si>
-  <si>
-    <t>the destiny, fate, result, aftermath, or conclusion of something</t>
-  </si>
-  <si>
-    <t>dûl</t>
-  </si>
-  <si>
-    <t>1: enough. 2: night.</t>
-  </si>
-  <si>
-    <t>dûlne</t>
-  </si>
-  <si>
-    <t>a bean</t>
-  </si>
-  <si>
-    <t>dum</t>
-  </si>
-  <si>
-    <t>equivalent to stupid/dumb</t>
-  </si>
-  <si>
-    <t>durmir</t>
-  </si>
-  <si>
-    <t>a character in a story</t>
-  </si>
-  <si>
-    <t>dûv</t>
-  </si>
-  <si>
-    <t>jump</t>
-  </si>
-  <si>
-    <t>dyr</t>
-  </si>
-  <si>
-    <t>deer</t>
-  </si>
-  <si>
-    <t>dyvot</t>
-  </si>
-  <si>
-    <t>1: used to describe if one has done horribly. 2: unskilled at. 3: used to describe the situation is going bad.</t>
-  </si>
-  <si>
-    <t>jom</t>
-  </si>
-  <si>
-    <t>eirvan</t>
-  </si>
-  <si>
-    <t>a friend, or ally</t>
-  </si>
-  <si>
-    <t>elgek</t>
-  </si>
-  <si>
-    <t>an arrow for a bow</t>
-  </si>
-  <si>
-    <t>elgûnalf</t>
-  </si>
-  <si>
-    <t>an elf</t>
-  </si>
-  <si>
-    <t>ened</t>
-  </si>
-  <si>
-    <t>an inn</t>
-  </si>
-  <si>
-    <t>enf</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
-    <t>olp</t>
-  </si>
-  <si>
-    <t>eninter</t>
-  </si>
-  <si>
-    <t>something that is safe</t>
-  </si>
-  <si>
-    <t>enkar</t>
-  </si>
-  <si>
-    <t>a disease</t>
-  </si>
-  <si>
-    <t>enkord</t>
-  </si>
-  <si>
-    <t>to infect</t>
-  </si>
-  <si>
-    <t>enlûpov</t>
-  </si>
-  <si>
-    <t>1: the knowledge of someone. 2: information.</t>
-  </si>
-  <si>
-    <t>enlut</t>
-  </si>
-  <si>
-    <t>to learn</t>
-  </si>
-  <si>
-    <t>enlutar</t>
-  </si>
-  <si>
-    <t>to know, or understand, or feel someone's feelings</t>
-  </si>
-  <si>
-    <t>envok</t>
-  </si>
-  <si>
-    <t>1: used to describe something is epic. 2: chaos.</t>
-  </si>
-  <si>
-    <t>ern</t>
-  </si>
-  <si>
-    <t>in, or into</t>
-  </si>
-  <si>
-    <t>eserig</t>
-  </si>
-  <si>
-    <t>used to describe any type of magic</t>
-  </si>
-  <si>
-    <t>evlar</t>
-  </si>
-  <si>
-    <t>every, or all</t>
-  </si>
-  <si>
-    <t>evtamr</t>
-  </si>
-  <si>
-    <t>always, or everytime</t>
-  </si>
-  <si>
-    <t>navvar</t>
-  </si>
-  <si>
-    <t>ezrig</t>
-  </si>
-  <si>
-    <t>a bug, or insect</t>
-  </si>
-  <si>
-    <t>fal</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>the sea, ocean, or any giant body of water</t>
-  </si>
-  <si>
-    <t>falsor</t>
-  </si>
-  <si>
-    <t>a mermaid, or siren. literally means 'sea woman'.</t>
-  </si>
-  <si>
-    <t>favr</t>
-  </si>
-  <si>
-    <t>one's father</t>
-  </si>
-  <si>
-    <t>fen</t>
-  </si>
-  <si>
-    <t>to rest</t>
-  </si>
-  <si>
-    <t>ferer</t>
-  </si>
-  <si>
-    <t>a domesticated cat</t>
-  </si>
-  <si>
-    <t>fir</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>firg</t>
-  </si>
-  <si>
-    <t>a finger</t>
-  </si>
-  <si>
-    <t>firs</t>
-  </si>
-  <si>
-    <t>a tail</t>
-  </si>
-  <si>
-    <t>fjol</t>
-  </si>
-  <si>
-    <t>fast, or quick</t>
-  </si>
-  <si>
-    <t>fjolpla</t>
-  </si>
-  <si>
-    <t>used to describe anything used to transport over water; a boat.</t>
-  </si>
-  <si>
-    <t>fla</t>
-  </si>
-  <si>
-    <t>to use, or make use of</t>
-  </si>
-  <si>
-    <t>fod</t>
-  </si>
-  <si>
-    <t>incorrect, wrong, or false</t>
-  </si>
-  <si>
-    <t>tif</t>
-  </si>
-  <si>
-    <t>folvik</t>
-  </si>
-  <si>
-    <t>to defend, protect, or repel</t>
-  </si>
-  <si>
-    <t>fom</t>
-  </si>
-  <si>
-    <t>1: an unknown amount of. 2: something that is random.</t>
-  </si>
-  <si>
-    <t>fosgred</t>
-  </si>
-  <si>
-    <t>one's daughter</t>
-  </si>
-  <si>
-    <t>fresdi</t>
-  </si>
-  <si>
-    <t>snow</t>
-  </si>
-  <si>
-    <t>frig</t>
-  </si>
-  <si>
-    <t>used to describe something that is cold (temperature)</t>
-  </si>
-  <si>
-    <t>fulg</t>
-  </si>
-  <si>
-    <t>morally evil</t>
-  </si>
-  <si>
-    <t>jomur</t>
-  </si>
-  <si>
-    <t>fûr</t>
-  </si>
-  <si>
-    <t>size, scale, or mass of</t>
-  </si>
-  <si>
-    <t>fyrif</t>
-  </si>
-  <si>
-    <t>mead</t>
-  </si>
-  <si>
-    <t>gær</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>gær plor</t>
-  </si>
-  <si>
-    <t>a pencil. literally means 'wood quill'</t>
-  </si>
-  <si>
-    <t>galar</t>
-  </si>
-  <si>
-    <t>1: to sieze, or capture. 2: to take, grab or move forcefully.</t>
-  </si>
-  <si>
-    <t>galdr</t>
-  </si>
-  <si>
-    <t>orange (color)</t>
-  </si>
-  <si>
-    <t>galk</t>
-  </si>
-  <si>
-    <t>a duck</t>
-  </si>
-  <si>
-    <t>galrig</t>
-  </si>
-  <si>
-    <t>to attack</t>
-  </si>
-  <si>
-    <t>galv</t>
-  </si>
-  <si>
-    <t>the weight of an object</t>
-  </si>
-  <si>
-    <t>galvir</t>
-  </si>
-  <si>
-    <t>being heavy</t>
-  </si>
-  <si>
-    <t>gard</t>
-  </si>
-  <si>
-    <t>one's husband</t>
-  </si>
-  <si>
-    <t>garv</t>
-  </si>
-  <si>
-    <t>a cart, or wagon</t>
-  </si>
-  <si>
-    <t>gatve</t>
-  </si>
-  <si>
-    <t>to annoy</t>
-  </si>
-  <si>
-    <t>gazr</t>
-  </si>
-  <si>
-    <t>to be angry</t>
-  </si>
-  <si>
-    <t>gef</t>
-  </si>
-  <si>
-    <t>a stick</t>
-  </si>
-  <si>
-    <t>geil</t>
-  </si>
-  <si>
-    <t>to shout, or yell</t>
-  </si>
-  <si>
-    <t>gevtir</t>
-  </si>
-  <si>
-    <t>a storm</t>
-  </si>
-  <si>
-    <t>gidhom</t>
-  </si>
-  <si>
-    <t>1: a shadow. 2: darkness. (don't forget to add suffixes)</t>
-  </si>
-  <si>
-    <t>gilja</t>
-  </si>
-  <si>
-    <t>to gibber</t>
-  </si>
-  <si>
-    <t>glæn</t>
-  </si>
-  <si>
-    <t>to buy</t>
-  </si>
-  <si>
-    <t>glan</t>
-  </si>
-  <si>
-    <t>1: something that is bright (visually). 2: the shine of something shiny.</t>
-  </si>
-  <si>
-    <t>gle</t>
-  </si>
-  <si>
-    <t>to act, do, or make</t>
-  </si>
-  <si>
-    <t>gledul</t>
-  </si>
-  <si>
-    <t>1: to work for. 2: to work as. 3: job/occupation.</t>
-  </si>
-  <si>
-    <t>gleid</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>glid</t>
-  </si>
-  <si>
-    <t>to get, take, gain or recieve</t>
-  </si>
-  <si>
-    <t>glof</t>
-  </si>
-  <si>
-    <t>being fat</t>
-  </si>
-  <si>
-    <t>glov</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>glyn</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>gol</t>
-  </si>
-  <si>
-    <t>1: a pole, staff, or scepter. 2: a long rod that is over a meter.</t>
-  </si>
-  <si>
-    <t>gop</t>
-  </si>
-  <si>
-    <t>to grab, or snatch</t>
-  </si>
-  <si>
-    <t>gor</t>
-  </si>
-  <si>
-    <t>a humanoid male</t>
-  </si>
-  <si>
-    <t>gort</t>
-  </si>
-  <si>
-    <t>1: hurt, or injured. 2: to hurt.</t>
-  </si>
-  <si>
-    <t>grast</t>
-  </si>
-  <si>
-    <t>disgust, or gross</t>
-  </si>
-  <si>
-    <t>gren</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>grûl</t>
-  </si>
-  <si>
-    <t>a mace</t>
-  </si>
-  <si>
-    <t>gûb</t>
-  </si>
-  <si>
-    <t>a goose</t>
-  </si>
-  <si>
-    <t>gug</t>
-  </si>
-  <si>
-    <t>rude, mean or impolite</t>
-  </si>
-  <si>
-    <t>gûl</t>
-  </si>
-  <si>
-    <t>a year</t>
-  </si>
-  <si>
-    <t>guld</t>
-  </si>
-  <si>
-    <t>to drink, or consume liquids</t>
-  </si>
-  <si>
-    <t>gund</t>
-  </si>
-  <si>
-    <t>1: physically weak. 2: a defensible thing that is weak. 3: prone to sickness and disease.</t>
-  </si>
-  <si>
-    <t>gundrgi</t>
-  </si>
-  <si>
-    <t>the weakness of something</t>
-  </si>
-  <si>
-    <t>gvolp</t>
-  </si>
-  <si>
-    <t>a group, crowd, or a set (like a lego set)</t>
-  </si>
-  <si>
-    <t>hæges</t>
-  </si>
-  <si>
-    <t>something that can be seen; visible</t>
-  </si>
-  <si>
-    <t>something that is young, or new</t>
-  </si>
-  <si>
-    <t>hær</t>
-  </si>
-  <si>
-    <t>to hear, or listen</t>
-  </si>
-  <si>
-    <t>hærdla</t>
-  </si>
-  <si>
-    <t>an ear of a creature</t>
-  </si>
-  <si>
-    <t>hæs</t>
-  </si>
-  <si>
-    <t>to see, watch, or look at</t>
-  </si>
-  <si>
-    <t>hagrur</t>
-  </si>
-  <si>
-    <t>to fight</t>
-  </si>
-  <si>
-    <t>hagt'ap skog</t>
-  </si>
-  <si>
-    <t>a battleaxe. literally means 'battle-for axe', or 'battle-ready axe' (weapon)</t>
-  </si>
-  <si>
-    <t>hagtol</t>
-  </si>
-  <si>
-    <t>conflict, or war</t>
-  </si>
-  <si>
-    <t>hal</t>
-  </si>
-  <si>
-    <t>a hallway</t>
-  </si>
-  <si>
-    <t>halga</t>
-  </si>
-  <si>
-    <t>hundred</t>
-  </si>
-  <si>
-    <t>to open</t>
-  </si>
-  <si>
-    <t>haskal</t>
-  </si>
-  <si>
-    <t>thunder/the sound of lightning</t>
-  </si>
-  <si>
-    <t>hat</t>
-  </si>
-  <si>
-    <t>to sit</t>
-  </si>
-  <si>
-    <t>hav</t>
-  </si>
-  <si>
-    <t>future tense. use this before the verb and adverbs.</t>
-  </si>
-  <si>
-    <t>havæges</t>
-  </si>
-  <si>
-    <t>to appear</t>
-  </si>
-  <si>
-    <t>ikæges</t>
-  </si>
-  <si>
-    <t>havaldr</t>
-  </si>
-  <si>
-    <t>a mortal, or someone who can die of age</t>
-  </si>
-  <si>
-    <t>havr</t>
-  </si>
-  <si>
-    <t>to want, or wish</t>
-  </si>
-  <si>
-    <t>heg</t>
-  </si>
-  <si>
-    <t>to eat, or consume solids</t>
-  </si>
-  <si>
-    <t>heim</t>
-  </si>
-  <si>
-    <t>a house, or one's home</t>
-  </si>
-  <si>
-    <t>hel</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>helfulg</t>
-  </si>
-  <si>
-    <t>a fiend. literally means 'evil thing from hell'</t>
-  </si>
-  <si>
-    <t>helg</t>
-  </si>
-  <si>
-    <t>a helmet</t>
-  </si>
-  <si>
-    <t>hir</t>
-  </si>
-  <si>
-    <t>a kid, or child</t>
-  </si>
-  <si>
-    <t>hom</t>
-  </si>
-  <si>
-    <t>the light</t>
-  </si>
-  <si>
-    <t>hov</t>
-  </si>
-  <si>
-    <t>equal, or being the same</t>
-  </si>
-  <si>
-    <t>hruld</t>
-  </si>
-  <si>
-    <t>a wizard</t>
-  </si>
-  <si>
-    <t>huld</t>
-  </si>
-  <si>
-    <t>a horse</t>
-  </si>
-  <si>
-    <t>hunan</t>
-  </si>
-  <si>
-    <t>the honey of bees</t>
-  </si>
-  <si>
-    <t>hûv</t>
-  </si>
-  <si>
-    <t>to push</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>if, in case, or on a condition</t>
-  </si>
-  <si>
-    <t>igblab</t>
-  </si>
-  <si>
-    <t>a chicken</t>
-  </si>
-  <si>
-    <t>ik</t>
-  </si>
-  <si>
-    <t>not, or negator. explained in 'morphemes'.</t>
-  </si>
-  <si>
-    <t>to disappear, or vanish</t>
-  </si>
-  <si>
-    <t>impagor</t>
-  </si>
-  <si>
-    <t>a picture, or an image</t>
-  </si>
-  <si>
-    <t>itar</t>
-  </si>
-  <si>
-    <t>an itch</t>
-  </si>
-  <si>
-    <t>itlon</t>
-  </si>
-  <si>
-    <t>to arrive at</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>yes, as in 'yes, i did', or 'yes, you may'.</t>
-  </si>
-  <si>
-    <t>vo</t>
-  </si>
-  <si>
-    <t>jadre</t>
-  </si>
-  <si>
-    <t>jade</t>
-  </si>
-  <si>
-    <t>jæl</t>
-  </si>
-  <si>
-    <t>1: god. 2: a deity.</t>
-  </si>
-  <si>
-    <t>jævil</t>
-  </si>
-  <si>
-    <t>being intelligent, smart, or bright (mentally)</t>
-  </si>
-  <si>
-    <t>jævûnil</t>
-  </si>
-  <si>
-    <t>intelligence</t>
-  </si>
-  <si>
-    <t>jaglyd</t>
-  </si>
-  <si>
-    <t>to be born</t>
-  </si>
-  <si>
-    <t>jagt</t>
-  </si>
-  <si>
-    <t>used to describe a bitter taste</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>on, or onto</t>
-  </si>
-  <si>
-    <t>janva</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>jap</t>
-  </si>
-  <si>
-    <t>1: one's hope. 2: to hope for.</t>
-  </si>
-  <si>
-    <t>japvir</t>
-  </si>
-  <si>
-    <t>one's despair</t>
-  </si>
-  <si>
-    <t>javfer</t>
-  </si>
-  <si>
-    <t>to weave, knit or sow clothing</t>
-  </si>
-  <si>
-    <t>jeg</t>
-  </si>
-  <si>
-    <t>1: be, or act as something. 2: is, are, am.</t>
-  </si>
-  <si>
-    <t>1: used to describe if one has done well. 2: skilled at. 3: used to describe the situation is going well.</t>
-  </si>
-  <si>
-    <t>jomsald</t>
-  </si>
-  <si>
-    <t>hello, or hi. translated directly into "good far".</t>
-  </si>
-  <si>
-    <t>morally good</t>
-  </si>
-  <si>
-    <t>jrg</t>
-  </si>
-  <si>
-    <t>1: cattle. 2: a bull, or a cow.</t>
-  </si>
-  <si>
-    <t>jû</t>
-  </si>
-  <si>
-    <t>rainwater</t>
-  </si>
-  <si>
-    <t>jûmor</t>
-  </si>
-  <si>
-    <t>a king, or a male monarch</t>
-  </si>
-  <si>
-    <t>jûmorlorvet</t>
-  </si>
-  <si>
-    <t>a kingdom. literally means 'kings land'</t>
-  </si>
-  <si>
-    <t>jûr</t>
-  </si>
-  <si>
-    <t>a lord, jarl or earl</t>
-  </si>
-  <si>
-    <t>kal</t>
-  </si>
-  <si>
-    <t>a cup. mug, or tankard</t>
-  </si>
-  <si>
-    <t>kald</t>
-  </si>
-  <si>
-    <t>pants, or shorts (legwear)</t>
-  </si>
-  <si>
-    <t>kirselreg</t>
-  </si>
-  <si>
-    <t>any type of military fortification</t>
-  </si>
-  <si>
-    <t>kirserig</t>
-  </si>
-  <si>
-    <t>a structure where soldiers residue</t>
-  </si>
-  <si>
-    <t>klæd</t>
-  </si>
-  <si>
-    <t>cloth</t>
-  </si>
-  <si>
-    <t>klædvin</t>
-  </si>
-  <si>
-    <t>any cloth attire, or apparel; clothing.</t>
-  </si>
-  <si>
-    <t>kledvant</t>
-  </si>
-  <si>
-    <t>a gambeson, or padded armor</t>
-  </si>
-  <si>
-    <t>klid</t>
-  </si>
-  <si>
-    <t>chain mail</t>
-  </si>
-  <si>
-    <t>korpæt</t>
-  </si>
-  <si>
-    <t>complete (the adjective, not the verb), or absolute</t>
-  </si>
-  <si>
-    <t>kyræm</t>
-  </si>
-  <si>
-    <t>a sword (weapon)</t>
-  </si>
-  <si>
-    <t>lægi</t>
-  </si>
-  <si>
-    <t>a language</t>
-  </si>
-  <si>
-    <t>laftaln</t>
-  </si>
-  <si>
-    <t>the most liked; favorite</t>
-  </si>
-  <si>
-    <t>lagi</t>
-  </si>
-  <si>
-    <t>to speak, talk, or to say something</t>
-  </si>
-  <si>
-    <t>lalvdr</t>
-  </si>
-  <si>
-    <t>a fish</t>
-  </si>
-  <si>
-    <t>lanyr</t>
-  </si>
-  <si>
-    <t>while, or when the time comes</t>
-  </si>
-  <si>
-    <t>larfror</t>
-  </si>
-  <si>
-    <t>a flower</t>
-  </si>
-  <si>
-    <t>leif</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>leif-ezrig</t>
-  </si>
-  <si>
-    <t>a butterfly. literally means 'beautiful bug'</t>
-  </si>
-  <si>
-    <t>leivær</t>
-  </si>
-  <si>
-    <t>a pedestal</t>
-  </si>
-  <si>
-    <t>linsosvir</t>
-  </si>
-  <si>
-    <t>something that is very small; minuscule</t>
-  </si>
-  <si>
-    <t>linsûr</t>
-  </si>
-  <si>
-    <t>a place, or location</t>
-  </si>
-  <si>
-    <t>lis</t>
-  </si>
-  <si>
-    <t>something that is small, or little</t>
-  </si>
-  <si>
-    <t>lis fjolpla</t>
-  </si>
-  <si>
-    <t>a raft. literally means 'small boat'</t>
-  </si>
-  <si>
-    <t>lis huld</t>
-  </si>
-  <si>
-    <t>a pony. literally means 'small horse'</t>
-  </si>
-  <si>
-    <t>lof</t>
-  </si>
-  <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>equivalent to and, or then</t>
-  </si>
-  <si>
-    <t>lorso</t>
-  </si>
-  <si>
-    <t>many, much, several, or a lot of</t>
-  </si>
-  <si>
-    <t>lorvet</t>
-  </si>
-  <si>
-    <t>1: the ground. 2: land, or territory.</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>to like</t>
-  </si>
-  <si>
-    <t>lûdor</t>
-  </si>
-  <si>
-    <t>a horn, or the antlers of an animal</t>
-  </si>
-  <si>
-    <t>lûdor jrg</t>
-  </si>
-  <si>
-    <t>a yak</t>
-  </si>
-  <si>
-    <t>luf</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>lug</t>
-  </si>
-  <si>
-    <t>a leg of a creature</t>
-  </si>
-  <si>
-    <t>lûglar</t>
-  </si>
-  <si>
-    <t>1: a question. 2: to ask a question. 3. a question given by someone to solve.</t>
-  </si>
-  <si>
-    <t>lûil</t>
-  </si>
-  <si>
-    <t>1: life. 2: one that is alive, or still living.</t>
-  </si>
-  <si>
-    <t>væk</t>
-  </si>
-  <si>
-    <t>lur</t>
-  </si>
-  <si>
-    <t>1: more. 2: more indicator for verbs, adj and adv. example: 'longer!' = 'more long!'</t>
-  </si>
-  <si>
-    <t>lur dervda</t>
-  </si>
-  <si>
-    <t>a pike, or a long spear (weapon)</t>
-  </si>
-  <si>
-    <t>lur fjolpla</t>
-  </si>
-  <si>
-    <t>a longboat. literally means 'long boat'</t>
-  </si>
-  <si>
-    <t>lur kyræm</t>
-  </si>
-  <si>
-    <t>a longsword (weapon)</t>
-  </si>
-  <si>
-    <t>lur lagi</t>
-  </si>
-  <si>
-    <t>1: to give a speech, or to lecture. 2: a speech or lecture.</t>
-  </si>
-  <si>
-    <t>lur skog</t>
-  </si>
-  <si>
-    <t>a longaxe, or a dane axe. (weapon)</t>
-  </si>
-  <si>
-    <t>lurul</t>
-  </si>
-  <si>
-    <t>to help</t>
-  </si>
-  <si>
-    <t>lutamr</t>
-  </si>
-  <si>
-    <t>the future time, or after</t>
-  </si>
-  <si>
-    <t>lûven</t>
-  </si>
-  <si>
-    <t>equivalent of love</t>
-  </si>
-  <si>
-    <t>mær</t>
-  </si>
-  <si>
-    <t>1: meaning, or the meaning of. 2: to mean something.</t>
-  </si>
-  <si>
-    <t>maglon</t>
-  </si>
-  <si>
-    <t>million</t>
-  </si>
-  <si>
-    <t>mam</t>
-  </si>
-  <si>
-    <t>one's mother</t>
-  </si>
-  <si>
-    <t>mavjeg</t>
-  </si>
-  <si>
-    <t>maybe, might be, or could be</t>
-  </si>
-  <si>
-    <t>meldur</t>
-  </si>
-  <si>
-    <t>to share</t>
-  </si>
-  <si>
-    <t>mevol</t>
-  </si>
-  <si>
-    <t>the head of a creature</t>
-  </si>
-  <si>
-    <t>minad</t>
-  </si>
-  <si>
-    <t>1: the mind of someone. 2: the thoughts of someone.</t>
-  </si>
-  <si>
-    <t>mobre</t>
-  </si>
-  <si>
-    <t>marble</t>
-  </si>
-  <si>
-    <t>mos kyræm</t>
-  </si>
-  <si>
-    <t>a shortsword (weapon)</t>
-  </si>
-  <si>
-    <t>mot</t>
-  </si>
-  <si>
-    <t>the mouth of a creature</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>equivalent to should</t>
-  </si>
-  <si>
-    <t>mûal</t>
-  </si>
-  <si>
-    <t>to kiss</t>
-  </si>
-  <si>
-    <t>mûald</t>
-  </si>
-  <si>
-    <t>1: something that is real. 2: not fake.</t>
-  </si>
-  <si>
-    <t>mur</t>
-  </si>
-  <si>
-    <t>to be sad, or feeling down</t>
-  </si>
-  <si>
-    <t>murk</t>
-  </si>
-  <si>
-    <t>weird, or twisted</t>
-  </si>
-  <si>
-    <t>myr</t>
-  </si>
-  <si>
-    <t>someone's eye</t>
-  </si>
-  <si>
-    <t>nalver</t>
-  </si>
-  <si>
-    <t>a shoe</t>
-  </si>
-  <si>
-    <t>navr</t>
-  </si>
-  <si>
-    <t>1: one's name. when asked, the word usually means the full name. 2: the name of something.</t>
-  </si>
-  <si>
-    <t>never before</t>
-  </si>
-  <si>
-    <t>evtamr, tampût</t>
-  </si>
-  <si>
-    <t>ne</t>
-  </si>
-  <si>
-    <t>refers to a male. equivalent to he, him, and his.</t>
-  </si>
-  <si>
-    <t>nedvir</t>
-  </si>
-  <si>
-    <t>to need, or require</t>
-  </si>
-  <si>
-    <t>nit</t>
-  </si>
-  <si>
-    <t>nine</t>
-  </si>
-  <si>
-    <t>nor</t>
-  </si>
-  <si>
-    <t>stone, or rock</t>
-  </si>
-  <si>
-    <t>norl</t>
-  </si>
-  <si>
-    <t>beside</t>
-  </si>
-  <si>
-    <t>nus</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>nyval</t>
-  </si>
-  <si>
-    <t>someone who is crazy, insane, or twisted</t>
-  </si>
-  <si>
-    <t>olbr</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>ordun</t>
-  </si>
-  <si>
-    <t>1: to think of. 2: to remember, or recall. 3: suppose, or guess.</t>
-  </si>
-  <si>
-    <t>orelg</t>
-  </si>
-  <si>
-    <t>the earth</t>
-  </si>
-  <si>
-    <t>orul</t>
-  </si>
-  <si>
-    <t>an orb, usually made of crystal or glass</t>
-  </si>
-  <si>
-    <t>paldun</t>
-  </si>
-  <si>
-    <t>purple, or violet</t>
-  </si>
-  <si>
-    <t>palfar</t>
-  </si>
-  <si>
-    <t>to pull</t>
-  </si>
-  <si>
-    <t>par</t>
-  </si>
-  <si>
-    <t>the present time, or now</t>
-  </si>
-  <si>
-    <t>pargad</t>
-  </si>
-  <si>
-    <t>to hit</t>
-  </si>
-  <si>
-    <t>parlar</t>
-  </si>
-  <si>
-    <t>any type of spice</t>
-  </si>
-  <si>
-    <t>parva</t>
-  </si>
-  <si>
-    <t>currently</t>
-  </si>
-  <si>
-    <t>povri</t>
-  </si>
-  <si>
-    <t>parvi</t>
-  </si>
-  <si>
-    <t>equivalent to feces, or poop</t>
-  </si>
-  <si>
-    <t>patrnig</t>
-  </si>
-  <si>
-    <t>a painting</t>
-  </si>
-  <si>
-    <t>pav</t>
-  </si>
-  <si>
-    <t>to give, or grant</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>equivalent of the</t>
-  </si>
-  <si>
-    <t>peim</t>
-  </si>
-  <si>
-    <t>a piece, fragment, or part</t>
-  </si>
-  <si>
-    <t>pla</t>
-  </si>
-  <si>
-    <t>a plank of wood</t>
-  </si>
-  <si>
-    <t>plor</t>
-  </si>
-  <si>
-    <t>a quill</t>
-  </si>
-  <si>
-    <t>plorvlar</t>
-  </si>
-  <si>
-    <t>used to describe a sour taste</t>
-  </si>
-  <si>
-    <t>plûb</t>
-  </si>
-  <si>
-    <t>a bird</t>
-  </si>
-  <si>
-    <t>polfir</t>
-  </si>
-  <si>
-    <t>1: to worry about. 2: to care for someone.</t>
-  </si>
-  <si>
-    <t>pordun</t>
-  </si>
-  <si>
-    <t>a boot from a pair of boots</t>
-  </si>
-  <si>
-    <t>pov</t>
-  </si>
-  <si>
-    <t>1: the past time, or before. 2: previous, or last.</t>
-  </si>
-  <si>
-    <t>povva</t>
-  </si>
-  <si>
-    <t>previously</t>
-  </si>
-  <si>
-    <t>parri</t>
-  </si>
-  <si>
-    <t>pûk</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>to prohibit.</t>
-  </si>
-  <si>
-    <t>ralm</t>
-  </si>
-  <si>
-    <t>a sprout, or shoot of a plant</t>
-  </si>
-  <si>
-    <t>ret</t>
-  </si>
-  <si>
-    <t>a mouse, or a rat</t>
-  </si>
-  <si>
-    <t>rom</t>
-  </si>
-  <si>
-    <t>a room</t>
-  </si>
-  <si>
-    <t>ru</t>
-  </si>
-  <si>
-    <t>equivalent to you</t>
-  </si>
-  <si>
-    <t>rûdag</t>
-  </si>
-  <si>
-    <t>rules, or law</t>
-  </si>
-  <si>
-    <t>rul</t>
-  </si>
-  <si>
-    <t>to reign, or rule</t>
-  </si>
-  <si>
-    <t>rym</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>sæf</t>
-  </si>
-  <si>
-    <t>one's wife</t>
-  </si>
-  <si>
-    <t>sær</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>sar</t>
-  </si>
-  <si>
-    <t>saf</t>
-  </si>
-  <si>
-    <t>a leaf</t>
-  </si>
-  <si>
-    <t>sag</t>
-  </si>
-  <si>
-    <t>a knife, dagger, or dirk (weapon)</t>
-  </si>
-  <si>
-    <t>sak</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>sald</t>
-  </si>
-  <si>
-    <t>far, or far away</t>
-  </si>
-  <si>
-    <t>salf</t>
-  </si>
-  <si>
-    <t>the state of health of one's body</t>
-  </si>
-  <si>
-    <t>salfri</t>
-  </si>
-  <si>
-    <t>being healthy</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
-    <t>sart</t>
-  </si>
-  <si>
-    <t>grass</t>
-  </si>
-  <si>
-    <t>sartfen</t>
-  </si>
-  <si>
-    <t>a bed</t>
-  </si>
-  <si>
-    <t>sat</t>
-  </si>
-  <si>
-    <t>that, or it</t>
-  </si>
-  <si>
-    <t>satle</t>
-  </si>
-  <si>
-    <t>equivalent of those, plural of that</t>
-  </si>
-  <si>
-    <t>saveik</t>
-  </si>
-  <si>
-    <t>to scream</t>
-  </si>
-  <si>
-    <t>savût</t>
-  </si>
-  <si>
-    <t>a ghost, or a spirit</t>
-  </si>
-  <si>
-    <t>sef</t>
-  </si>
-  <si>
-    <t>to thank something</t>
-  </si>
-  <si>
-    <t>segef</t>
-  </si>
-  <si>
-    <t>sugar</t>
-  </si>
-  <si>
-    <t>segefri</t>
-  </si>
-  <si>
-    <t>used to describe a sweet taste</t>
-  </si>
-  <si>
-    <t>seir</t>
-  </si>
-  <si>
-    <t>gray, or grey</t>
-  </si>
-  <si>
-    <t>sel</t>
-  </si>
-  <si>
-    <t>near</t>
-  </si>
-  <si>
-    <t>selgvot</t>
-  </si>
-  <si>
-    <t>used to refer something that has rotten</t>
-  </si>
-  <si>
-    <t>selk</t>
-  </si>
-  <si>
-    <t>to rot</t>
-  </si>
-  <si>
-    <t>sergval</t>
-  </si>
-  <si>
-    <t>refers to a humanoid creature; person.</t>
-  </si>
-  <si>
-    <t>sert</t>
-  </si>
-  <si>
-    <t>1: a tunic, or a long sleeved shirt. 2: a chain mail hauberk.</t>
-  </si>
-  <si>
-    <t>sfov</t>
-  </si>
-  <si>
-    <t>the nose of a creature</t>
-  </si>
-  <si>
-    <t>sig</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>sigle</t>
-  </si>
-  <si>
-    <t>equivalent of these, plural of this</t>
-  </si>
-  <si>
-    <t>sil</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>siv</t>
-  </si>
-  <si>
-    <t>seven</t>
-  </si>
-  <si>
-    <t>skal</t>
-  </si>
-  <si>
-    <t>must, shall or have to</t>
-  </si>
-  <si>
-    <t>skobal</t>
-  </si>
-  <si>
-    <t>to shoot, or fire a weapon</t>
-  </si>
-  <si>
-    <t>skog</t>
-  </si>
-  <si>
-    <t>an axe (weapon)</t>
-  </si>
-  <si>
-    <t>solmun</t>
-  </si>
-  <si>
-    <t>equivalent to nothing</t>
-  </si>
-  <si>
-    <t>sor</t>
-  </si>
-  <si>
-    <t>a humanoid female</t>
-  </si>
-  <si>
-    <t>sorp</t>
-  </si>
-  <si>
-    <t>falling down</t>
-  </si>
-  <si>
-    <t>sref</t>
-  </si>
-  <si>
-    <t>sot</t>
-  </si>
-  <si>
-    <t>under, or below</t>
-  </si>
-  <si>
-    <t>spûva</t>
-  </si>
-  <si>
-    <t>1: play. 2: silly (don't forget to add the appropriate suffix)</t>
-  </si>
-  <si>
-    <t>to fly</t>
-  </si>
-  <si>
-    <t>storn</t>
-  </si>
-  <si>
-    <t>a story, or a length of text telling a story</t>
-  </si>
-  <si>
-    <t>sulf</t>
-  </si>
-  <si>
-    <t>fur, or hair</t>
-  </si>
-  <si>
-    <t>sulfgor</t>
-  </si>
-  <si>
-    <t>a primate</t>
-  </si>
-  <si>
-    <t>sur</t>
-  </si>
-  <si>
-    <t>refers to a female. equivalent to she, and her.</t>
-  </si>
-  <si>
-    <t>svus</t>
-  </si>
-  <si>
-    <t>to write, or print</t>
-  </si>
-  <si>
-    <t>svusor</t>
-  </si>
-  <si>
-    <t>to send</t>
-  </si>
-  <si>
-    <t>talavûr</t>
-  </si>
-  <si>
-    <t>1: the design of, or the looks of. 2: designing. (don't forget the verb tenses!)</t>
-  </si>
-  <si>
-    <t>talg</t>
-  </si>
-  <si>
-    <t>being skinny</t>
-  </si>
-  <si>
-    <t>talyg</t>
-  </si>
-  <si>
-    <t>used to describe anything that is an object</t>
-  </si>
-  <si>
-    <t>tam</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>tam-ûn</t>
-  </si>
-  <si>
-    <t>eleven</t>
-  </si>
-  <si>
-    <t>tampût</t>
-  </si>
-  <si>
-    <t>something that was done again</t>
-  </si>
-  <si>
-    <t>tanlar</t>
-  </si>
-  <si>
-    <t>to read</t>
-  </si>
-  <si>
-    <t>tar</t>
-  </si>
-  <si>
-    <t>start, or begin an action or process</t>
-  </si>
-  <si>
-    <t>tarfa</t>
-  </si>
-  <si>
-    <t>to raid, or pillage</t>
-  </si>
-  <si>
-    <t>tastan</t>
-  </si>
-  <si>
-    <t>thousand</t>
-  </si>
-  <si>
     <t>an unknown object. equivalent to thing.</t>
   </si>
   <si>
@@ -2914,6 +2917,9 @@
   </si>
   <si>
     <t>dinner, or supper</t>
+  </si>
+  <si>
+    <t>what</t>
   </si>
 </sst>
 </file>
@@ -3498,12 +3504,12 @@
         <v>37</v>
       </c>
       <c r="G5" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(A:C, REGEXMATCH(B:B, H3))"),"enlutar")</f>
-        <v>enlutar</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(A:C, REGEXMATCH(B:B, H3))"),"bag")</f>
+        <v>bag</v>
       </c>
       <c r="H5" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"to know, or understand, or feel someone's feelings")</f>
-        <v>to know, or understand, or feel someone's feelings</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"big, vast, massive, or great")</f>
+        <v>big, vast, massive, or great</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="13" t="s">
@@ -3545,8 +3551,14 @@
       <c r="F6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="G6" s="8" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"balfjor")</f>
+        <v>balfjor</v>
+      </c>
+      <c r="H6" s="8" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"to destroy something big")</f>
+        <v>to destroy something big</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9" t="s">
         <v>44</v>
@@ -15844,10 +15856,10 @@
     </row>
     <row r="386">
       <c r="A386" s="14" t="s">
-        <v>7</v>
+        <v>843</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C386" s="8"/>
       <c r="D386" s="8"/>
@@ -15876,10 +15888,10 @@
     </row>
     <row r="387">
       <c r="A387" s="14" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C387" s="8"/>
       <c r="D387" s="8"/>
@@ -15908,10 +15920,10 @@
     </row>
     <row r="388">
       <c r="A388" s="11" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B388" s="11" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C388" s="8"/>
       <c r="D388" s="8"/>
@@ -15940,10 +15952,10 @@
     </row>
     <row r="389">
       <c r="A389" s="14" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C389" s="8"/>
       <c r="D389" s="8"/>
@@ -15975,7 +15987,7 @@
         <v>319</v>
       </c>
       <c r="B390" s="11" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C390" s="14" t="s">
         <v>317</v>
@@ -16006,10 +16018,10 @@
     </row>
     <row r="391">
       <c r="A391" s="14" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C391" s="8"/>
       <c r="D391" s="8"/>
@@ -16038,10 +16050,10 @@
     </row>
     <row r="392">
       <c r="A392" s="14" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C392" s="8"/>
       <c r="D392" s="8"/>
@@ -16070,10 +16082,10 @@
     </row>
     <row r="393">
       <c r="A393" s="14" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C393" s="8"/>
       <c r="D393" s="8"/>
@@ -16102,10 +16114,10 @@
     </row>
     <row r="394">
       <c r="A394" s="14" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C394" s="8"/>
       <c r="D394" s="8"/>
@@ -16134,10 +16146,10 @@
     </row>
     <row r="395">
       <c r="A395" s="14" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C395" s="8"/>
       <c r="D395" s="8"/>
@@ -16166,10 +16178,10 @@
     </row>
     <row r="396">
       <c r="A396" s="14" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C396" s="8"/>
       <c r="D396" s="8"/>
@@ -16198,10 +16210,10 @@
     </row>
     <row r="397">
       <c r="A397" s="14" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C397" s="8"/>
       <c r="D397" s="8"/>
@@ -16230,10 +16242,10 @@
     </row>
     <row r="398">
       <c r="A398" s="14" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C398" s="8"/>
       <c r="D398" s="8"/>
@@ -16262,10 +16274,10 @@
     </row>
     <row r="399">
       <c r="A399" s="14" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C399" s="8"/>
       <c r="D399" s="8"/>
@@ -16294,10 +16306,10 @@
     </row>
     <row r="400">
       <c r="A400" s="14" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C400" s="8"/>
       <c r="D400" s="8"/>
@@ -16326,10 +16338,10 @@
     </row>
     <row r="401">
       <c r="A401" s="14" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C401" s="8"/>
       <c r="D401" s="8"/>
@@ -16358,10 +16370,10 @@
     </row>
     <row r="402">
       <c r="A402" s="14" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C402" s="8"/>
       <c r="D402" s="8"/>
@@ -16390,10 +16402,10 @@
     </row>
     <row r="403">
       <c r="A403" s="14" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C403" s="8"/>
       <c r="D403" s="8"/>
@@ -16422,10 +16434,10 @@
     </row>
     <row r="404">
       <c r="A404" s="14" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C404" s="8"/>
       <c r="D404" s="8"/>
@@ -16454,10 +16466,10 @@
     </row>
     <row r="405">
       <c r="A405" s="14" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C405" s="8"/>
       <c r="D405" s="8"/>
@@ -16486,10 +16498,10 @@
     </row>
     <row r="406">
       <c r="A406" s="14" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C406" s="8"/>
       <c r="D406" s="8"/>
@@ -16518,10 +16530,10 @@
     </row>
     <row r="407">
       <c r="A407" s="14" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C407" s="8"/>
       <c r="D407" s="8"/>
@@ -16553,7 +16565,7 @@
         <v>598</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C408" s="14" t="s">
         <v>596</v>
@@ -16584,10 +16596,10 @@
     </row>
     <row r="409">
       <c r="A409" s="14" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C409" s="8"/>
       <c r="D409" s="8"/>
@@ -16616,10 +16628,10 @@
     </row>
     <row r="410">
       <c r="A410" s="14" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C410" s="8"/>
       <c r="D410" s="8"/>
@@ -16648,10 +16660,10 @@
     </row>
     <row r="411">
       <c r="A411" s="14" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C411" s="8"/>
       <c r="D411" s="8"/>
@@ -16680,10 +16692,10 @@
     </row>
     <row r="412">
       <c r="A412" s="14" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C412" s="8"/>
       <c r="D412" s="8"/>
@@ -16712,10 +16724,10 @@
     </row>
     <row r="413">
       <c r="A413" s="14" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C413" s="8"/>
       <c r="D413" s="8"/>
@@ -16744,10 +16756,10 @@
     </row>
     <row r="414">
       <c r="A414" s="14" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C414" s="8"/>
       <c r="D414" s="8"/>
@@ -16776,10 +16788,10 @@
     </row>
     <row r="415">
       <c r="A415" s="14" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
@@ -16808,10 +16820,10 @@
     </row>
     <row r="416">
       <c r="A416" s="14" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C416" s="8"/>
       <c r="D416" s="8"/>
@@ -16840,10 +16852,10 @@
     </row>
     <row r="417">
       <c r="A417" s="14" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C417" s="8"/>
       <c r="D417" s="8"/>
@@ -16872,10 +16884,10 @@
     </row>
     <row r="418">
       <c r="A418" s="14" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
@@ -16904,10 +16916,10 @@
     </row>
     <row r="419">
       <c r="A419" s="14" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C419" s="8"/>
       <c r="D419" s="8"/>
@@ -16936,10 +16948,10 @@
     </row>
     <row r="420">
       <c r="A420" s="14" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C420" s="8"/>
       <c r="D420" s="8"/>
@@ -16971,7 +16983,7 @@
         <v>489</v>
       </c>
       <c r="B421" s="11" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C421" s="14" t="s">
         <v>487</v>
@@ -17002,10 +17014,10 @@
     </row>
     <row r="422">
       <c r="A422" s="14" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C422" s="8"/>
       <c r="D422" s="8"/>
@@ -17034,10 +17046,10 @@
     </row>
     <row r="423">
       <c r="A423" s="14" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C423" s="8"/>
       <c r="D423" s="8"/>
@@ -17066,10 +17078,10 @@
     </row>
     <row r="424">
       <c r="A424" s="14" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C424" s="8"/>
       <c r="D424" s="8"/>
@@ -17098,10 +17110,10 @@
     </row>
     <row r="425">
       <c r="A425" s="14" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C425" s="8"/>
       <c r="D425" s="8"/>
@@ -17130,13 +17142,13 @@
     </row>
     <row r="426">
       <c r="A426" s="14" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C426" s="14" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D426" s="8"/>
       <c r="E426" s="8"/>
@@ -17164,10 +17176,10 @@
     </row>
     <row r="427">
       <c r="A427" s="14" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C427" s="8"/>
       <c r="D427" s="8"/>
@@ -17196,10 +17208,10 @@
     </row>
     <row r="428">
       <c r="A428" s="14" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C428" s="8"/>
       <c r="D428" s="8"/>
@@ -17228,10 +17240,10 @@
     </row>
     <row r="429">
       <c r="A429" s="14" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C429" s="8"/>
       <c r="D429" s="8"/>
@@ -17260,13 +17272,13 @@
     </row>
     <row r="430">
       <c r="A430" s="14" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D430" s="8"/>
       <c r="E430" s="8"/>
@@ -17294,10 +17306,10 @@
     </row>
     <row r="431">
       <c r="A431" s="14" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C431" s="8"/>
       <c r="D431" s="8"/>
@@ -17326,10 +17338,10 @@
     </row>
     <row r="432">
       <c r="A432" s="14" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C432" s="8"/>
       <c r="D432" s="8"/>
@@ -17358,10 +17370,10 @@
     </row>
     <row r="433">
       <c r="A433" s="14" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C433" s="8"/>
       <c r="D433" s="8"/>
@@ -17390,10 +17402,10 @@
     </row>
     <row r="434">
       <c r="A434" s="14" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C434" s="8"/>
       <c r="D434" s="8"/>
@@ -17422,10 +17434,10 @@
     </row>
     <row r="435">
       <c r="A435" s="14" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C435" s="8"/>
       <c r="D435" s="8"/>
@@ -17454,10 +17466,10 @@
     </row>
     <row r="436">
       <c r="A436" s="14" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C436" s="8"/>
       <c r="D436" s="8"/>
@@ -17486,10 +17498,10 @@
     </row>
     <row r="437">
       <c r="A437" s="14" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C437" s="8"/>
       <c r="D437" s="8"/>
@@ -17518,10 +17530,10 @@
     </row>
     <row r="438">
       <c r="A438" s="14" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C438" s="8"/>
       <c r="D438" s="8"/>
@@ -17550,10 +17562,10 @@
     </row>
     <row r="439">
       <c r="A439" s="14" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C439" s="8"/>
       <c r="D439" s="8"/>
@@ -17582,10 +17594,10 @@
     </row>
     <row r="440">
       <c r="A440" s="14" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C440" s="8"/>
       <c r="D440" s="8"/>
@@ -17614,10 +17626,10 @@
     </row>
     <row r="441">
       <c r="A441" s="14" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C441" s="8"/>
       <c r="D441" s="8"/>
@@ -17646,10 +17658,10 @@
     </row>
     <row r="442">
       <c r="A442" s="14" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C442" s="8"/>
       <c r="D442" s="8"/>
@@ -17678,10 +17690,10 @@
     </row>
     <row r="443">
       <c r="A443" s="14" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C443" s="8"/>
       <c r="D443" s="8"/>
@@ -17710,10 +17722,10 @@
     </row>
     <row r="444">
       <c r="A444" s="14" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C444" s="8"/>
       <c r="D444" s="8"/>
@@ -17742,10 +17754,10 @@
     </row>
     <row r="445">
       <c r="A445" s="14" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C445" s="8"/>
       <c r="D445" s="8"/>
@@ -17774,10 +17786,10 @@
     </row>
     <row r="446">
       <c r="A446" s="14" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C446" s="8"/>
       <c r="D446" s="8"/>
@@ -17806,10 +17818,10 @@
     </row>
     <row r="447">
       <c r="A447" s="14" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C447" s="8"/>
       <c r="D447" s="8"/>
@@ -17838,10 +17850,10 @@
     </row>
     <row r="448">
       <c r="A448" s="14" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C448" s="8"/>
       <c r="D448" s="8"/>
@@ -17870,10 +17882,10 @@
     </row>
     <row r="449">
       <c r="A449" s="14" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C449" s="8"/>
       <c r="D449" s="8"/>
@@ -17901,8 +17913,12 @@
       <c r="Z449" s="8"/>
     </row>
     <row r="450">
-      <c r="A450" s="8"/>
-      <c r="B450" s="8"/>
+      <c r="A450" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B450" s="14" t="s">
+        <v>968</v>
+      </c>
       <c r="C450" s="8"/>
       <c r="D450" s="8"/>
       <c r="E450" s="8"/>
